--- a/msutils/source/context_+n.xlsx
+++ b/msutils/source/context_+n.xlsx
@@ -5,16 +5,17 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingchen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="50100" windowHeight="26520" tabRatio="500"/>
+    <workbookView xWindow="11380" yWindow="29240" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="zodiac" sheetId="2" r:id="rId1"/>
     <sheet name="gem" sheetId="3" r:id="rId2"/>
     <sheet name="color" sheetId="4" r:id="rId3"/>
+    <sheet name="Compatibility" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1430">
   <si>
     <t>Scorpio</t>
   </si>
@@ -2256,6 +2257,3103 @@
 Both sexes have considerable charm and dignity. In marriage they can be genuinely affectionate, and make good partners and parents. They are meticulous planners, considering every detail and its effect.
 There is seldom much room for emotional involvement because the mind is always engaged and dominant. What they lack in the passion they make up for in preciseness.When confronted with obstacles, they stay calm and rational and work on finding a solution rather than losing their cool. This calmness is sometimes seen as being cold and calculating. In spite of this, Virgos are friendly and outgoing people.
 Virgoans are essentially tacticians, admirable in the attainment of limited objectives. They have a basic distrust of their nature, not only of other people but themselves as well. They project this mistrust to others and therefore make exacting employers. Although they will never ask anyone to do what they won't do, it is still asking a lot, because most people will not go to the pains a Virgo will.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性星座</t>
+    <rPh sb="0" eb="1">
+      <t>nan'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性星座</t>
+    <rPh sb="0" eb="1">
+      <t>nv'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zodiac_man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zodiac_woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体</t>
+    <rPh sb="0" eb="1">
+      <t>zong'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You two can strike a good balance: Taurus can stabilize impetuous Aries, and Aries can liven up complacent Taurus. But be careful -- when it's good, it's really good, but when it's bad, it's terrible! Initially, there would be much affection involved, but as time goes on there would be too much of in-fighting and nagging in the relationship. You'll probably hit it off in the beginning but then grind to a halt when your opposing personalities turn into a clash of wills. You're better off as friends.
+The reason is that the Aries man does not take life very seriously and is a couch-potato while the Taurus woman would be much practical regarding life's activities. 
+The Man's ego irritates the Aries woman who feels too much restrained.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be much romance with this combination of personalities of an Aries man and a Taurus woman. The passive nature of the Taurus woman goes well with the dominant Aries man. The Taurus woman can attend to the domestic needs of the household and this makes her charming to the Aries Man.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friendship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Aries are comrades for life. This is a duo that will do a lot together in life. Adventurous activities of all sorts help this twosome to stick together. If both have an inimitable spirit and are ready to take risks in life then this companionship is just heaven.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire and water don't mix well, and that's an issue here. Brash Aries man can hurt sensitive Cancer woman's feelings without even realizing what's happening until the damage is done which makes life difficult for the Cancer woman. He would be sharp in his words which might not go well with her.
+The Cancer woman likes a cozy nest where both can spend time together but the Aries man likes to get admiring looks from the opposite sex outside his world.
+Emotional Cancer can dampen fiery Aries's sense of excitement. If the Aries man would give her the emotional backing and if the Cancer woman would give him the much-needed freedom then this would be the best duo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scorpio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This relationship has one of the highest levels of compatibility than any other combination as far as romance and passion are concerned. There would be lots of life, energy and better chemistry between the duo. The energy levels get doubled here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be better compatibility for friendship as well here. The Aries man and the Scorpio woman together enjoy all sorts of extreme adventures in life. Much action, trust and mutual admiration of the other can be seen here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">At first glance, you two seem to have nothing in common. Aries loves taking risks, while Capricorn loves to plan -- far, far into the future. But on second thought, you do have a lot in common: you're both driven and ambitious and approach life with single-minded intensity. 
+There would be troubles in the relationship between an Aries man and a Capricorn woman. As both are strong and steadfast individuals there would be frequent classes of ego and status.Your values are quite different, and Aries tends to switch tracks much more often than Capricorn.
+Each holds on to his/her opinions and stand and hence there would be occasional rifts. For the relationship to succeed, one has to give in, it would be better if the Capricorn woman has the last say here.
+But for this the duo would be hard working, committed and goal-oriented individuals who like to co-operate to stay at the top. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Though this relationship has much tenderness not much romanticism would be seen here. The Capricorn woman is someone that is not much receptive to romantic encounters of the Aries man.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a good amount of compatibility for marriage to work with this combination. There would be much dedication to the institution of marriage here. Both work hard towards a committed marriage and with a little leeway here and there this duo can make up a good marriage.</t>
+  </si>
+  <si>
+    <t>The Aries man and the Aquarius woman in the relationship do not know much about romance and commitment. The Aquarius undoubtedly has nothing to do with passion while the excited Aries usually settles down with an uneventful Aquarius in a relationship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one combination that is not much compatible for marriage. Usually it would be disrupted and there would be no way for rapprochement here. The Aquarius female would not have much commitment to the institution of marriage. Though the Aries is committed he would find the going tough with his partner in marriage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a high level of compatibility with this duo when it comes to marriage. It would be a lifetime commitment for both the sides. The Pisces would be a Goddess of love and the Aries man would be a God of all giving in the marriage.</t>
+  </si>
+  <si>
+    <t>This combination of a Taurus male and a Taurus female are very much compatible for marriage. Both yearn for a stable relationship and a settled life and hence there won't be any major hindrances or hitches in this marriage. Stability and a strong foundation keep this relationship strong in turbulent times.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You two can strike a good balance: Taurus can stabilize impetuous Aries, and Aries can liven up complacent Taurus. But be careful -- when it's good, it's really good, but when it's bad, it's terrible! You'll probably hit it off in the beginning but then grind to a halt when your opposing personalities turn into a clash of wills. You're better off as friends.
+The Aries woman is a go-getter and likes adventurous activities while a Taurus male is a dull-head.
+There would be some financial issues as well where the Aries woman likes to spend a lot while the Taurus spends only for the essentials in life.
+If the Taurus male gives the necessary freedom for the Aries woman then there would be goodness in the relationship. Aries woman makes life more enjoyable for the Taurus. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This combination does not have much romance involved instead both the Taurus man and the Aries woman would be more into the practical aspects of life. Neither is interested in romance at sight but instead are more bent towards caring for each other's interests and the like.</t>
+  </si>
+  <si>
+    <t>There would not be much romance found in this combo but the Gemini woman makes sure that she gets enough romance out of the not-so-romantic bull by his materialistic deeds. Her emotional make-over's easily captivated the Taurus male to yield to her wishes and fantasies. The Taurus male is very possessive while the Gemini woman is a social bird who might invite the wrath of her partner at times in this area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You two have plenty of common ground -- for starters, you can both be incredibly stubborn -- but your differences will create friction. The family is important to each of you, which can be a strong foundation for a relationship, but you may find that you clash too much for a comfortable long-term connection. You're both sensual, even dramatic, and make better lovers than partners.
+Since both are stubborn signs there would be constant head-locks in this combination.
+The Leo woman likes to lead the Taurus man but he is not one to yield to her whims and fantasies. He can be taken to greener pastures only if he has his mind set on it.
+There would be frequent tensions in this relationship. The Taurus man is noted for his huge temper tantrums which the Leo finds very difficult to handle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leo woman craves for romance and passion with high expectation levels. But the Taurus man has very little say in this matter. The least that he can show his romance for her is buying her something costly. He is not noted for showing physical or emotional affection. But then things go on well with some effort by the Leo woman.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Taurus male and the Leo female do not make good friends. The Taurus man is a lazy-go fellow who does not usually heed to the needs of his counterpart. But the Leo woman likes him to follow her every rule in the book. The Taurus man would be best satisfied with a good meal and a good TV show while the Leo woman would be fuming inside. Not a friendly relationship to abide by.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romance comes naturally for this duo of Taurus man and Virgo woman. Both are equally lusty and flirtatious in this relationship. But then the Virgo woman knows how to keep it in check while the Taurus man is likely to express it in a very harsh or raged tone. The Virgo woman handles the bull gently and hence the issue gets sorted out easily.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This relationship between the Taurus man and the Scorpio woman would be much compatible when compared to the other combinations.
+Earth and water together make for a powerful force. In fact, you're both strong-willed and you probably won't be able to resist power plays. You'll have a strong bond that's hard to break but expect some discord as well. This is because the intense energy levels of the Scorpio woman keeps it going come what may. The ambitious Taurus usually dominates the scene.
+He is sexual, sensual and an equal for his Scorpio counterpart. She, on the other hand, takes him places in a more emotional sense.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This pair of the Taurus man and the Scorpio woman are not much noted for romance. The relationship is more intense than the word romance. There would be an intense passion and lust homing here. Both are committed to each other and endure life together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Aries man and a Sagittarius woman also make good friends for life. Since adventure is in the blood for both there would be no time spent wasted in boredom here. Both would be also found outdoors and on the run always. You have many common interests to set the sails going.</t>
+  </si>
+  <si>
+    <t>Since both the Aries female and the Taurus male are extroverts there would be good compatibility in marriage. You go along together in raising children, building homes, improving financial status together without any hitches as well take time for socializing too. Both are more bent on possessions and this duo has a good chance of marriage survival.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If ever there was a match made in heaven, then it would be the Taurus male with the Taurus female. You're looking for the same things -- namely, security, love, affection and someone you can relate to in an easy, intimate way. You're both bull-headed, which works because you understand each other, including your weaknesses. Once the Bull sets its mind to something, there's no stopping you, so go for it! Together you're destined for greatness.
+Both being earthy signs share the same values in life and hence there would not be any major frictions in life. 
+Both are found to be very conservative and materialistic and are couch potatoes that You revel in the company of the other without any misunderstandings,
+not needing any other companion in life. </t>
+  </si>
+  <si>
+    <t>The Taurus female and the Taurus male make better friends in life because You have a good understanding of each other. You have a common ground to hold onto. However there would be possessiveness which might mar the friendship at times. Each should be beware that You do not hurt the sentiments and the emotional needs of the other for the friendship to survive the test of time.</t>
+  </si>
+  <si>
+    <t>Though a Taurus man and a Cancer woman are much committed and understanding there would not be an explicit show of romance and passion. Protection and security is the keyword in this relationship and hence You find no time to romance and sing around the trees. Passion is something that is not displayed outwardly here.</t>
+  </si>
+  <si>
+    <t>A Taurus male and a Cancer female become friends easily but it would not survive long enough. There would be some misunderstandings because You interfere too much with the privacy o the other. Each one demands from the other and hence the camaraderie needed for a long-lasting friendship would be lost here.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Virgo woman make up for good friends in life. Since both are earthy signs You share common interests on an earthy level. You like doing routine day--to- day affairs together without much humbug. You are very c-operative and beautifully follow the other's instructions that this would be one of the best duos for friendship.</t>
+  </si>
+  <si>
+    <t>This combination would be an ideal one for a compatible marriage. Each one knows his or her boundaries, limits and responsibilities in the marriage. Both would be practical and routine works and children, finances would be handled together at a smooth pace. The Taurus man and the Virgo female make good parents and loyal partners in a marriage. You do not hide anything and the relationship would be quite transparent but opaque to the outside world.</t>
+  </si>
+  <si>
+    <t>There would be much romance involved in this combination but there would not be any outward show of the same. You are not showy and explicitly romantic but are more passionate when You are together at home. You love to watch the TV together each in the other's arms. The Taurus male would be highly passionate and romantic while the Libra woman is a very calm and cool character who does not express her romance easily.</t>
+  </si>
+  <si>
+    <t>Though this combination does not make the ideal friends, You are Ok together on a physical level. Taurus does not easily get along with his partner. But the Libra woman is one to make friends easily. She starts conversations and would not give up her partner under any circumstances in life. The universal nature of the Libra woman would take the friendship of this duo to a new level without any major hiccups.</t>
+  </si>
+  <si>
+    <t>The Aries male and the Virgo female make good friends and companions for life. The Aries man goes onto making lofty goals and adventurous tasks while she takes care of the behind the scene minute details of Your life.</t>
+  </si>
+  <si>
+    <t>The Aries woman and the Libra man make good friends for life. However much emotions and closeness cannot be expected here. You make opportunistic friends when it comes to watching films, playing Your favorite sport together and the like.</t>
+  </si>
+  <si>
+    <t>This duo of an Aries woman and a Taurus man has better compatibility for a friendly relationship. Much comradeship would be involved here. You get along well in Your paths and walk the talk together.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Taurus woman are very down to earth, hence not much romance would be seen displayed externally. However much passion and sexual appeal would be involved in Your private lives. The compatibility for romance depends on how both the individuals have things and time in Your hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two can make this work if you have other shared planets in your chart, but otherwise, I'm finding it hard to see what will keep you together.
+Initially, there would be a good level of attraction between a Taurus man and a Gemini woman, especially on Taurus's side -- Gemini is exciting and flirty and promises lots of fun -- but the Bull's slow, steady approach to life will drive impractical Gemini crazy. Better to stay friends than becoming lovers. However, the long-term prospects depend a lot on the individuals concerned and Your inherent nature. 
+The Gemini woman's energy and self-confidence would be liked by the Taurus male but he should make sure that he gives her the wanted freedom without smothering here. Both have focused on Your personal lives and Your immediate circles. 
+Your life would be sizzling if You stay focused on the relationship. The Taurus male should take care of the domestic needs and she the social needs of the household. </t>
+  </si>
+  <si>
+    <t>These two make good friends for life as You are compliments of each other in Your interests and desires. The Gemini girl has good ideas and the Taurus male makes sure that he gives a practical twist to her ideas. You like to share Your time and fun together in a positive atmosphere.</t>
+  </si>
+  <si>
+    <t>The Taurus male and the Gemini female are very much compatible with a good marriage. Both are very much devoted to the institution of marriage. You take all efforts to create a stable marriage and enjoy Your life of togetherness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Taurus man and the Cancer woman make up a compatible marriage. Your life revolves around Your partners, children and Your immediate family members and Your security for the long term. Not much hindrances and hitches would come on the way and this would be more of a predictable relationship that is compatible enough.
+</t>
+  </si>
+  <si>
+    <t>You're both earth signs, which means you have practical, sensual natures in common. Virgo's sensuality is more reserved than Taurus's, but Taurus can help draw out that side of Virgo. Whether friends or in love, you're a compatible combination because you truly understand each other. You'll fall into an easy routine, which could get dull for some, but not for you-you both thrive within the comfort of habit!
+You live in Your own world unharmed and uninfluenced by the world outside. The ambiance would be genuine, both would be reliable and ward off any changes or exciting moments.
+You love to do Your routine works together and are untouched by outside influences.</t>
+  </si>
+  <si>
+    <t>Where there's heat, there's fire -- and you two are burning up! Your attraction is instant and hot, hot, hot, but don't ignore your potential problem areas, such as struggles over who's boss. Aries tend to have a me-first attitude, so don't forget to stroke your Leo's ego once in a while. Leo likes to rule the roost and can be very sensitive when feeling ignored or underappreciated.
+This is one of the best combination of love among the zodiacs. A greater chemistry exists between the two.
+There would be much fun, excitement, and love involved in this relationship. Both are extroverts, out spoken and emotional as well and hence the going gets easier. 
+Both being fiery signs, at times tempers run up high as well marring the direction of the relationship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Though much romance would not be found in this combination, those involved would not be too bothered about it either. You just go with the wind. You love having fun, sex together and just love the company of the other person. There would not be any inhibitions to show your passions. But then it would not be too much of romance here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bull and the Water-bearer ... hmm, this should be an interesting and unique combination. Really, the only things you have in common are your stubborn, determined attitudes. This could make for some interesting conversation or more likely debates, but it could also lead to hurt or distrustful feelings. On second thought, maybe you're better off as acquaintances.
+Initially, all would be well, but with time, differences seem to crop up in the relationship. The Taurus man is so conservative while the Aquarius woman is radical, which are ways apart.
+But if each one takes turns to dominate then there would be best. Your loyalty also binds yours together despite the differences in opinions. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would not be much compatibility in the area of romance for this duo. Both are not much interested in love and romance. There would be practicality in the relationship and the Aquarius needs to be protected by the Taurus. The Taurus guys lust and the Aquarius girls fantasy get along well though there would be no external exhibition of the same.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You two will enjoy a sweet, gentle connection right from the start. You make a great match, as friends, lovers or long-term partners. You both have highly romantic souls and there's a wonderfully intuitive connection between you. You also complement one another well; Taurus, you can be Pisces's rock, providing the practicality and common sense Pisces lacks. And Pisces, you open up the Bull to a world of dreams and possibility.
+The Taurus man and the Pisces woman make a very compatible relationship for the long run. There would be mutual respect, passion, and romance between the duo.
+Each would express his or her feelings to the other without any inhibitions. The Taurus man provides a secure atmosphere for the Pisces woman to grow.
+In this combination, the best of the Taurus and Pisces are brought out. There would be peace and comfort in this relationship. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This combination of an Aries woman and a Gemini Man is a high energy relationship. You two make great friends and lovers. 
+Aries is quick-blooded and Gemini quick-minded; you both love constant action and you're willing to try anything once. Your enduring friendship will pull you through any hard times and could outlast a romantic connection, as sooner or later you're both likely to find interest in something -- or someone -- else.
+Both have mutual interests and hence life would be better. Gemini gives the Aries woman her much-needed freedom and individuality. Also, she does not forget to pay rapt attention to the Gemini as well. But the Aries woman needs to keep her sensuous nature under the wraps for the relationship to go on smoothly. The Aries woman and the Gemini man have a different approach towards love, sex, marriage and relationships which might cause occasional hindrances. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A good amount of romance would be available in this combination but the Aries female should understand that she should keep things light and cool. Much fun-fare and fireworks could be found in this duo. The Gemini man is more bent on his appearances and the Aries woman is keen on her freedom that sometimes romance takes the backstage here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Gemini man is not much interested in settling down to a committed marriage. But the Aries woman can bring him down and gear him for marriage. She also brings in him the responsibility of marriage and domestic happiness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A Taurus woman and a Gemini man are not much compatible with life. The Taurus woman yearns for stability while the Gemini man is impatient and reckless. The Gemini male is flirtatious too spoiling the relationship further.
+You two can make this work if you have other shared planets in your chart, but otherwise, I'm finding it hard to see what will keep you together. The attraction may be strong in the beginning, especially on Taurus's side -- Gemini is exciting and flirty and promises lots of fun -- but the Bull's slow, steady approach to life will drive impractical Gemini crazy. Better to stay friends than becoming lovers.
+The Taurus woman does not have an adventurous spirit and does not explicitly show her passion. Hence adjustments are difficult and the relationship breaks down as quickly as it started. 
+But if the Taurus female has a central point to hold and the Gemini man can provide variety to life then this duo can survive the tides of life. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a good level of compatibility between a Gemini man and a Taurus woman when it comes to marriage. The Taurus female knows how to harness the Gemini man. The only drawback is that the Gemini man does much of the talking like a chatterbox which might annoy the Taurus woman at times.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would not be much romance involved in this combination of a Gemini man and a Taurus woman. The Gemini man lacks the practical side to romance in life. But his financial standing might help bring some romance and mood in the Taurus female indirectly. The Gemini man's unpredictable nature and mercurial nature would stimulate the earthy Taurus to a certain extent on this note.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A Gemini man and a Gemini woman are very much compatible in life. But then you are a bunch of naughty fellows waiting to play pranks on others.
+Great minds think alike, and when two Twins join, that means there are actually four of you put your heads together! There are definitely multiple personalities at play here, which keeps things interesting. If nothing else, you won't grow bored with this match. Other signs have a hard time keeping up with you, but the two of you make great friends. Don't expect to sit at home on the couch together; you'll be out socializing, talking and getting into mischief all night long.
+As both are adept at communication any sort of misunderstanding would be worked out easily by talks and mediations. There would be much fun and variety in this combo. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There would not be much compatibility with this pair though initially there would be an attraction with this duo.
+The only way this can work is if you share other planets in common because you have such different natures. Cancer, you deserve that homebody reputation, and Gemini, you do love to socialize. You're only comfortable when you're busy and on the go, while Cancer can be quite focused, even hermetic. You just have different aims: Cancer wants security and Gemini craves freedom. But you are both thinkers and can have great conversations.
+The Cancer woman would like the energy of the Gemini guy and he, in turn, would like her sensitivity and charm. But then the emotional Cancer cannot get long enough with the rational Gemini guy. 
+This is not a good match to go with as the Gemini guy is too masculine and the Cancer woman is too feminine. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini is known for romance and passion that there would be no dearth of romance here with this duo too. But then the Cancer woman should exercise caution and should not be carried away easily by the Gemini guy. The Cancer girl is not noted for romance but then she would be more emotionally attached to her partner. Gemini rules the roost in this area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Gemini man and a Cancer woman cannot make friends in life, simply because Cancer is more bent on emotions and affections rather than friendship. Gemini, on the other hand, is an extrovert and likes to take risks which is not the cup of tea for the Cancer girl to go with.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There is unlikely to be better compatibility with this pair. But then if the Gemini man would allow the Cancer girl to nurture the family then there would be peace at home. The Cancer female is generally more bent on taking care of her household chores and other emotional needs of kids and elders in the family that she hardly has time to handle her Gemini partner. The Gemini man is an inconsistent fellow and he keeps in touch with his Cancer partner by texting and messaging rather than having an interpersonal rapport that the Cancer girl feels let down. The Cancer woman needs to have the Gemini man for her every beck and call that is not going to work out in the near future.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You two make a really good match. There would be a greater level of compatibility between a Gemini man and a Leo woman in life. Both love to be in the limelight and thrive on partying and socializing. 
+Leo is one of the very few signs that will tolerate Gemini's tricky, maverick nature. In fact, you're attracted to those qualities; You turn you on and fire you up! You can have a wonderfully grounding influence on changeable Gemini, and Gemini provides the thrills that Leo sometimes craves. You two impress each other with your wit and energy. Leo may be more interested in long-term commitment than Gemini.
+Hence there would be no boredom with this pair. But then the Gemini guy has to avoid flirting and she, in turn, should give him the much-needed freedom for the relationship to thrive on a positive note.
+The responsible Leo female would have to keep the relationship on track. He, in turn, would woo the Leo female with his great charms.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini would keep the romance and passion in this relationship alive by his great charms. He would easily be able to woo off his Leo counterpart. Gemini natives are the epitomes of passion and hence the relationship would be full of romance. But then the Leo female should be aware that the Gemini guy is likely to stray as well and hence should know the ways and means to keep him under her harness.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility for marriage with this combination of a Gemini man and a Leo woman. The reason being Leo likes to handle marriage and responsibility whereas the Gemini guy shirks off from these, he is a happy-go-lucky fellow. For better compatibility, Gemini should stay committed while the Leo woman should come down from her ladder. Gemini loves a superfluous life while the Leo girl yearns for high drama in the relationship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Gemini man and a Virgo woman share much compatibility when it comes to romance and passion in life. Virgo is one of the sexiest among the zodiac signs and the Gemini guy is a known flirt. Hence there would be no shortage of romance in this combo. Though both being airy signs, a fiery relationship grows here with much fun-fare and sparks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Gemini man and a Virgo woman make good friends in life. The Gemini man would have someone to talk to and the Virgo girl has someone to listen to. If the Gemini man could give the Virgo girl her much-needed space and privacy then this friendship can endure for long.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one of the best pairs when compatibility is concerned with the zodiac signs. You share many common traits and your chemistry is so wonderful when together. 
+The Gemini man is intelligent and adventurous, while the Libra female is full of passion and has a balanced approach to life. Decision-making would be the only hiccup here with this duo.
+There's a lot of love and understanding between you. You're both intellectually minded, so the conversation flows and you're never lost for words. Libra appreciates refinement and beauty, and can bring these qualities to Gemini's life; otherwise, Gemini might just forget the finer things. Together you enjoy lots of friends and good times, and Libra is romantic enough for the both of you.
+Both of you make great social animals. Your compromising nature and diplomacy get yours over almost all turbulent mountains. There would be charm and grace with this combination.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initially, there would be greater compatibility between a Gemini man and a Scorpio woman but with time, differences start to creep in from nowhere.
+You have such different natures that you'll find it hard to meet on common ground, but there is a Karmic connection between you, which you will sense in an immediate and deep attraction to one another. Gemini light, airy, detached nature is quite the opposite of Scorpio's still, deep and intense waters. This could make an interesting combination. You could learn from each other -- or you could just go your separate ways.
+Your differences in nature and temperaments would be a major hindrance. The Gemini guy's intellect and the Scorpio woman's passion simply drives this duo.
+Both of your conduct a masked life. Each would be an intrigue to the other and hence a compatible life eludes yours.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would not be much romance involved here with this duo. But then Gemini is sensuous and Scorpio can take him to higher limits. Though passion is not found here, the Scorpio lady's emotions keep the relationship alive and kicking. The Gemini man should be aware that Scorpio female is vindictive and would go to any length if found straying or flirting with the other ladies in the block.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Gemini man and the Scorpio woman just do not get together to form a great friendship. Though the Gemini guy is friendly and an extrovert he just finds it difficult to get along with the Scorpio female who is found to be secretive, outrageous and revengeful with life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be some romance now and then with this duo in life. Though Gemini is so romantic he cannot sell this off to his Sagittarius counterpart that easily. She, on the other hand, has a great passion for life and this might linger on with her Gemini partner for long.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be better compatibility between a Gemini man and a Capricorn woman in life. The Gemini guy could teach the Capricorn woman to accept changes in life.
+What you two have in common are your dry sense of humor and your resourcefulness. Other than that, I can't really see the much more common ground. Capricorn, you're all about planning ahead, taking only calculated risks and being responsible, dutiful and self-disciplined in your approach to life. Gemini, do you recognize yourself in any of those traits? I doubt it. Furthermore, you can both be rather undemonstrative, so your bond might be cool at best.
+The Gemini man is a natural flirt while the Capricorn girl is a warm, soft-hearted person. The Gemini man's impatience cannot go well with the enduring nature of the Cap girl.
+You complement each other and love to have conversations on intellectual topics of interest. The Capricorn female would be more so happy to be at home while the Gemini guy is found to be out of town always. She is a good listener and he is a good talker. Hence you can get along easily.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Not much romance would be found in this pair. While Gemini can prove to be romantic in nature the Capricorn girl is not impressed by his romantic moves. She would be after practical illustrations only. There would be occasional moments of passion as well but this couple can be rarely seen in a romantic or passionate mood together in public.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Gemini man and the Capricorn woman make good friends in life. This is because Capricorn helps the Gemini man to help lead an organized life. She helps him to prioritize things. There would be a good level of friendliness with this pair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gemini man and the Aquarius woman make one of the best compatible pairs among the zodiac signs. You share a sharp, original intellect and a deeply-rooted love of freedom; neither of you is interested in trying the other down to a life of routine. You can both be somewhat unemotional and detached, which suits you both just fine. Your relationship will be unconventional, and communication and experience are the foundation of your bond.
+You make good friends as you meet on a common mental or intellectual note. You are always full of energy and power and are found to be happy when together. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be no level of romance and passion between a Gemini man and the Aquarius man. Though the Gemini guy would be romantic the Aquarius female would be down to earth and practical and cannot be easily wooed down by his romantic moves. She is more bent on practical matters and hence the Gemini man cannot fake his romance either.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There would not be much compatibility between a Gemini man and a Pisces woman in life. This is because you have nothing in common and you have varied interests and ideas.
+Gemini is fond of constant change while Pisces has long-felt desires. Gemini is not emotionally bound while the Pisces lady is. But you make great friends rather than lovers or partners.
+This is because you love talking a lot and your curiosity binds yours together. You love traveling and having an adventure together. Gemini with his happy-go-lucky nature would help to bring the Pisces down to a happy state. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This combination has an immediate attraction but the duo has to put in much effort and commitment for the relationship to survive. 
+Aries female is full of energy and vigor while the Cancer male would be homely. The Aries woman cannot fathom the frequent mood changes of the Cancer male. 
+Both of yours are very stubborn and only if one tries to bend then the relationship can keep going. Bur much of devotion would be seen here. You make good parents and the only negative is when the question of who is the boss arises.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would not be much romance and passion involved in this relationship. However a lot of devotion and meeting the other one's needs might be seen. The cancer Male makes sure that the Aries female gets what she wants in life, showering her with materialistic things and a secured atmosphere. Over the course of time some amount of romance might build up here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Taurus woman and a Cancer man are more compatible in life. There would be much warmth and coziness involved here. The Taurus woman presents a good domestic ambience for the Cancer man to enjoy. It would be a life full of affection and not much romance or passion as we call it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Taurus woman and the Cancer man make good friends. The insecure feelings of anxiety of the Cancer male would be warded off by the stable Taurus' home-works. She would be the practical of the two in life. He, in turn, reciprocates by his emotional up-keeping towards her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a greater level of compatibility that is needed for a happy marriage between a Taurus female and a Cancer male. Both are more bent towards home and hence this is an excellent union. The Cancer male would provide the finances and emotional needs for the Taurus female to build her home. There would not be any straying. Both do not hurry and take life as it comes by in a pleasant disposition.</t>
+  </si>
+  <si>
+    <t>The Cancer man is full of passion and concern that he can woo his Gemini girl easily. But then he is more bent on commitments while is she known to be a flirt. 
+The Cancer man yearns for love and cares while this is out of range for the Gemini female. Only adjustments can keep the relationship going in a positive sense. 
+But then much romance would be involved here. The Gemini woman flaunts her style while the Cancer man is adept at handling household chores and familial ties. The Gemini girl brings variety and entertainment stuff for her Cancer partner. 
+Cancer deserve that homebody reputation, and Gemini does love to socialize. You're only comfortable when you're busy and on the go, while Cancer can be quite focused, even hermitic. You just have different aims: Cancer wants security and Gemini craves freedom. But you are both thinkers and can have great conversations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This relationship includes much romance. Gemini is known to keep the fire of romance alive and Cancer would be a willing partner to oblige to her whims and fancies. There would be something more than passion in this combination. Emotions have a steady flow in both the directions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Gemini female and the Cancer male are compatible enough for marriage. This combination works without any psychological or emotional issues involved. Both are more bent on having a happy home with good children and lots or near and dear ones to live with. Cancer is very protective and caring about marriage that the relationship would stand the test of time. Though the Gemini is a flirt and wayward, the Cancer guy gets him back home at the end of the day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At first glance you two don't seem to be such a great combination. The Crab is a water sign, which can dampen fiery Leo's spirits, and Leo's energy might make the Crab draw back into its shell. But looking a little deeper, you actually have quite a few values in common that could make this connection work. You're both highly romantic, sentimental and family-oriented, which could be a wonderful foundation for a relationship.
+Between a Cancer and a Leo, there would be much compatibility. But when the Cancer happens to be the guy and Leo, the girl then things would not be that rosy. 
+Some adjustments can work wonders then. The Leo woman should make sure that she does not dominate. The Cancer man just showers love and affection on the Leo girl without fail.
+This is one of the best pairs in the zodiacs. You just bring out the best in each other to the fore that life would be all fun and happiness for the duo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cancer man and the Virgo woman share greater compatibility in life. Much affection and loyalty would be involved here. With time a deep bond would be developed with this duo.
+The Cancer man brings out the passion from the Virgo woman while she would feel secure under his gentle arms. Straying is forbidden here and commitment would be the keyword. 
+If both of you control your critical nature then there would be bliss with this combination. This is a peace-loving duo. You make and maintain good social connections. 
+You try to bring out the best from each other in life. The pair is more bent on earthly practical approach than a showy or extravagant lifestyle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cancer man and the Virgo woman make great friends in life. The Cancer man is one who lends his shoulder to lean for everybody around and the most for his partner. The Virgo female is also one to lend a helping hand to those in distress. Hence this duo blend easily in the comradeship area.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You two are very different, in nature and values. There is one thing, though, that brings you together: You both tend to be needy, which isn't the best foundation for a relationship. Furthermore, the Crab is looking for genuine emotional security, while Libra is just looking for companionship. You may think you're looking for the same thing and have found it in each other, but when you get to know each other better, you'll find you're quite different.
+There would be a greater level of incompatibility between a Cancer man and a Libra woman. Initially things would seem just fine but with time, it turns sour. 
+One bone of contention with this duo is handling mutual finances. The Cancer loves to save while the Libra woman just loves to splurge.
+The Cancer guy is more keen on the security of the future while the Libra woman lives life by the day. Misunderstandings would be common. If you try to sit down, talk and sort things out then things would be better here. 
+Each one tries to be the boss and this results in rifts of sorts. The Cancer guy would take more of a feminine role and the Libra girl, a masculine role and then things turn for the worse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initially, the Cancer man and the Libra woman seem to make a compatible marriage. But with time rifts slowly start appearing on the horizon. The diplomatic Libra girl wants to run the show but would be subdued by her Cancer partner. She would show constant signs of nagging, bossiness and aggressiveness. The Cancer guy would not be happy with the same, resulting in his whining. There would be periodic bouts of fights and misunderstandings that show signs of separation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cancer man and his Capricorn counterpart share much compatibility in love and romance. He would make his partner comfortable by attending to her every beck and call. The Cancer guy supplies a constant source of emotions needed for the relationship to keep going. He would be a shoulder to lie on for the work-weary Cap girl.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Cancer man and the Pisces woman make a compatible marriage for life. But then the Pisces girl should make it a point to focus on home and its needs and should not leave it alone to the Cancer guy to take care. The Cancer fellow is good in managing the household chores and allocating works to the Pisces girl as well. Hence there would be a smooth functioning of this relationship. The Pisces female can just relax while he takes over the reigns of the house.</t>
+  </si>
+  <si>
+    <t>The Pisces female and the Cancer male share greater compatibility when it comes to sex. The Cancer man being sensuous and neurotic makes it an enjoyable act. There would be much satisfaction and comfort for the duo. The Cancer man's sense of fear and rejection would be overtaken by the loving and cuddling Pisces girl that sex would be the best among the zodiacs here with this pair.</t>
+  </si>
+  <si>
+    <t>The Endgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex involves a lot of touching and playfulness in this combination. Much foreplay would be involved. Also, the duo lingers long in each other's shoulders for long even after the act.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is just that the Aries female might bring the relationship to a sudden halt when things go wrong. It would be an impulsive action. However, the Cancer man clings to her as much as possible, because he is on the lookout for security in life. Usually, the Aries female brings the curtains down all of a sudden without any prior notice that the Cancer male finds it hard to digest and move on in life, that he withdraws to his inner shell.</t>
+  </si>
+  <si>
+    <t>There would be greater compatibility when it comes to sex between a Gemini woman and a Cancer man. There would be much delight, familiarity and sensuous acts here. As each gets to know more about the other this would be an act to cherish for both together.</t>
+  </si>
+  <si>
+    <t>When it is all over in the relationship between the Gemini woman and the Cancer man, it would be a great disaster waiting to happen. The Cancer guy has to handle all the responsibilities while the Gemini girl does not care much about the future of the home and the security involved in a marriage. The Cancer guy is always open for reconciliation but the Gemini girl just walks out of the relationship easily in a jiffy.</t>
+  </si>
+  <si>
+    <t>Sex would be greatly compatible and satisfied when a Cancer guy and a Leo girl are involved. The sensuous feelings and emotions come from the heart of the duo. Intimacy would be at the crest with this pair. Each one tries his or her best to satisfy the partner. Trust and mutual loyalty play a major role here with this duo.</t>
+  </si>
+  <si>
+    <t>This is one combination that is a package of true love that the end does not come that easily. But if it had to then it should be the initiation of the Leo only. The Cancer guy would then take it gracefully. Later on, if the Leo woman wants help in any form she can very well turn onto her previous Cancer partner to set her right. Such would be the loyalty of the Cancer fellow.</t>
+  </si>
+  <si>
+    <t>The combination of a Cancer guy and a Virgo girl is a relationship that just drags on till the end of life. It is a never-ending relationship that would withstand the test of time. Compatibility would be kept alive until the end of the days.</t>
+  </si>
+  <si>
+    <t>The relationship between a Cancer man and a Capricorn woman would last long. But then financial issues might mar the relationship at times. Also, role reversals might play spoilsport here. If both understand the hard work put in by the other into the relationship then it would stand the test of time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not many negatives are found around in this relationship. Even if rifts arise, it would be the Virgo woman who should call the last shot. However, she makes sure that the domestic matters are settled and the Aries man can survive alone.</t>
+  </si>
+  <si>
+    <t>Sex would be a compatible act for these two as they take it as a form of sport. It would be always full of life, passion, and there would be no holding back. It would be more of an impulsive act rather than an important ritual for consummation.</t>
+  </si>
+  <si>
+    <t>This relationship has lots of fights and rifts and ultimately it would end in a sexual encounter. Sex becomes a way of resolve here in this duo. When it comes to rules there is not hard and fast rule in this combination of this act.</t>
+  </si>
+  <si>
+    <t>There would be misunderstandings, fights, and rifts all through the relationship. It would start with a bang, there would be lots of bloodsheds and then the relationship would experience an eerie calmness culminating in the endgame of the final split.</t>
+  </si>
+  <si>
+    <t>Much physical sensuous nature would be involved in this duo. The Aries woman has an athletic build-up a pre-requisite for good sex. Taurus man likes to be handled well. Though much fire would not be involved here, sex would be highly satisfying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a better level of compatibility for sex in this relationship. For Taurus physical needs are the forte. Hence each one makes sure that he or she satisfies the other both sexually and physically. There would be a good level of openness in this area which further stabilizes and nurtures the relationship.</t>
+  </si>
+  <si>
+    <t>A Taurus man and a Gemini woman stay together for life without many rifts. But the end comes when the Gemini woman becomes more of a spendthrift than what the Taurus partner can afford or becomes more of a social bird which affects the possessive nature of the Taurus partner.</t>
+  </si>
+  <si>
+    <t>There would be a good level of compatibility in this combination when it comes to sex and its after-effects. The Taurus man takes time to read his Virgo woman's mind. She, on the other hand, needs to be patient to bring the bull to the water. She has to teach him the nuances of the act as the Taurus male is usually not much bent on the intricacies of the act involved. With time he gets well-trained by the Virgo lady.</t>
+  </si>
+  <si>
+    <t>When it is splitsville in this combination then the results would be very bad. The Taurus man would be hot with rage while the Libra woman would be cool as ice. Each gets to the extremes. Usually this relationship ends in the court. There would be much problem when it comes to sharing children, responsibilities and finances.</t>
+  </si>
+  <si>
+    <t>This is one the sexiest duo among the zodiacs. The Scorpio makes it more intense with her constant seduction and temptations and secretive moves. The Taurus man is generally under the harness of his fair lady when it comes to sex. He needs to satisfy her materialistically when she satisfies her with his libido.</t>
+  </si>
+  <si>
+    <t>It would be the end of the road for this duo when the Taurus man tries to control and curb the freedom and independence of the Sagittarius female. She would whole-heartedly walk out of the relationship leaving the Taurus with his resources. When the Sag woman has set her foot on greener pastures then there would be no turning back.</t>
+  </si>
+  <si>
+    <t>Sex would be a major source of satisfaction and fulfillment for the relationship of this duo. The Taurus guy, being very sensual provides his partner all she wants. The Aquarius girl, on the other hand, allows him to venture into unknown territory which gives mutual comfort for both.</t>
+  </si>
+  <si>
+    <t>This is one combination for which there is no end or breakup. But when circumstances demands it then it is the Taurus guy who should take the initiative. He takes all efforts to make sure that his Pisces lady is well-settled and hassle-free in future. But once the split sets in then there would be no turning back for the Taurus man. But the Pisces woman takes it easily and settles with another male in life.</t>
+  </si>
+  <si>
+    <t>Bringing the Gemini man to the bed would be a humongous task for the Aries female. He would be excited only when there is much dirty talk involved. Aries female is very sensuous and would be broken down by the mechanical approach of the Gemini man. He is not generally in for much sexuality or sensuous touches but is more keen on watching porn, sharing dirty pictures and the like.</t>
+  </si>
+  <si>
+    <t>Sex would be a lot more interesting in this combination. The Gemini man teaches his Taurus counterpart the tricks of the game, the different erotic zones, the different moods, the different postures and the like. The Taurus woman gets seduced by the Gemini man easily here in this act.</t>
+  </si>
+  <si>
+    <t>When things turn rough, the Gemini man makes all efforts to right the things up. However, the Taurus female would be stubborn enough to a say a big "no" to him. He would be presenting umpteen excuses but ultimately the Taurus female has the last say here.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility for sex with this pair. Gemini is more into texting and messaging sensuous messages that he is cold for physical intimacy. He usually exhibits a detached behavior when at the bed. He is neither warm or cuddly that the Cancer girl feels let down here.</t>
+  </si>
+  <si>
+    <t>When things are not good with this duo it is the Cancer woman who clings to her Gemini partner. She would be begging him to stay. She feels insecure when alone and is not interested in straying off. But the Gemini guy is known to be a flirt and just walks away as if he had not been in the relationship at all. The Cancer woman stays with a broken heart for long yearning for her Gemini partner to come back.</t>
+  </si>
+  <si>
+    <t>When things turn ugly in this relationship, it is the Gemini who walks off the door first. This is likely to hurt the Leo the most. But then the Gemini guy likes to be friends with her but she would have made up her mind not to see him anytime, anywhere in life again. She would be holding onto the grudges for long, by the time the Gemini guy would have settled down with another girl in life.</t>
+  </si>
+  <si>
+    <t>When the party is over, it would be the Virgo lady who calls it off first. But by then the Gemini guy would have packed his bag and had started his hunt for another girl.</t>
+  </si>
+  <si>
+    <t>Sex between the Gemini guy and the Libra girl would have better compatibility for the duo. Both quality and quantity involved would be the best. Both do not overreact or over-do in the bedroom. Gemini tries new tricks and nuances to enthrall his girl and she would be a source of appreciation and inspiration for her partner here.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility when it comes to sex between this duo but then if the Gemini guy is found to be unfaithful then the Scorpio woman would go to any length to avoid having sex with him. If he is faithful to her then she is likely to entertain him with the best conjugal bliss possible on earth.</t>
+  </si>
+  <si>
+    <t>When it is the end of the road for this duo, the Capricorn girl who endures a lot shall finally break down. She would be more than willing to send the Gemini guy off but with nothing. She keeps all mutual resources to herself as a wage for long endured life with the flirt.</t>
+  </si>
+  <si>
+    <t>Though there would be better compatibility in sex between this duo initially, with time the craze fades off. Gemini is curious and loves changes, while the Pisces girl needs emotional bonding. If the Gemini guy can make amends to his nature then there would be compatibility on this front for long.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When things turn sour with this pair, Gemini would be doing the talking while the Pisces would not mind listening to him. But then there would not be any harsh moments between the duo. The split would be on a friendly note, the only thing being that the Pisces lady should not postpone the end game as well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both the Aries female and the Leo Male are warm, affectionate and sharing enough when it comes to the art of love-making. It is taken more of a sport and much emotions would not be involved. The setting also calls for a major event-changer for the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+There would be a high level of compatibility between a Taurus female and a Leo male when it comes to romance and passion. The Leo male shows off his romantic moods easily while the Taurus woman would not be explicitly showing off the same. However, a passionate nature would be seen in this duo. Much jealousy and possessiveness would also be seen here in this combination.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Taurus female and a Leo male do not make good friends in life. Leo has a royal outlook and has no appreciation over friendly moves. Taurus female should use her patience and endurance to keep the Leo man on track. Though the Taurus woman throws temper-tantrums here, the Leo male should make efforts to douse any spark that would start a fire.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both the Leo man and the Taurus woman believe in long-term commitment and marriage. There would be some initial hiccups in the relationship. The Leo man tries to woo his partner by grand presence and ideas. But that would not impress the Taurus female in any way. She needs to keep the Leo man under her arms by her wit and humor. Else there would be rifts of sorts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex can be pretty good with this combination of a Leo man and a Taurus woman. The Leo man is one who performs the best sex among the whole zodiac. Hence the Taurus woman can remain passive and bask in his indulgence. Sex would be loads of fun with this combination that the Leo man takes time to admire each and every part and act of his partner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Gemini woman and a Leo man get along well in a relationship. There would be no shortage of passion in this combination.
+The Gemini girl loves the grand and extravagant nature of her Leo partner and he, in turn, loves her adventure and passion in life. There would be always fun here.
+Though the Leo loves to be the center of attraction, where he becomes an audience to the lovely Gemini lady. 
+You two make a really good match. Leo, you're one of the very few signs that will tolerate Gemini's tricky, maverick nature. In fact, you're attracted to those qualities; You turn you on and fire you up! You can have a wonderfully grounding influence on changeable Gemini, and Gemini, you provide the thrills that Leo sometimes craves. You two impress each other with your wit and energy. Leo may be more interested in long-term commitment than Gemini.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one combination that is full of romance and passion. Both are intimately connected with the other that there would be no dearth of romance and emotions here. The Leo man is very sensuous and he woos the Gemini girl, an unperturbed character by his sensational moves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When it is the end of the road for this duo, it is generally the Leo who calls off the game. He has to take the work related to the split which might be boring for him. But then the Gemini girl waits for the right moment to get out of the game, which brings out the bad side of the Leo guy out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a relationship that is unlikely to end. But then if fate has it that way then it would be the Leo guy who should take the initiative. He makes sure that the Cancer girl would remain as secure as ever in terms of physical and mental sense and then bids goodbye.</t>
+  </si>
+  <si>
+    <t>At first, you two don't seem like the best match, but Leo, you love to be in the spotlight, and Virgo, you're most comfortable in a supportive role. This might work out well if you can settle your differences. In fact, together you make a good system of checks and balances: Leo tends toward extravagance, while Virgo, you make a great accountant and can help temper Leo's splashier urges. Once you've established your roles, it should work out well.
+The Leo man and the Virgo woman share greater compatibility in life. The Virgo girl with her perfectionist trait would work her best to make her home the best place on earth.
+She yearns for appreciation from the Leo guy who takes her work for granted.
+If the Virgo woman stays away from criticizing him and he, in turn, does not demand too much from her then there would be goodness in this combination. The Leo man is the only one who has the real guts to enter the domain of the Virgo female. She would be a perfect girl to his dominance as well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leo man and the Virgo woman share better compatibility in sex as well. The Leo guy is a sensuous and erotic fellow with a large appetite for intimacy. The Virgo girl would be more than ready to give him his due share. She is also likely to teach him the nuances and tricks she has up her sleeves.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a high level of compatibility between a Leo man and a Libra woman when it means romance and passion. The romance hides the other negatives shared by this pair. The Leo guy being sensuous and erotic would improve the standards of romance and passion seen here with this pair.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Leo man and the Libra woman do not make good friends in life. Generally, Libras develop comradeship in a calculated and business-like way which would not be conducive to a serious friendly relationship. Also, the Leo guy is not more bent on making friends, he needs a romantic companion for life. Hence friendship is ruled out for this pair.</t>
+  </si>
+  <si>
+    <t>The Leo guy and the Scorpio girl are very much compatible with romance and passion as both are loaded with tons of this. This is one of the best passionate combinations in the zodiac. Leo is known for emotions and eroticism while the Scorpio has intense passion loaded within her that the pair would be on fire anytime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leo man and the Scorpio woman share no compatibility when it comes to the relationship of being friends. Hardly anything exists of mutual interest that comradeship is ruled out of this duo.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When it is the end of the road for the pair, then the results would be simply devastating for both. The Leo guy would be broken to the core while the Scorpio girl would be loaded with bitter emotions and vindictive thoughts. Both would suffer a lot on account of the break-up.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility when it comes to romance and passion between this pair. Leo is very romantic but it would not be taken seriously by the Sagittarius girl. Leos' passion for his partner would also be turned down by her because she is more interested in adventure and socializing than romancing around with her partner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Leo man and the Sagittarius woman do not make great friends in life as well. Leo is very committed in friendship but the Sagittarius girl takes it just for the fun of it or for time pass. She would not be that loyal and committed as the Leo is to his partner. She needs adventure and freedom away from any strings attached in life.</t>
+  </si>
+  <si>
+    <t>When it comes to marriage again this pair stumbles along. If the Leo guy has previous hurts in life and is due to a second relationship then this combination would work as he would have learned his lesson. The Sagittarius female is not much into a marital bond and is more concerned about her other activities in life. Hence a compatible marital life is ruled out for this duo</t>
+  </si>
+  <si>
+    <t>When it comes to sex, there would be less compatibility between a Leo man and a Sagittarius woman. There would be much fun involved but then the Leo guy would not be much satisfied. Love-making or having sex is not a cup of tea for the Sagittarius girl who has her mind and soul somewhere else.</t>
+  </si>
+  <si>
+    <t>When things turn sour with this pair, the Leo guy generally goes dull and sulky with life. He takes the end very seriously. But the Sag girl is not one to take this to her heart. She turns onto adventure or her social group for relief from the separation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The Leo guy and the Capricorn girl share greater compatibility when it comes to romance and passion in life. But then the Leo man cannot take the Cap girl for granted with his extravagant gifts. With time the passion between this pair gains momentum. This would be a perfect mixture of emotions and a very beautiful relationship to hang onto.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usually, it would be the Leo guy who would initiate the separation when the end is imminent. His pride and ego would be hurt to a certain extent. The Cap girl remains unnoticed and a third party would be usually called in for negotiations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is definitely a case of opposites attract, because you two couldn't be more different! While the fun-loving, attention-seeking Lion adores its place in the sun, the cool, aloof Water Bearer absolutely doesn't care about being the center of attention. Your connection is either great or awful; it's like a seesaw -- constantly in motion, and it's up to you to find the balance. But you do have fun together, and between the two of you, you know everyone in town.
+There would not be much compatibility between a Leo man and an Aquarius woman. Much effort and commitment would be needed from both the sides to keep the relationship going.
+The Leo guy yearns for attachment while she craves for a detached atmosphere at home. The Leo man would be concerned about himself more while she would be concerned about the whole of humanity. 
+There would be an initial attraction but with time there would be outrageous acts from both. The duo would be at logger-heads most of the time. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leo man is more romantic but the Aquarius woman is not interested in focusing her passion for just one man in the whole universe. She has a universal heart to be shared by all. Hence she keeps the Leo guy at a distance only that passion in the relationship is smothered. He, in turn, would very much like to annoy her at the slightest instance possible.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one of the combinations where the compatibility of marriage works out for the least probability. The sensuous and romantic Leo proceeds in a positive direction in the marriage. But the Aquarius female makes all efforts to dismantle the setup. The Leo man tolerates this until when the load-bearing strength of him falters.</t>
+  </si>
+  <si>
+    <t>The compatibility for sex with this pair would also be the least among the zodiacs. It would be a frustrating experience for both. Leo yearns for warmth and affection while the Aquarius female is not bothered to satisfy him. There would hardly be any agreement here with this pair that it would be a total fiasco most of the time. With time both develop lack of interest in having sex.</t>
+  </si>
+  <si>
+    <t>With the compatibility of romance, marriage or friendship at the bottom level of the chart for this pair, the end game would be an easy affair. Though the Leo guy would feel deprived of a company as he yearns for love and affection, the Aquarius girl does not have any regrets about losing him. She would be more than happy to get her total freedom back in life.</t>
+  </si>
+  <si>
+    <t>Sex would be a compatible affair with the pair of a Leo guy and a Pisces girl. Leo being a sensual and erotic guy and the Pisces girl being a dream lover would pep up this act together. Sex would bring about a sense of security and satisfaction for both. As both are soft at heart and love fantasy, this would be a very delectable affair for the pair.</t>
+  </si>
+  <si>
+    <t>Though this combination seems to hold good promises for a romantic relationship, not much spark and passion would be involved here. Virgo would be more bent on the small things in day to day life rather than romancing around while the Aries would be busy with her larger than life expectations, that there would be literally not much room for romance and sensual feelings.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility in this duo when marriage is concerned. Things might turn out favorable when the Virgo man is not much strong enough to be easily taken over by the Aries woman in life.</t>
+  </si>
+  <si>
+    <t>Both are practical when it comes to romance in this combination. The Vigo man usually gives a position of importance to the Taurus woman partner. He would be protective of her and sensitive to her feelings. The Virgos are generally highly passionate. But then the Taurus's hunger for romance and passion would be many fold. There would be a satisfactory level here with this duo.</t>
+  </si>
+  <si>
+    <t>Better compatibility for sexual activity is found in this duo as both falls under earthy signs. Touching and physical sensual pleasures would be the forte for this combination. Each tries to satisfy the other to the maximum level possible. Sex would be taken as a duty by the Virgo male while the Taurus woman has no lack in expressing herself sensually to her partner.</t>
+  </si>
+  <si>
+    <t>When this duo finds that this is the end of the game, then the Virgo male is in for a major nervous breakdown. The Taurus partner has to help him overcome the same. Here the Virgo man would be the main cause for the breakup as the Taurus female is easy to live with.</t>
+  </si>
+  <si>
+    <t>The Gemini woman and the Virgo man are not much compatible in a marriage. Settling down together, having children and managing common resources would be a problem for this duo who are more interested in sharing interests and talking. But then if both are convinced to lead a successful life than there is light at the end of the tunnel. Usually this combination works for one's second marriage.</t>
+  </si>
+  <si>
+    <t>When the relationship comes to an end it would be total chaos and a messy situation for both. Each one talks about the pros and cons of the relationship and his or her stand that the relations drag on unnecessarily on a negative note. Usually this relationship ends with the intervention of a third party or a counselor.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility in the romance between a Cancer female and a Virgo male. The Cancer girl sure needs someone to rest her shoulders on and the Virgo guy would just be the right one. He would be able to reassure her and give her the much needed security in life. But then there would not be too much of romance or passion in this relationship that is displayed.</t>
+  </si>
+  <si>
+    <t>There would be the average level of compatibility between the Cancer woman and the Virgo man. But then there would be constant worries regarding financials, security and the like. The Virgo guy has to make all attempts to pacify and make up for the emotional Cancer girl. There would be mutual happiness in the small things in life. Slowly and steadily the relationship progresses on a positive note.</t>
+  </si>
+  <si>
+    <t>The Leo woman and the Virgo man share greater compatibility in romance. The Virgo guy would have found the right romantic audience in the Leo girl. She would be forgiving and does not look much over the insecurities of the Virgo guy. The Leo is a sign of passion and hence passions would also flow on a regular basis here. She would provide the right ambiance for love, romance and passion in the relationship.</t>
+  </si>
+  <si>
+    <t>The compatibility for marriage would be great between a Leo female and a Virgo male. Usually, this relationship boils down to a stable marriage. Both respect the institution of marriage. If the Virgo guy can keep his Leo girl engaged then there would be bliss at home. Usually Leos dominate the scene but if the Virgo guy plays his cards right then he can bring her to his control easily.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility for romance with this pair as romance and passion are long forgotten in this combination. Both the Virgos do not exhibit romance and emotions explicitly that the compatibility for romance is completely out of question here.</t>
+  </si>
+  <si>
+    <t>This is one combination of the zodiac where the compatibility for romance and passion would be at its best. Love and warmth would be best expressed here that the duo would be the much talked about couple on the block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There would be better compatibility for romance and passion in this relationship. The Scorpio female would provide the sex appeal and emotional sense to the relationship and Virgo is in no dearth for romance. The highest level of romance and passion would be found in the Virgo guy and Scorpio girl combination in the zodiac.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When this relationship is heading for disaster then it would be a very bad affair. The Scorpio girl would be very much vindictive. The Virgo guy on the other side would be cool-headed. If he has decided to call off the game then he makes sure that all resources are shared properly, things are set well in order, then picks up his bag never to return back. Usually the Scorpio female takes the lead in calling the relationship off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Virgo male and an Aquarius female have much compatibility when romance is concerned. This is a very romantic combination of the zodiac. Romance keeps the relationship alive and intact for years. But passion is not much to be seen here as a fiery approach is not found in both. The duo is more into a sublime and subtle and not-to-be-noted relationship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one pair that would take the end on a very sad note. The Virgo guy would be very much disappointed. The Aquarius girl might want to continue as friends with him but then it would be a tough job for him to take this. A strong foundation and mutual respect make sure that the end is harmonious for both.</t>
+  </si>
+  <si>
+    <t>The Virgo man and a Pisces woman have much romance but then it seems that there would not be much compatibility here. There would be just yearnings form both the sides. Also sometimes it seems that the relationship is on fire with much passion involved but then it is not. It is just emotions that have gone beyond control that would mar positive growth in the relationship.</t>
+  </si>
+  <si>
+    <t>The Virgo male and a Pisces female do not have much in common to share a compatible marriage. But as opposites attract, there would be some initial attraction that would wax and wane with time. The Pisces male would be more dependent on the Virgo guy who has to do everything in the household and this might result in frictions at home. This would not be a healthy relationship and it grows worse with time and children around to look after.</t>
+  </si>
+  <si>
+    <t>A Pisces girl and a Virgo guy also have not much compatibility when sex is concerned. Though both are known to be individually emotional and romantic, sex would be a forbidden area for the duo. There seems to be no effort by both to keep the other one engaged or satisfied here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is definitely a case of opposites attract. Libra has good taste, refinement and impeccable manners, all of which impulsive, headstrong Aries tends to lack. But Libra is utterly attracted to the excitement Aries brings to the table. You're both spontaneous and will try anything once, and you know what that means ...
+It is said that opposites attract and this applies in this combination as well both being opposite signs. Libra would be a good protector of the Aries female when she goes down due to her impulsive acts. Much romance and passion would be involved here. The diplomacy of the Libra and the courage of the Aries would help the relationship to survive. A slow and steady movement shall make sure that this duo succeeds in life. The lingering nature of the Libra generally upsets the Aries who thrives on impulsive acts. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This combination has greater compatibility when romance is concerned. But as time goes by the relationship might turn sour. The aggressive nature of Ram and the recessive nature of the Libra would further the relationship towards the negative poles.</t>
+  </si>
+  <si>
+    <t>The compatibility for marriage here would be on optimum levels. The adage that Opposites attract works initially. But if this has to continue on a positive note then the Libra male should not drag things and instead yield to the whims and fancies of his Aries partner.</t>
+  </si>
+  <si>
+    <t>Sex would be an interesting daily affair in this combination. The Aries female full of passion shall keep it going. The Libra male would be equally astounded by her bold moves and reciprocates with his manly instincts.</t>
+  </si>
+  <si>
+    <t>Things seem to be normal when all of a sudden the relationship would come to an end. The Aries female would be full of fire and the Libra man would be cold as ice as the duo say goodbye to each other without much ado about anything.</t>
+  </si>
+  <si>
+    <t>Though much romance is involved with this duo, the Libra man finds it difficult to showcase it to his mate. He is not spontaneous to act and the Taurus woman is equally not much interested in surprises, instead needs commitment and reliability. The Libra man cannot offer anything as a surprise. The Taurus girl asks for physical pleasure which would be usually offered by the Libra man without any compromises.</t>
+  </si>
+  <si>
+    <t>This partnership would do well in marriage. But the marriage would not be done on an impulsive note. The Libra man would weigh the pros and cons and gets to tie the knot only if the Taurus female has social connections, good reasoning and a good temperament t go with. The Libra man takes charge here, preparing a good marriage ceremony and the ensuing honeymoon and the like. This is one couple that do not find issues unless financial difficulties set in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a good match when you two Air signs come together. There's a lot of love and understanding between you. You're both intellectually minded, so the conversation flows and you're never lost for words. Libra appreciates refinement and beauty, and can bring these qualities to Gemini's life; otherwise Gemini might just forget the finer things. Together you enjoy lots of friends and good times, and Libra is romantic enough for the both of you.
+The Gemini woman and a Libra man make a compatible relationship. Both are imaginative, wild, social and witty. There would be much passion and romance involved here with this duo.
+The individual liberty of both would not be hindered in any way. But then some clashes are to be expected on the financial front. 
+The duo is charming to the outside world. The chemistry between the two is something that would be much talked about in public. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The end of this relationship comes when Libra cannot tolerate the flirting and straying Gemini. If he would have thought that he could have his Gemini girl under his wraps, then it would be a disaster. But then if the Libra guy is magnanimous enough to give the much needed freedom for the Gemini girl then there would be no separation or rifts with this duo.</t>
+  </si>
+  <si>
+    <t>You two are very different, in nature and values. There is one thing, though, that brings you together: You both tend to be needy, which isn't the best foundation for a relationship. Furthermore, the Crab is looking for genuine emotional security, while Libra is just looking for companionship. You may think you're looking for the same thing and have found it in each other, but when you get to know each other better, you'll find you're quite different.
+There would be better compatibility between a Cancer woman and a Libra man. But then much effort and commitment would be needed on both the sides to keep the relationship going on positive territory. The Cancer woman would give him the warmth and coziness needed in a relationship, he, in turn, would be responsible for the intellectual stimulation of her. If both understand the needs and desires of the other then the relationship would be great. On the negative side, both want to be the boss of the house. If the Cancer woman is allowed to take over the reins then there would be bliss else chaos.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would not be much romance and passion found in this combination. But the Cancer woman would ask for all forms of romance like roses, wishing cards, candle-light dinner and the like. If her whims and fantasies are met by the Libra guy then there would be peace on earth. Not much explicit expressions of romance and passion are to be seen here with this pair.</t>
+  </si>
+  <si>
+    <t>There would be compatibility issues between a Cancer woman and a Libra man when it comes to marriage. If both are interested in raising a family, building a great home and the like then it is well and fine. But the Cancer woman just raises the bar every time one of her requests are met. If things go beyond manageable limits for the Libra guy then all hell breaks loose. The mutual trust would do better, but then manipulation would mar the relationship beyond irreparable loss.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility in sex between a Cancer woman and a Libra man. The Cancer girl is very sensuous and emotional that she wants more and more. The Libra guy would be taken for a ride. Though the Cancer female is of nurturing and motherly nature she asks a price for everything. But then the Libra guy is a great manipulator and hence can take control of her.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility in the romance between a Leo girl and a Libra guy. Though the Libra guy would falter to show his romance off, he would keep her on her knees by his love of great taste in life. However, the Leo girl hates being dominated. The Leo girl would be loaded with much passion. Hence the relationship would sail smooth enough.</t>
+  </si>
+  <si>
+    <t>Sex would be compatible with a Leo woman and a Libra man. It would have an aesthetic appeal to the duo. Both do not venture into unknown territory when having sex. Also, not much passion can be seen involved. Usually, sex would be had as a means for having progeny and nothing less. Fun and romance are unlikely in this area for this pair.</t>
+  </si>
+  <si>
+    <t>When it is the end of the road for this couple, the dark side of the Libra guy would be visible. He likes to play with relationships and hence makes sure that he plays his last card. Generally, the Leo woman would be caught unawares. She better make sure that she has a strong footing when separation and sharing of mutual resources comes to the fore.</t>
+  </si>
+  <si>
+    <t>The Virgo girl and the Libra guy share a greater compatibility when romance s involved. There would be a warmth and a soft relationship that cannot be expressed in words here. There would be a beautiful level of intimacy with the duo. But passion would be missing here as it is a waste of energy according to the pair. Both Virgo and Libra are found to be less passionate when compared to the other zodiac people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usually, this relationship thrives well even under adverse conditions. But then if fate would have it that way then both would mutually unwind without any grouse. The separation would be amicably settled, it would be very peaceful for both. The duo would honor and respect the other partner and then move on with life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex would be a compatible act between a Libra male and a Libra female. It would be a carefully executed act which means everything for the duo. It would be a way by which the pair gets to know a lot about the likes and dislikes of the other.</t>
+  </si>
+  <si>
+    <t>This is one combination where the end game would be a very tough and time-consuming procedure as and how the relation started in the first place. All mutual resources need to divide amicably in a balanced manner else there would be a bloodbath. Also the duo are known for after-thoughts which might mar the relationship even after the legal split.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, this is an interesting combination. At first glance, this doesn't seem like the best fit, but on looking closer, you two might share an understanding that could be a good foundation for a relationship. You're both very emotional people, Scorpio even more so than Libra. In fact, that may be the only source of trouble between you, though a big one: Scorpio's fits of jealousy and other emotional extremes could scare harmony-loving, flirtatious Libra away.
+There would be medium term compatibility between a Libra man and a Scorpio woman in a relationship. With effort and commitment from both the sides compatibility can be attained. The Libra man just flirts which would not be taken well by the Scorpio girl. She in turn would be very possessive and jealous which would haunt the Libra guy.
+The initial drive would be great, but with time, the relationship shows signs of strains. But the duo would just make all efforts to bring out the best in the other. Libra would bring about a balance in the complicated lifestyle of the Scorpio girl. The Libra man would be rational and logical while she would provide for the emotional needs of the relationship. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With both being romantic signs there would be no dearth of compatibility in the field of romance here. The Scorpio woman brings about much romance in this combination. The Libra man would be just wooed by the romantic moves of the Scorpio girl. He would be manipulated by her to think that she is all over him.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility when a Libra man and a Scorpio woman are involved in a friendly relationship The Libra man would be true and loyal but it should be noted that the Scorpio girl hangs on to this friendship just for what she can drain out of the Libra guy.</t>
+  </si>
+  <si>
+    <t>When it is the need of the relationship to end the Libra guy would be more or less rational and the Scorpio woman would be fairly emotional and hence there would be a more balanced fair end for the relationship.</t>
+  </si>
+  <si>
+    <t>Though much romance and passion cannot be seen in this relationship, a compatible romantic relationship thrives here. The Libra guy would just yearn for much romance while the Sagittarius girl is game for it. But her love of sport, freedom, gossip, and adventure would take the Libra guy all along that he forgets about intimacy. The passion with this duo would last a lifetime for this pair.</t>
+  </si>
+  <si>
+    <t>Sex would be a very compatible affair between a Libra guy and a Sagittarius girl. For the Sagittarian female sex would be a very natural affair. The Libra male, on the other hand, knows how to appreciate the good things in life and he would have the mind to please his partner that sex becomes a magic for this duo.</t>
+  </si>
+  <si>
+    <t>This pair commands better compatibility when romance is concerned. The Libra guy is romantic and the Capricorn girl likes it that way. He is one man who would woo his partner by his romantic approach. Capricorns on the other hand know how to appreciate and relish romance. Though there would not be much passion involved, the Libra guy makes all endeavors to bring out passion into the relationship.</t>
+  </si>
+  <si>
+    <t>The Libra male and his Capricorn female partner usually share a compatible marriage. This would be a very sensible and practical combination. The logical Capricorn leads the marriage. She makes a deal with the Libra guy right from the start. He has to from time to time make all efforts to get into the good books of her. He needs to work a lot to keep the marriage going on the right track.</t>
+  </si>
+  <si>
+    <t>It is usually the Capricorn girl who has to call it splits. When the Libra guy would have drifted away for a long time, she would call the final shot. The Libra man being indecisive cannot fathom the split and its aftermath. But the Capricorn girl conducts it in a very business-like approach. Even after a long time, the Libra guy would be searching for the reason for the separation while the Capricorn girl would have settled down comfortably in life with yet another partner.</t>
+  </si>
+  <si>
+    <t>The compatibility for romance with this pair would be again on an intellectual level. There would be much talking and mutual interest in the other one's feelings and emotions. Libra being a romantic guy contributes a greater part here. Though the Aquarius woman is not so romantic she would be much passionate not towards her partner, but on a universal appeal.</t>
+  </si>
+  <si>
+    <t>There would be a good amount of romance and passion involved here and there would be much compatibility too in these areas. As both are romantic signs there would be no dearth of the same. The Pisces girl just yearns for love and romance and the Libra guy would be more than willing to fulfill her romantic needs. Even if his intentions are not pure the Libra man would put up a fancy show for her girl.</t>
+  </si>
+  <si>
+    <t>If at all the relationship should the Libra guy should take the initiative. The Pisces would be an indecisive character to hold account of just anything in life. But the end would be very emotional and heartbreaking for both. The Libra guy makes sure that he makes life comfortable for the Pisces girl even after the split and also promises that he would be there for her when she needs him the most.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a combination that has an initial attraction but the chemistry needs to last depending on the individual characters of both the partners involved here. You're both connected to Mars, the planet of Passion, which rules your relationship. Your intensity is white-hot and united by a common goal, you work together amazingly well -- but when your connection is challenged, watch out! Scorpio's waters run very, very deep; jealousy could become an issue between you, which could start some major battles.
+The Aries woman likes to dominate the scene which the Scorpio man cannot taken for granted.
+However life would not be boring for this duo with the adventure-loving Aries and the mystifying Scorpio man held together. This is a high-energy-packed duo hence others around beware!!! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not much of romance would be involved here as both would be more bent on worldy and domestic issues. Passion, the trait of the Aries would be put in the back burner by the Scorpio. But if romance is lost, it does not mean that everything is lost. The relationship still goes on full steam.</t>
+  </si>
+  <si>
+    <t>There would be a good amount of compatibility when friendship is involved between an Aries woman and a Scorpio man. Both aim for the best things in life and hence there would be mutual commitment to get things done. This would be more than the average friendship between the other combinations of the zodiac.</t>
+  </si>
+  <si>
+    <t>When things do not work favorable in this relationship, the end result would be devastating for both. Aries ends the relations in a fiery mood and the Scorpio ends this as a sort of cold war. Once the bonds of mutual trust is broken then there is no turning back for this duo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woah! When you two connect, it can be X-rated -- or it can be like the wildest, worst tempest, and you're caught right in the middle. Either way, it's fundamental. Earth and water together make for a powerful force. In fact, you're both strong-willed and you probably won't be able to resist power plays. You'll have a strong bond that's hard to break but expect some discord as well.
+The Taurus woman and the Scorpio man generally are compatible in a relationship. However the Taurus woman has to give in or sacrifice a lot to keep the relationship going.
+Both are strong signs and hence there would be frequent head-on collisions. Also the mysterious nature of the Scorpio man would irk the Taurus woman to a greater extent.
+If both of you plan to agree and give the other his or her space then there would be goodness. This combination would do well in sex as Taurus is steadfast and the Scorpio is intense in passion. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Taurus woman and a Gemini man make good friends in life. Gemini does most of the communication and teaches her about new things in life. He also has got the knacks to pull the Taurus girl out of her couch. Both maintain your own privacy as well and hence the going would not be that tough in this combo.</t>
+  </si>
+  <si>
+    <t>With communication as your forte, this duo makes good friends in life. But then there would be occasional frictions due to interference in each other's territory. It would be an eventless relationship to be precise. Too much of talks also spoils the broth!!</t>
+  </si>
+  <si>
+    <t>Though the duo is compatible in marriage, there would be occasional hiccups. your restless nature and shallow feelings cause moments of incompatibility now and then. If mutual trust is compromised then the relationship would be in turmoil. Finances would be a bone of contention with this pair. If both are strong in your love for the other then there would be bliss in this combination.</t>
+  </si>
+  <si>
+    <t>When the Gemini man and the Scorpio woman call the day off it would be one of the worst disaster waiting to happen in your lives. There would be harsh words floating in the air, verbal duels, justifications and acts of revenge of sorts. The mess created cannot be cleaned up that easily by both. Gemini usually stays but he likes to give the final blow to her and she is no way would accept it, because vengeance is in her blood.</t>
+  </si>
+  <si>
+    <t>The pair share greater compatibility in your sexual life. The Capricorn girl provides the Gemini guy with the sensuous moments he is in need. She also keeps him grounded when he flirts around. Sex would be a strong bond that binds this couple together. The Gemini comes back for more from her often if she is willing to keep him entertained throughout.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility in the romance between this pair. Romance would be more of flowers, lavish parties and a tinge of the class exists in your romantic outings. But then passion is not something in the dictionary of the Gemini guy. This upsets the Pisces girl who years for much passion in relationships. But then lack of passion gives both your individual freedom to pursue your personal interests.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility between a Cancer guy and a Scorpio girl when romance is concerned. These two would make the world a better place to live in with your romantic moves. Passions also run high here with this combination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two really have very little in common. Where Cancer is emotional and nurturing, Aquarius tends toward aloofness and detachment. Cancer, you're interested in creating a comfortable, satisfying home life; Aquarius, you want to get out there and save the world. I'm scratching my head trying to think of what the common ground here is, and I'm at a loss. If you're willing to learn from one another -- and I know you're not -- you could forge a good connection.
+There would be better compatibility between a Cancer man and an Aquarius woman but the long-term prospects are to be questioned. The Caner man is more interested in security and commitment while the Aquarius girl keeps everything easy.
+He needs too much emotional attachment which would not be met by the Aquarius girl. This can be a positive relationship if both understand his or her role in the relationship clearly.
+The Cancer guy is home-bound while the Aquarius girl is after intellectual stimulation. He would give the protection for the partner while she would be bold enough to take decisions on your behalf.
+Both are more interested in a conventional lifestyle and hence better compatibility can be seen in this relationship for long. </t>
+  </si>
+  <si>
+    <t>A Cancer woman and a Leo man make a compatible marriage or relationship. The Leo man gives all that the Cancer woman wants in life, material benefits, security in love, lots of love, warmth, etc. 
+She, in turn, would give him lots of affection, good food, and attention. Hence there would be much commitment in the relationship. 
+The masculinity of the Leo guy and the feminine nature of the Cancer woman are best brought out in this relationship, both playing your gender roles properly. Both would be patient with each other, caring and devoted to family ties, that home would be heaven for this pair.
+At first glance, you two don't seem to be such a great combination. The Crab is a water sign, which can dampen fiery Leo's spirits, and Leo's energy might make the Crab draw back into its shell. But looking a little deeper, you actually have quite a few values in common that could make this connection work. You're both highly romantic, sentimental and family-oriented, which could be a wonderful foundation for a relationship.</t>
+  </si>
+  <si>
+    <t>The duo shares better compatibility in sex as well. It would be more of a performance that both play your parts in a meticulous manner. There would be much romance. Each finds the other adorable that sex would be much satisfying and completes the picture. But then the Leo woman needs to play a subdued role here else there would be trouble.</t>
+  </si>
+  <si>
+    <t>The Leo man and the Virgo woman share much compatibility in romance and passion. The Leo man with his sensuous nature caps it all. Though the Virgo girl is not explicitly romantic she can be wooed down by the Leo guy easily. your romantic moves would be one among the best of the zodiacs.</t>
+  </si>
+  <si>
+    <t>The Leo man and the Virgo woman make a compatible marriage. This is one of the best combinations for marriage as both are committed, loyal and are ruled by feelings of the partner. This is one relationship that would last longer. Usually, the Leo man takes control of the relationship. yours would be a traditional marital life including family and friends into the relationships.</t>
+  </si>
+  <si>
+    <t>Generally, this relationship stays until the end of the days that an end is ruled out. But then if fate would have it then it would be the Leo man who would call it off. Though he would be grief-stricken he makes sure that your end is amicably settled. Even after a long time if the Virgo girl wants help she can readily approach her lion king with total ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmm. I sense a lot of potential for friction here. What you do have in common is your stubbornness and your twin desires for control. Unless there are other planetary influences at work in your chart, a casual connection may work better than anything long-term, as problems could begin when your possessive, willful natures come to the fore. And Leo, I hate to tell you this, but Scorpio will always have the last word.
+Though the Leo man and the Scorpio woman share greater compatibility in life, there would be some troubles for the long-term prospects of the relationship.
+your temperaments usually clash leaving a rift in the relationship. The Leo guy is after love, romance, and adventure in life while the Scorpio girl needs intense passion. 
+Both are strong-willed personalities that are not ready for any sort of compromise. But then this would be a much talked about the duo in the colony. Leo would be loyal and faithful while the Scorpio female would be highly suspicious of his moves. </t>
+  </si>
+  <si>
+    <t>Though sex would be a compatible affair with this duo, both are much reserved in this area. There would be some inhibitions from both the parties. There would be no public display of affection and physical intimacy. But after every encounter, your bonding gets stronger enough.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility when romance and passion are concerned with this duo. There would be many delightful romantic getaways in your life together. The passion of the Leo would be brought to the fore by the Pisces girl. His loyalty and warmth bring about goodness and compatibility in the relationship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may feel a sense of destiny when you come together -- that with all the difficulties between you (and there are plenty), your connection is somehow fated. That's because you have so much to learn from one another. You'll earn Karmic brownie points when times get rough, which You probably will. Impulsive, heedless Aries is almost the polar opposite of reserved, considerate Virgo. You two will have to work hard to make it work.
+Though this combination gets along easily initially as time goes it would be difficult for both to keep the relationship and sparks alive. 
+Both your temperaments are completely worlds apart in that the Virgo man is fully organized and the Aries woman loves chaos and impulsive living. 
+Aries loves too much of adventure in life while the Virgo man would be scared of that. Life would be full of challenges for both all through your lives. 
+</t>
+  </si>
+  <si>
+    <t>This duo is compatible enough for sex. your curious nature to explore the hitherto unexplored territory keeps things going. There would be much fun involved and both are more bent on satisfying the physical needs of the other.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and her Virgo partner are very much compatible in having sex. It would be a comforting factor for both. This is the only act where your mutual tensions and worries are not found. The Cancer woman has a motherly sway over her partner and he, in turn, approaches her with masculinity.</t>
+  </si>
+  <si>
+    <t>The Virgo man and his Scorpio girl make up a very compatible marriage. Things would be well and good if your motive in life is to raise a family, increase finances and garner the good things in life. Together this pair can achieve great things in life. The Virgo male generally proceeds into marriage on a cautious note, while the Scorpio female might hurry up. The Virgo man would simply add much spice to the marriage if the Scorpio girl is ready to yield.</t>
+  </si>
+  <si>
+    <t>There would be no compatibility in romance and passion between a Virgo male and a Sagittarius girl. Both direct your love towards the outside world as a whole and do not take any effort in channelizing towards your partner in life. The Sagittarius girl has loads of passion, but that would not be for the Virgo guy. This is more of a bachelor-or-monk-like combination...</t>
+  </si>
+  <si>
+    <t>The Virgo man and the Capricorn woman share much compatibility in your romantic lives. Virgo is said to be very sensitive and romantic in nature. Hence there would be many soft moments of romance involved here with this pair. Passion would not be targeted towards the partner and instead towards goodness in life.</t>
+  </si>
+  <si>
+    <t>When all is not well with the relationship, things just turn from bad to worse. Both would weigh your contribution to the relationship. There would be a lot of talk about equity and the like. But this would be one of the worst endings among all the zodiacs.</t>
+  </si>
+  <si>
+    <t>When a Libra male and a Libra female are into marriage then it would be more or less a compatible affair. Each would be a mirror for the other one to take notice. There would be the perfect balance of acts, good judgment and co-operative ventures at home. With time there would be perfection in the relationship with the pair learning from your past mistakes and misdeeds.</t>
+  </si>
+  <si>
+    <t>There would be not many troubles in the relationship. Both do not hold grudges. You get excited at the sight of the other even after a long break-up. Hence the endgame would not be an end at all.</t>
+  </si>
+  <si>
+    <t>There would be a good level of compatibility with this duo that there would be no reason to end the game. However, straying and financial issues that might crop up at times might mar the relationship to end the same. But once the line is crossed then there would be no looking back for both. The relationship turns as sour grapes for both involved here when You call off the relationship.</t>
+  </si>
+  <si>
+    <t>Sex and physical bonding are very much of food and water to this duo. You have a strong physical attraction. You have specific connections, postures and foreplays involved here from which there would not be much straying.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Leo woman make a good combination when it comes to sex. You find much satisfaction in this act together. You just get along easily here as the Leo is noted for passion and the Taurus bull symbolizes fertility. This duo find the going easier here than in any other areas of your lives together.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Virgo woman are unlikely to break-up even at the remotest opportunity. This is because both are not over-reactive and are very practical and down to earth. If by chance You part ways then the Taurus slowly ends the game in a steady manner. The Virgo might handle the situation very nervously as she is not quite used to this…</t>
+  </si>
+  <si>
+    <t>The couple is one who takes relationship too seriously in life that when You call it off then all hell would break loose. Each one wants to pay back the other with all sorts of revenge. The calling off of the game would be more intense with excesses of all kind. It would be the family members and the children who suffer the most when this duo call it splits.</t>
+  </si>
+  <si>
+    <t>The Taurus male and the Sagittarius female do not make good friends. Taurus, being an introvert sign is not much interested in pursuing friendship on a deeper level. But the Sagittarius, on the other hand, likes to be friends with just about anyone coming across. However, there would not be any meaningful friendly relationship between this duo. You just like to spend time together but not on a friendly note.</t>
+  </si>
+  <si>
+    <t>The Taurus man and a Capricorn woman are very much compatible to lead a happy life together. There would be intense passion, romance, secrets, and emotions involved here. 
+You share mutual trust and respect and there would be security in this relationship. It would be deeply rooted in love and loyalty.
+In fact, you could be a power duo if you put your minds to it, which, knowing Capricorn, is already in the works. Being Earth signs, you share industrious, conservative natures. Your relationship gets better with age but may focus on the material side of life (a gorgeous home, plenty of money, expensive cars ...). Make room for emotional growth as well as financial, and you've got it made.
+Together You make a happy home which would be conducive for children to grow in. Both have conservative thought and resource-linked ideals in life. The duo serves as a conduit through which the waters of the love of the family flow through unhindered.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Capricorn woman are not interested in demonstrating your romance and passion to each other or to the outside world. You think this as a waste of time and energy. You try to avoid this at all costs, but then You have your own private time to cuddle in each other's hands.</t>
+  </si>
+  <si>
+    <t>The Taurus male and a Capricorn female make good friends for life. You would be true, loyal and devoted to each other. You stand together against the winds of change and would be difficult to separate in times of turbulence.</t>
+  </si>
+  <si>
+    <t>Since both are very conservative, Sex would be a taboo item to talk or discuss. Though You have it as a part of life as a strong foundation of your love life, there would not be any out- of- the- box experiences in this area. You are more bent on the other aspects of life that sex takes the backseat more often.</t>
+  </si>
+  <si>
+    <t>The Taurus male and the Aquarius female make good friends for life. You are loyal and committed to each other. You share a common vision, the Aquarius girl gives the inspiration and the Taurus guy does the physical works involved. The bond of friendship would remain intact for years together.</t>
+  </si>
+  <si>
+    <t>This duo would be much involved with romance and passion, both being sensual signs. The Pisces woman would be too romantic while the Taurus guy deviates a little and becomes practical with life. Both revels in the company of the other and home would be heaven from the outside world for both. You enjoy the simple pleasures of life together without much fun-fare.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Pisces woman are very compatible when it comes to the relationship of friendship. You enjoy each other's company. You are devoted and loyal to each other. You care for one another and your expression of camaraderie would be beyond words. You don't mind doing the simple tasks to satisfy the other one.</t>
+  </si>
+  <si>
+    <t>These twosome make good friends for life. You have interests in mutual topics and hence there would be a lot of fun when You are together. You have a true companionship and just laugh about anything under the skies. There would be no scope for possessiveness and other issues that might mar the relationship.</t>
+  </si>
+  <si>
+    <t>The Gemini guy and the Gemini girl are full or romance, passion, and adventure when You are together. There would be occasional ups and downs in your relationship but the passion would be held intact. Each one likes to get the attention of the other by his or her romantic moves. There would be no place for incompatibility or boredom here.</t>
+  </si>
+  <si>
+    <t>When a Gemini guy and a Gemini girl in a relationship or marriage find out it is time for a split, it would be a hard time for both. When one is serious about splitting the other finds a rapprochement. You will be at loggerheads and only a third party would need to intervene so that the duo have an amicable settlement. Usually, You end up in counselling centers.</t>
+  </si>
+  <si>
+    <t>A Gemini man and a Leo female would make good friends for life. Gemini is a friendly person who keeps the relationship alive by his wits, charms, and conversations. Leo though friendly should keep off from pride and ego from interference for the friendly relations to continue. There would be many happy moments for this duo when You are friends.</t>
+  </si>
+  <si>
+    <t>There would be a good level of compatibility when it comes to sex with this pair. Gemini likes to entertain his Leo partner by his inventive and sensuous moves. But he would lack the depth, warmth or emotions needed by the Leo female. You would have sex often but then the Leo girl would also want more and more.</t>
+  </si>
+  <si>
+    <t>At first glance, you two seem really different, but when you probe beneath the surface, you actually have a lot in common. You're both associated with the planet Mercury, which lends you your communicative, mercurial, cerebral nature. Your connection is definitely on the cerebral plane. You both run off nervous energy and always need to be busy and on the go; however, Virgo tends to be more practical and grounded than Gemini.
+Though things would be fine initially, time would bring about some frustration between the duo.The Gemini man's flirting nature might annoy the Virgo woman while the Gemini guy cannot tolerate the nit-picking Gemini woman. He cannot just stand her constant criticisms and advises in life.
+However, You do not get bored in each other's company. You are equally intelligent and share viewpoints on mundane matters. The straying Gemini man sometimes would give the Virgo woman her much-needed space.</t>
+  </si>
+  <si>
+    <t>Between a Gemini man and a Libra woman, there would be greater compatibility for romance and passion. Both take great pride in displaying your romance by lovely flowers, jewelry and the like. Though the duo is said to be orderly, when it comes to displaying your romance then there would be chaos and madness. You just get excited more than needed.</t>
+  </si>
+  <si>
+    <t>The Gemini man and the Libra woman make one of the best friendships that can ever be had. You share a common bond, your great conversational skills. You just talk and talk and while your time away. There would be great respect for each other's intelligence and You are good in judging the other one.</t>
+  </si>
+  <si>
+    <t>A Gemini man and a Libra Woman share greater compatibility in marriage. You love to have children, share activities and involved in social events of the partner. You make great parents and friends as well. Generally, there would be happy but then there would be some dull moments which need to be kept engaged by the Gemini guy.</t>
+  </si>
+  <si>
+    <t>This is one of the combinations that are unlikely to break up. But then if You have to part ways then it would be a friendly affair. You do not hold grudges for long and it would be more of a friendly affair. Even if You happen to come across later in life on You just get along as good friends. The good times You had together just gets engraved in your minds.</t>
+  </si>
+  <si>
+    <t>The Gemini guy and the Sagittarius girl make great friends for life. Sagittarius woman is an adventure-loving woman and loves to do outdoor activities. On the other hand, the Gemini guy is more fond of mingling with the higher-echelons of the society. Together You get mutual interests being met. You love to linger on together for long in life.</t>
+  </si>
+  <si>
+    <t>When the Gemini man and the Sagittarius woman decide to part ways it would be just a casual bye-bye. There would be no confrontations of sorts. You would just remain friends for life with no grudges. No tears and no pains are found.</t>
+  </si>
+  <si>
+    <t>The Gemini man and the Capricorn woman make a very compatible married life. You bring out the best in the other and it would be a stable relationship for long. The Capricorn girl has to take care of practical matters as the Gemini is a scatterbrain. She has to keep him grounded as he is likely to stay afloat always.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility between a Gemini man and an Aquarius woman as both have a detached outlook on life. Hence harmony would prevail in this household. You do not get too much involved in the personal affairs of the other and hence rifts and clashes with this duo would be minimal. Both would be practical, straight-forward and business-minded and hence the going would be easy.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility with this duo when it comes to marriage. But then You get along well each other. This is because You are social and entertain many mutual friends and relatives. The negative is that both are never ever ready to take on the responsibilities of a marriage. Gemini hates details while Pisces loves to postpone things to the end. Also, both are known for your constant flirting and straying. This might bring in problems for the marriage.</t>
+  </si>
+  <si>
+    <t>A sincere friendship can be seen in this combination. You walk hand in hand, at the same time giving each other the much wanted privacy as well. The Aries' courage and Cancer's need for cover go hand in hand. Much loyalty can be expected with this duo.</t>
+  </si>
+  <si>
+    <t>This is a good combination for marriage. You bring out the best in each other and at the same time make good parents. Much kindness and patience a requisite for long lasting marriage and relationship are found here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There would be a long lasting relationship between a Taurus woman and a Cancer man. 
+The Taurus woman gives the warmth for the relationship and he, in turn, his compassion and loyalty to the relationship. 
+Both are more bent on a simple lifestyle and hence there would not be nay major concerns here. You have common goals directed towards home and its security. </t>
+  </si>
+  <si>
+    <t>Both the Taurus woman and the Cancer man are very much compatible in your sexual life as both complement each other in a physical and sensual level. Sex would be a part of your life like any other material need and would be fully satisfied by both. You like to cuddle together and hug each other and much foreplay would also be a part of your everyday sensual menu.</t>
+  </si>
+  <si>
+    <t>The Gemini girl and the Cancer guy make good friends in life. You have common interests and routine affairs to share. Communication is the key here and the social media would be a great thing that binds the duo in this comradeship. There would be much fun here and boredom is never to be seen.</t>
+  </si>
+  <si>
+    <t>There would not be much romance and passion seen her in this relationship between the Cancer duo, though there would be no scant for emotions and feelings. Both would be more bent on the security of the household and managing material resources that there would be barely any time left for singing around the bushes. Together You are more passionate about the family as a whole.</t>
+  </si>
+  <si>
+    <t>There would be the better rapport with this duo but You do not make great friends in life. This is because You do not maintain the minimal distance needed for a friendship to survive the test of time. Both are more concerned about the needs and other emotional matters that comradeship would be totally lost here.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility with this pair when sex is concerned. The reason being both are not more interested in sex, particularly physical intimacy. You have sex just because it brings in a sense of security for both. You take it as a prerequisite for providing the other needs and security in life. At times both forego sex as nurturing and managing the family resources take the center-stage.</t>
+  </si>
+  <si>
+    <t>When it is all over in this relationship, it would be like two small kids crying over spilled milk. You turn to some elders or counselors for solace and advise. The third party ultimately would be much benefitted by the split. You would be ready to barge on the mutual resources the duo shared.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and the Leo man share greater compatibility in romance and passion. This is one ideal pair ever to be found on the planet. You relate to each other very beautifully. You share passionate moments together in public and in private without many hiccups.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility when a Cancer man and a Leo woman are friends in life. You make the best friends among the zodiacs. You love each other, spend time together, share secrets and play along like little children with innocence and no strings attached.</t>
+  </si>
+  <si>
+    <t>Compatibility in marriage would be the ideal one between a Cancer man and a Leo woman. The Cancer guy fulfills the needs and desires of the Leo girl that life would be bliss here. Together You carefully move on the marital trail. The Cancer man does most of the background works that the Leo girl just has to follow his suit.</t>
+  </si>
+  <si>
+    <t>A Cancer man and a Virgo woman share greater compatibility in romance. Feelings come naturally for this duo and You are adept in expressing the same. You enjoy romancing together. Passion also comes flows down generously and You are quite comfortable engaging in romantic outings.</t>
+  </si>
+  <si>
+    <t>Sex would be a compatible affair for this pair of a Cancer male and a Virgo female. It would be a means of expressing your love for the other. You enjoy every moment together. Would be happy if You are left uninterrupted for hours together in the bedroom.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility between a Cancer man and a Libra woman in romance. But then You would try your best to show your romantic and passionate moves to your partner but end in vain. Frustration is what would be at the end.</t>
+  </si>
+  <si>
+    <t>The end comes naturally between the Cancer guy and the Libra girl because You are never found to be compromising or compatible enough in life. Even after years of separation, the Libra girl would be holding onto grudges and the Cancer man is in shortchange of this too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The compatibility between a Cancer man and a Scorpio woman would be one of the best among the zodiac signs. The love and affection involved would grow with time.
+You're both Water signs, which means you're capable of incredible depths of emotion; in fact, Scorpio is one of the few signs that can provide Cancer the emotional security and connectedness that the Crab really thrives on. This is really important to both of you. You both have hard shells that are difficult to penetrate, but you understand one another well enough to give each other the sanctuary you both crave.
+The Cancer guy would provide her with the security, love, and care needed for in life. But then as both are emotional signs, care should be taken so that an overdose of emotions would mar the relationship. 
+You bring out the best from each other. These two water signs just mingle well with each other easily and are miscible socially.
+The Cancer man would bring out the feminine nature of the Scorpio girl. Intimacy and trust would be the keywords in this combination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cancer male and the Scorpio female have greater compatibility when being friends. There would be a great bond of comradeship and trust involved here. Mutual respect and harmony prevail with this duo. You bring out the best in the other.
+</t>
+  </si>
+  <si>
+    <t>The Cancer guy and the Scorpio girl make a very compatible pair in marriage. You make a happy family and are good parents to the children. You are loyal and binding to one another and handle money together with ease. There would be mutual trust and a relaxed atmosphere here with this duo.</t>
+  </si>
+  <si>
+    <t>The Cancer man and the Scorpio woman have a compatible relationship that there would not be an end. You just forgive and forget things and move ahead in life. If at all the end is imminent then things would not be the same again.</t>
+  </si>
+  <si>
+    <t>Oh, boy. How are you two going to find common ground? You're just so different, and each needs something the other has a very hard time providing. The Crab draws into its shell at the first sign of anything new or unfamiliar, while the Centaur thrives on the new and unfamiliar. Sag, the only way this can work is if you let Cancer be Cancer -- don't try to drag the sensitive Crab off to the middle of nowhere. And Cancer, you need to afford Sag plenty of freedom.
+The Cancer man and a Sagittarius woman are compatible enough in life if You put in the right amount of commitment and effort. The Cancer guy is an introvert while the Sag girl likes freedom.
+Hence there would be some rifts occasionally. The Cancer guy would be possessive and would want the Sag girl all for himself which is not going to work with her.
+The Sagittarius female looks for adventure and enjoyment which needs to met by the Cancer guy at times to pacify her at least. 
+The Sag girl is a go-getter which might be a little trickish with the home-bound Cancer fellow. But then time would be on your side.</t>
+  </si>
+  <si>
+    <t>The Cancer guy and the Sagittarius girl make great compatible friends for life. You share an innocence together that is not found in any other combo. Though your personalities and elements differ in nature You make sure that You stay together as friends. Something more than comradeship is found here with this duo.</t>
+  </si>
+  <si>
+    <t>The Cancer male and the Sagittarius female share great compatible sex. This would be a strong bond that binds your souls together. It would be a fun activity and lots of transparency would be found here. You explore new areas of pleasure when it comes to sex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cancer guy and the Sagittarius girl stick onto each other come what may in life. But if fate would have it that way then You do not take on your grouses for long. You cherish the great happy moments You had together. You stay in touch with each other for long as good friends and build a rapport with your in-laws as well.
+</t>
+  </si>
+  <si>
+    <t>Compatibility for friendship between a Cancer guy and Capricorn girl would be great. You rely much on each other for comradeship to exist. The Cancer guy just nurtures the relationship by his protective nature. Both are interested in the well-being of the other in the relationship that a good level of friendship always exists between this duo.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility between a Cancer man and a Capricorn woman. The role reversals make sure that the marriage remains intact for ages. He makes sure that his girl is taken care of, fended as much as possible. He takes care of the family chores. The Capricorn girl who normally does not need anyone in life takes the Cancer guy as a necessary evil. You just stick together for life.</t>
+  </si>
+  <si>
+    <t>There would be a greater level of compatibility when it is romance and passion which are under question. Something more than romance exists here with this duo. You have the right type of bond that is beyond personal imagination and comes from the higher echelons of an emotional plane.</t>
+  </si>
+  <si>
+    <t>The Cancer male and the Aquarius female make great compatible friends for life. This is because there is no clash of egos here and You are devoted to the well being of the other half. You are selfless personalities and hence comradeship flows easily here with this duo.</t>
+  </si>
+  <si>
+    <t>The Cancer man and an Aquarius woman share a compatible marriage for long. The nurturing Cancer keeps the relationship going while the Aquarius girl sticks to loyalty. You believe in the institution of marriage. The Cancer guy takes care of the home and gives his partner more than the needed dose of affection and love. The Aquarius girl finds just the right partner who does everything for her in the Cancer man. But to the outside world, the relationship looks unlikely to last long.</t>
+  </si>
+  <si>
+    <t>Sex would be a perfectly compatible act with this pair. It is a very soulful and holy task for this duo. You take it as a way of perfect bonding and exchange of senses. your mental and physical self just merges together in a perfect communion.</t>
+  </si>
+  <si>
+    <t>There would be enough compatibility between a Cancer man and a Pisces woman in life. The Cancer guy showers nurture and care on the Pisces girl who in turn would turn him on by her great charms.
+This would be a romantic combination. There would be much commitment and understanding here with this duo. You share a great chemistry in life. Here the duo plays your gender roles distinctively. 
+Pisces would be a great advisor to the Cancer guy and he would be able to soothe her inner nerves. A good combination without much hiccups and hindrances in life. 
+You two are so similar in nature; you're both romantic, sensitive dreamers, so much so that at times it'll seem as though you can read each other's minds. You share big dreams, and Cancer, you can help Pisces make those dreams become reality. You're connected on a deeply emotional level. Sensitive Cancer tends to get its feelings hurt, but Pisces, you're so tuned in and nurturing, you'll help nurse Cancer out of any hurt and vice versa. I think I can hear harps playing ...</t>
+  </si>
+  <si>
+    <t>The Cancer male and the Pisces female show great compatibility in romance and passion. This would be a very smooth relationship. You would be much relaxed and comfortable in each other's arms. Being water signs together You enjoy much romance while passion would not be a foundation to a greater extent.</t>
+  </si>
+  <si>
+    <t>The Cancer guy and the Pisces girl share greater compatibility in friendship. There would be much warmth, loyalty and confidentiality with this duo much needed for friendship to thrive. You trust each other and are intimate enough for the friendship to grow. The duo find it easier to share your secrets with your partner without much hesitation or fear.</t>
+  </si>
+  <si>
+    <t>Where there's heat, there's fire -- and you two are burning up! Your attraction is instant and hot, hot, hot, but don't ignore your potential problem areas, such as struggles over who's boss. Aries, you tend to have a me-first attitude, so don't forget to stroke your Leo's ego once in a while. Leo likes to rule the roost and can be very sensitive when feeling ignored or underappreciated.
+This is one the best combinations of the zodiac. You make a perfect match for each other. Leo man has an outgoing personality which easily attracts the Aries woman who likes adventure and exploration.
+your home would be packed with love and warmth. Both being fiery signs there would be much sparks and jealousy as well here. 
+There would be occasional fights and hitches but ultimately You make up as if nothing had happened.</t>
+  </si>
+  <si>
+    <t>A high degree of compatibility exists in this relationship as far as romance and passion is concerned. It would consist of love at first sight and true love later on rules this duo. You take love life in your natural stride.</t>
+  </si>
+  <si>
+    <t>An Aries woman and a Leo man make good friends as You are loyal and honest to the core. Leo's loyalty and Aries honesty go hand in hand to make this comradeship one of the best among the zodiacs. You also have a good time together enjoying outdoor adventurous activities a forte for both.</t>
+  </si>
+  <si>
+    <t>This is a good combination for marriage as well. The energy levels of both the partners are so high. Even if You fight occasionally ultimately You make up. At least You make up for the sake of relatives and children.</t>
+  </si>
+  <si>
+    <t>Though this combination is very much compatible enough there would be occasional temporary hitches, break-ups and then make-up. Both find the other one more exciting that You cannot get out of this relationship in one go. It takes a lot of fist fights and hitches for the relationship to come to a grinding halt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two have plenty of common ground -- for starters, you can both be incredibly stubborn -- but your differences will create friction. The family is important to each of you, which can be a strong foundation for a relationship, but you may find that you clash too much for a comfortable long-term connection. You're both sensual, even dramatic, and make better lovers than partners.
+The relationship between that of a Taurus woman and a Leo man would be compatible enough. But since both are fixed signs there would be occasional disagreements.
+Since the Leo man likes to dominate the Taurus female he should make sure that she feeds his ego. But the Leo male does not fail to respond with romance and loyalty. 
+Still lot of challenges would be found en-route. If You make up your mind to disagree mutually then there would be no let down in this relationship. </t>
+  </si>
+  <si>
+    <t>Once the Leo man and the Taurus woman decide to part ways then that would be the end of fun in your lives. You would fight just about everything and anything under the sun. As both are fixed signs, each would not give way to the other even under the wildest of circumstances.</t>
+  </si>
+  <si>
+    <t>A Gemini woman and a Leo man make good buddies for life. There would be much fun involved here with this duo. Both do not take life seriously and love to remain friends for life without much commitment. But then You find it difficult to grow independently. You make great friends rather than committed lovers.</t>
+  </si>
+  <si>
+    <t>Sex would be very much compatible between a Gemini woman and a Leo man. Gemini is known for variety while Leo is persistent. Hence there would be never a dull moment in your bedroom. The duo would be evergreen youth when it comes to sex. Together You make sex a happy and joyous occasion of togetherness.</t>
+  </si>
+  <si>
+    <t>There would be a greater level of romance and passion between a Cancer woman and a Leo man. Both are comfortable with romanticizing around. But then You stick to old-world customs and traditions as well. The Leo guy being a sign of eroticism would make sure that there is no lack of passion here in the relationship.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and the Leo man make an ideal compatible couple in marriage. Together You make the house a home. Children and elder members of the family would be attended to for every beck and call. There would be a sense of joy and happiness. You make a committed and loyal couple. This is a devoted relationship that is devoid of any incompatible issues.</t>
+  </si>
+  <si>
+    <t>The Leo man and the woman share greater compatibility when it means marriage. your loyalty and the love for good things in life brings about a sense of goodness at home. The children of this duo would be doubly blessed. Straying is unheard of here with this pair as You stick to orthodox traditions and customs. Leos believe in the institution of marriage and hence are most likely to stay together for life come what may. Some conventional and orthodox rules would be followed by both that keeps the marriage intact for years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it is the end of the relationship, then it would be like a pair of wounded lions on the prowl. You keep talking about his or her contribution to the relationship at large. Though both would have put your heart and soul into it things somewhat do not work as to how it ought to be. Mutual disappointment and dissatisfaction would be the name of the game when the game ends for this pair.
+</t>
+  </si>
+  <si>
+    <t>The compatibility for friendship would be just good between a Leo man and a Virgo woman. Both being interested in hard work You can adjust and understand each other perfectly when being friends. You share mutual interests in work and play. Also, only a Virgo girl can harness the Leo guy by her wits and acts.</t>
+  </si>
+  <si>
+    <t>The Leo male and the Libra female are very comfortable and compatible in your sexual life. You take it as a fun part of your life and give your best shot. There would be much romance, foreplays, new tricks involved. There would be no inhibitions between this pair when it comes to sex. Sex would be one thing that this duo enjoys having together for long without any altercations.</t>
+  </si>
+  <si>
+    <t>For this pair, the end does not come immediately. It would take a long time for both to realize that You are not meant to be in the relationship at all. But when the end comes it would be a mutual decision and there would not be any hurt feelings. Both would have the satisfaction that You did your respective roles well. The duo is said to be better off with each other away from the relationship than when You were together. This is one relationship where marriage usually results in a sure debacle</t>
+  </si>
+  <si>
+    <t>There would be a greater level of compatibility between the Leo man and the Scorpio woman when sex is concerned. Since both are sensuous and erotic You have a deep experience in this area. your love-making would be an art form developed together. Scorpio's intense emotions and passion and the romanticism of Leo give the best for the duo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two share a Karmic tie, and you'll feel it in the way you're deeply drawn to one another -- especially Capricorn to Leo. You don't have a whole lot in common, though you do share some similarities. You're both ambitious and will discuss your dreams and goals early on. You also both love living in the lap of luxury and make good leaders. But what do those elements have to do with connecting on an intimate level? Unfortunately, not much.
+The Leo man and a Capricorn woman share a compatible relationship together. But then both need to invest a lot in the relationship to make this happen.
+The Capricorn girl does not like the extravagant lifestyle of the Leo, he, in turn, needs constant admiration from the Cap girl, which is not going to happen in the near future.
+If You are ready to compromise and there is better understanding then there would be best. Both come from a higher breed and hence You get along easily. Both need admiration and adulation from outside and so make all efforts together to win the hearts of those around.
+Both the Leo and Capricorn want the best things in life and so have a common agenda to pursue. The duo like to socialize and are hard-workers and hence life would be a lot more compatible with this pair than many other combinations in the zodiac. </t>
+  </si>
+  <si>
+    <t>The Leo man and the Aquarius woman do not make good friends. You are just the opposites when it comes to this relationship. The Leo male is one of warmth, loyalty, and pureness. While the Aquarius girl has no real heart at all that comradeship is just ruled out for this pair.</t>
+  </si>
+  <si>
+    <t>When it comes to marriage the Leo male and the Pisces female do not have much compatibility. The duo would be more than happy with love and romance, that when practical matters of marriage come into the picture You would flop. The Leo guy seems to be more harsh to his partner and she would not be able to give him the required stimulation in life. With time, the relationship would show signs of wear and tear.</t>
+  </si>
+  <si>
+    <t>Sex would be a sort of an addiction for both but You would not confuse this with the relationship as a whole. Aries would find the Virgo man too much picky when he is more interested on the finer details like the cleanliness of the sheets on the bed, the shower to be taken and the like. There would not be much life involved here.</t>
+  </si>
+  <si>
+    <t>The Aries woman gets constantly frustrated by the acts of the perfectionist Virgo male that the going would be a lot tougher than You had thought initially. The Virgo Man would be the major source of the endgame in this combo.</t>
+  </si>
+  <si>
+    <t>Both the Virgo man and the Taurus woman are very sincere and devoted for each other. Hence there would be better compatibility when both involved in the relationship are friends. You have many shared interests. You have a relaxed demeanor when You are together. Virgo man who is practical and methodical would be patient to his Taurus friend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At first glance you two seem really different, but when you probe beneath the surface, you actually have a lot in common. You're both associated with the planet Mercury, which lends you your communicative, mercurial, cerebral nature. Your connection is definitely on the cerebral plane. You both run off nervous energy and always need to be busy and on the go; however, Virgo tends to be more practical and grounded than Gemini.
+There would be some compatibility issues between a Gemini woman and a Virgo man. You share common interests when it comes to dealing with the outside world, but when personal matters are concerned You would be at loggerheads.
+But then if You stay committed and are honest to the other then there would be best. The Virgo guy should bring down his critical nature and her tactic strenght.
+This combination either make a good duo or the worst pair depending upon circumstances in life. If the Virgo guy can keep up with the pace of the Gemini girl then there would be bliss here. </t>
+  </si>
+  <si>
+    <t>There would be good comradeship between a Gemini girl and a Virgo man. You make best friends for life and are great in entertaining those around. But then the alter ego of the Gemini might hamper the relationship at times. The Virgo guy has to be aware here.</t>
+  </si>
+  <si>
+    <t>You two make a really good team. Virgo's practical nature paired with Cancer's emotional view of life creates a wonderful balance. There's a lot of understanding, trust and respect between you. Your connection could seem a bit boring to others, but You just don't understand the value of loyalty and subtlety to two people who tend to be a bit introverted. You would do great in business together as well as in romance.
+The compatibility between a Cancer woman and a Virgo man would be great. As both are interested in security You stick on despite hindrances in life. Both are loyal, sincere. You know how to express your love for the other that the other one does not find being left un-attended. The flip side is that both are neurotic and worrying personalities that the relationship seems sullen and moody all the time. This is one combination to avoid as at-least one of the duos should be a strong-hearted personality for the relationship to thrive on a positive note.</t>
+  </si>
+  <si>
+    <t>The Cancer girl and a Virgo guy just make great friends in life. Both are much concerned about the smallest things in life that life would be bliss for this combo. You just love to devote your time to each other. There would be the better understanding as well.</t>
+  </si>
+  <si>
+    <t>When the going gets tough the duo find it difficult even to separate from each other. You cling on to each other like parasites. You do not find security anywhere else in life. The Cancer girl would be all emotional and tears but the Virgo guy should handle this like a man of steel.</t>
+  </si>
+  <si>
+    <t>Sex would be a very compatible affair between a Leo female and a Virgo male. You need a steady dose of the same and each would be more than willing to satisfy the partner. Virgo guy has a number of tricks and poses up his sleeves to ground his Leo girl. She is not one to shy off from this act. She would be equally delighted to keep him engaged in bed by her thrills and wits.</t>
+  </si>
+  <si>
+    <t>Two Virgos make up a good comradeship as You have some much in common. You have similar view points on life and also You do have the least tolerance to gel with the other zodiac members as friends. Hence You have a good affinity for the other one. There would be much openness and honesty with these friends. When two intellects come together it would surely be going to be a compatible affair.</t>
+  </si>
+  <si>
+    <t>When a Virgo male and a Virgo female decide to call off your relationship then it would be a no fuss affair. You just separate elegantly and decently without hurting the sentiments of the partner and those around. Both wonder why the rest of the zodiacs make a great fuss when You call off a relationship...</t>
+  </si>
+  <si>
+    <t>The Virgo man and a Libra woman make a very compatible friendship. This is because You share common interests and work towards mutual tasks. You yearn for peace and harmony in life and love life in all its grandeur. The duo are more bent on quality rather than quantity. Compromise comes naturally for the pair that You share a good level of comradeship for life.</t>
+  </si>
+  <si>
+    <t>The Virgo man and his Libra woman partner have much compatibility in your marriage. It would be a very perfect, committed and loyal combination. You have a set of rules and follow it to the word. your life proceeds in a calm and steady manner, each one understanding and satisfying the partner as You climb up together in life.</t>
+  </si>
+  <si>
+    <t>Sex would be a very compatible affair between a Virgo man and a Libra woman. You do it in a very professional manner that the other zodiacs could follow suit. Much style, passion, romance and a newer approach would be found to be practiced every other time.</t>
+  </si>
+  <si>
+    <t>When a Virgo male and a Scorpio female are into sex there would be a high level of compatibility with the duo. Sex would be the forte of this relationship. Scorpios are normally sexually oriented and Virgos are into romance. Together this pair would explore this act in all its splendor. With time, You would perfect the art of love-making.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you two work together, utilizing both your strengths, you can really make things happen. The hard part is learning how to cooperate without stepping all over each other's toes (and feelings)! You're just so different; Virgo, you pay close attention to the trees, while Sagittarius, you're flying high above the forest. Virgo is frugal, reserved and grounded in practicality, whereas Sagittarius is an idealistic dreamer who sees no reason to curtail any urge.
+There would be some level of incompatibility between a Virgo man and a Sagittarius woman. The long term prospects of this relationship is under question.
+This is because the Sagittarius girl is an extrovert, loves adventure and is very enthusiastic about life. While the Virgo guy is an introvert, does not like to take risks and likes to live life to perfection.
+Surely You are poles apart. The Sagittarius girl is a floppy and not-hygiene oriented that would make the Virgo guy go nuts. This pair might make good friends but not partners for life in marriage. Sharing a common household does not work well this pair.
+</t>
+  </si>
+  <si>
+    <t>The Virgo man and the Sagittarius woman make good friends in life. You are not much interested about feelings and emotions. Instead love to converse about just anything under the Sun. It would be a relationship full of pleasure and enjoyment with better understanding from both the sides.</t>
+  </si>
+  <si>
+    <t>There would not be any compatibility when a marital relationship involves a Virgo guy and a Sagittarius girl. Both do not take any attempt to enter the marital relationship. You would be well and good if it continues on a friendly note. The Sagittarius female brings chaos into the relationship while the Virgo guy would be more bent on cleaning up the mess created by the Sagittarius girl. But then both have a better amount of humor to keep the relationship going despite odds at times.</t>
+  </si>
+  <si>
+    <t>Sex would not be a compatible act between a Virgo man and a Sagittarius woman. Both are not much interested in this area. Mutual liking and attraction would be based on fantasy and not emotions or romance-based. You are happy being just friends for life without entering into conjugal bliss.</t>
+  </si>
+  <si>
+    <t>The relationship between a Virgo man and a Sagittarius woman is never likely to end. However if circumstances demand it then it would be a low-key affair. Both do not hold grudges and are free from emotional bonds. You would have a feeling that You had a good partner and had better life till now..</t>
+  </si>
+  <si>
+    <t>When you first meet, you may realize right off that you've met your match. You just share so many similar values and goals, it'll be hard not to feel as if your relationship were destined to be! And my guess is, it will naturally move toward a long-term commitment, as neither one of you tends to be superficial in matters of the heart -- or anything else. Capricorn, you tend to be a bit materialistic, but Virgo will appreciate your thrifty approach to finances.
+This would be a very compatible relationship as both compliment the other. The initial attraction between the duo stands for long till the end of the days.
+You share common interests and your chemistry is just great. The Capricorn girl brings out the hidden passions of the introvert Virgo guy out. 
+This is a very good combination of marriage and friendship. The duo have humility and quietness in common and hence there would not be any drag in the relationship.
+You bring out the best in your partner. There would be peace and harmony at the household and productivity would be at its best when this duo are involved in a relationship.</t>
+  </si>
+  <si>
+    <t>The Virgo guy and a Capricorn girl make great compatible friends worth a life. You just gel together and pass through the thick and thin of life. This is a relationship that is loyal, consistent, steadfast and reliable when compared to most of the other combinations of the zodiac.</t>
+  </si>
+  <si>
+    <t>Compatibility for marriage would be the best between a Virgo male and a Capricorn female. You plan everything to the detail and follow life to the rules of the book. There would be much understanding and commitment in the relationship that the marriage would last long enough. The duo is more bent on making life easy and comfortable for the other one.</t>
+  </si>
+  <si>
+    <t>There would be greater compatibility when a Virgo guy and a Capricorn girl are involved in sex. As You are best in understanding this would be a very satisfying act where quality, unlike quantity, matters the most. The duo knows the best when sex is concerned and it would be more or less a very satisfying task for both.</t>
+  </si>
+  <si>
+    <t>You're a good match in intellectual pursuits, as Virgo's propensity for analysis and detail combined with Aquarius's vision can produce some really creative ideas. But what's that got to do with love? You both tend to be rather aloof emotionally, so your emotional connection might never grow very strong. There is a Karmic connection between you and you could make good friends but that may be as far as it goes.
+A Virgo man and an Aquarius woman share a very compatible affair when You are involved in a relationship. You would get along on an intellectual note.
+The Aquarius girl would be smart while he would be logical in reasoning. If the relationship has to last longer then the duo need to put in some effort and commitment.
+His pessimistic approach and her optimistic approval just meet head-on bringing in rifts. But your dreams and passion would be of mutual interest and hence the relationship keeps going despite odds at times.</t>
+  </si>
+  <si>
+    <t>This pair make great friends for life. You enjoy the company of the other and share mutual interests. There would be many interesting conversations and You make a good gossiping pair. Together You face obstacles in life and change problems into opportunities. The duo would be more focused on the job at hand. Both of are very much attuned and committed to life.</t>
+  </si>
+  <si>
+    <t>A Virgo man and an Aquarius woman share high levels of compatibility when You are involved in marriage. You have mutual respect for each other in your marital relations. It progresses on a slow but steady note. The Aquarius girl adds flavor to the marriage which would delight the Virgo guy.</t>
+  </si>
+  <si>
+    <t>The Virgo male and his Aquarius partner share much compatibility where sex is involved. You have much delight and fun in your act together. Sex would be where the relationship is strengthened if not fortified. Here the unique nature of both is brought out. Mutual appreciation and satisfaction would be the key.</t>
+  </si>
+  <si>
+    <t>An Aries woman and a Libra man do not make good friends. This is because You are tow opposite signs and hence there would be nothing in common for the comradeship to develop. One positive note here is that the independent nature of the Aries would be loved by the Libra man who likes to be left alone all to himself.</t>
+  </si>
+  <si>
+    <t>The Libra man hates any sort of emotional outbursts when You call the party off. Hence he would be more than willing to make a proper legal compromise with his partner. He would like to part with her as good friends. But this would be too hard to handle for the emotional Taurus, who takes time to find a good footing.</t>
+  </si>
+  <si>
+    <t>There is no dearth of romance and passion with this duo. You are unmindful of the environment You are in when You are engrossed in romanticizing around. There would be an excessive display of passion and emotions with these two that You would be the talk of the town.</t>
+  </si>
+  <si>
+    <t>There would be greater compatibility in sex between a Gemini woman and a Libra man. This would be an interesting act for both as You are psychologically complex and are emotionally dependent on each other. You have immense pleasure and like to have sex as often as possible.</t>
+  </si>
+  <si>
+    <t>You have a great connection, one that is enhanced by lots of social activity and only the finest things in life. Libra, you love Leo's big-spending ways; you adore romance, and Leo really makes you feel like royalty. Just make sure you return the favor, if you want to keep your Lion feeling loved. Leo can be a bit brash at times for Libra's refined tastes, but the Lion's pride will be dented if this fact is mentioned. Good thing Libra is so tactful!
+This would be a compatible relationship to the book. There would be much romance and love involved and both would be equally good in showering the same on his or her partner. The Libra guy has great tricks to woo his princess. There would be longevity and stability in the relationship. You follow the rules needed to keep a relationship going properly and stick to each other through thick and thin. Mutual dependency is a must here with this duo for long-term prospects.</t>
+  </si>
+  <si>
+    <t>The Leo girl and the Libra guy make great friends in life. Particularly if You have common goals in life like raising a family or growing in your career. You are cool-headed and your temperaments just match. Though Leo is not one to befriend easily, the Libra guy would bring out the friendly nature out of the Leo girl.</t>
+  </si>
+  <si>
+    <t>A Virgo woman and a Libra man make good friends if not companions in life. This is because You share mutual respect for the partner. For each, the other one is so special in life that there would be a greater compatibility when You are involved as friends in life.</t>
+  </si>
+  <si>
+    <t>A Virgo female and a Libra male share a very compatible married life. It would be a match made in heaven, very harmonious, peaceful and gentle. The couple would make good citizens and You bear forth good children as well. You manage your finances and relationships carefully. This would be one of the ideal pair for a very compatible marital life in general.</t>
+  </si>
+  <si>
+    <t>When it comes to having sex, the Virgo girl and the Libra guy again have a compatible affair. You have mutual respect for both and like to satisfy the other half as much as possible. It would be a fulfilling affair though it might be taken as a ritual by the duo. It would be a qualitative affair though You do not have it often.</t>
+  </si>
+  <si>
+    <t>As Libra is a romantic sign there would be much compatibility when romance and passion are under question as a pair of romantic heads is involved. Romance is where each one puts his heart and soul. You make sure that You satisfy your partner on a romantic note by extravagant presents. Also, a good deal of passion would be found here with this combo. It would be an impulsive act by both involved but You do not admit to the same.</t>
+  </si>
+  <si>
+    <t>Both the Libras make good compatible friends for life. A balanced approach to life and fairness in everything would be your mutual motto in life. You share your thoughts on a noble note while for others outside the relationship the comradeship seems to be a little self-oriented.</t>
+  </si>
+  <si>
+    <t>Sex would be a very compatible affair with Scorpio as a major player of the game here. The Scorpio girl would provide the emotional element for the act and she would be able to initiate the Virgin Libra guy into the fold. Sex would be a very comfortable act for both and tgether You would explore hitherto unexplored territory in the offing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two can really keep up with each other! You both have lots of friends -- in fact, between the two of you, you know pretty much everyone in town -- and you both love living in the midst of a beehive of social activity. Sagittarius, you're freedom-loving to the core and you might find Libra to be just a bit clingy, but that's okay -- you're both such good-humored, carefree types, you shouldn't encounter many real problems in your relationship.
+A Libra man and a Sagittarius woman share a compatible relationship in life. This would be a long-lasting relationship.
+Though occasional rifts and hitches cannot be ruled out, You make sure that You bury your hatchets and proceed in a forward direction. 
+The Sagittarius woman's love of freedom and adventure very much impresses the Libra guy. With better understanding and commitment from both the sides, this duo can go places together for long. 
+</t>
+  </si>
+  <si>
+    <t>If the relationship has to end as fate would have to it, then it would end on a happy note. The duo would remain as good friends for life. You will be there for each other when the situation warrants it. You just relish the good times You had together and there would be no regrets at all here.</t>
+  </si>
+  <si>
+    <t>The Libra man and his Capricorn woman have better compatibility when You are involved as friends as well. Though there would not be much rapport with this pair as comrades You have common civility that would mean friends to the outside world.</t>
+  </si>
+  <si>
+    <t>The Libra male and the Aquarius female make one of the best friends' pairs in the zodiac. You also have a multitude of mutual friends in life. If everything is kept at a distance and not too intimate then better comradeship would exist. It would be an art to personify here with this combination. You make a model friendship for others to follow suit.</t>
+  </si>
+  <si>
+    <t>This pair shares a compatible sexual life together. There would be much warmth and intimacy involved here that courtship would be a fun-fare. Together You explore new areas of love-making and the duo ask for a clean affair from the other. It would be a very friendly affair between the two and there would be no inhibitions seen here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This relationship is not going to end easily but if it is then it would be a very sad story for both involved. The only reason for the separation would be that You would have detached on an intimate or emotional note into your own private world but stay as friends for life. There would be no grudges held back. Sweet memories just linger on...
+</t>
+  </si>
+  <si>
+    <t>A Libra male and a Pisces female have a compatible affair when sex is involved. Pisces provides the fantasy for the act while the Libra guy gives a sense of security for the relationship. You love to have sex at just the right time, the right place and the atmosphere must be soothing and convincing for both.</t>
+  </si>
+  <si>
+    <t>Compatibility for marriage in this combination is also reasonably good. However the duo are not much bent on getting married. You do not want it on paper and sealed and instead would be happy to settle down in a life-long companionship mode as well.</t>
+  </si>
+  <si>
+    <t>Much of thrills and excitement would be found in the act of sex here. The Aries needs to focus and the Scorpio needs to control the senses for things to work out well in the sensual level. You push the limits to the extremes.</t>
+  </si>
+  <si>
+    <t>A Taurus male and a Scorpio female make good friends, if not good partners in work. Both were committed to the task, You are known to accomplish great tasks together. There would be loyalty, mutual trust, and bond that would take your together in the boat of friendship for life.</t>
+  </si>
+  <si>
+    <t>The Gemini man and the Aquarius woman make good friends in life. Gemini is fond of socializing and the Aquarius female is an extrovert with a universal appeal. Hence the going would be easy for your in friendship with many mutual interests and common pursuits.</t>
+  </si>
+  <si>
+    <t>The Gemini man and the Pisces woman make great friends in life. You are attracted to the curiosity of life and love traveling together. You are social sun signs and hence get along easily with common friends. You love to talk a lot about yourselves and the world around. Both are tolerant of the other to pursue this comradeship for long.</t>
+  </si>
+  <si>
+    <t>The Cancer male and his Libra female do not make great friends in life either. You would not exhibit much compatibility for comradeship to exist between your. There is no scope for mutual interests and hence a committed friendship is ruled out for this duo.</t>
+  </si>
+  <si>
+    <t>This duo makes great friends in life. Together You bring out the best in the other one. You defend yourselves together from outside influences. You stick on together through thick and thin that You make great friends for life. Mutual appreciation and security would be the key here.</t>
+  </si>
+  <si>
+    <t>The Leo guy and the girl do not have much compatibility for friendship to thrive within yourselves. Though You are warm and kind-hearted there would be many selfish interests with both that friendship is impossible. You take love and romance more seriously than friendship too.</t>
+  </si>
+  <si>
+    <t>The Leo male and the Capricorn female make great friends in life. Both are loyal and have much warmth to pursue the relationship in positive territory. Both of your are a lot about the other. You also share mutual interests and hence comradeship would be a great relationship for this pair.</t>
+  </si>
+  <si>
+    <t>The Leo man and the Pisces woman make good friends for life. Together You enjoy an innocence together to explore the outside world. Both are more interested in fantasy and this takes your together on a friendly ride for long.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility with an Aries woman and a Virgo man as friends in life. A healthy approach and common interest in sports and physical activities would take your far in the land of comradeship.</t>
+  </si>
+  <si>
+    <t>The Leo woman and the Virgo man do not make great compatible friends. This is because your selfish nature keeps your out of the relationship. However, You share a reliable relationship that can be called better as companionship.</t>
+  </si>
+  <si>
+    <t>A Virgo man and a Scorpio woman make a compatible friendship. Both of your take the other partner safely under your wings and guide your in life. The Virgo man would soothe the troubled nerves of the nervous Scorpio girl and she, in turn, would give him the needed moral and emotional support needed in life. You share any conversation and make good friends for life.</t>
+  </si>
+  <si>
+    <t>The Virgo guy and the Pisces girl make good friends. There would be better compatibility between then in the comradeship as well because You are the only people in the universe who can understand your better. It would be a crazy and jolly friendship, to sum up. Nobody else is going to be friends with this pair.</t>
+  </si>
+  <si>
+    <t>This combination of a Libra man and a Taurus woman make compatible friends if You have a common project to complete. It would be like maintaining a house or property. Both of your have almost identical tastes and ideas that there would not be any hitches in the friendship. In general, the Taurus female best likes to be left alone when she is busy with her tasks.</t>
+  </si>
+  <si>
+    <t>A Gemini woman and a Libra man make good friends in life. You love being together, there would be much talking involved here with this duo. Curiosity brings your together. You love to stay connected together with the latest modes of communication gadgets and make a cool combo.</t>
+  </si>
+  <si>
+    <t>The Cancer girl and a Libra guy just make great friends in life. Both are much concerned about the smallest things in life that life would be bliss for this combo. You just love to devote your time to each other. There would be the better understanding as well.The Cancer woman and the Libra guy do not make great friends in life as your interests vary. Also, each of your fights to dominate the scene, something that is unwarranted in a good comradeship. But if the duo are involved in a professional or business link then there would be better compatibility in a friendly environment.</t>
+  </si>
+  <si>
+    <t>A Libra man and a Sagittarius woman just make great friends in life. This is because both of your love adventure and traveling and You look at the brighter side of your life. You love life and like to live it to the fullest that You make good comrades for life. There would be no strings attached.</t>
+  </si>
+  <si>
+    <t>A Libra man and a Pisces woman make good friends in life. Both of your live in a fantasy world and hence the comradeship that exists here would be very pure and compatible. Together You enjoy the good things in life and give importance to the little things around your.</t>
+  </si>
+  <si>
+    <t>Though the Taurus and Leo are stubborn signs, You stick together come what may in life when it comes to marriage. The Taurus man equates life with a bigger bank balance while the Leo woman is more bent on spending it lavishly. There would be constant rifts in the marriage owing to children and course of actions in bringing your up. There would be a constant inner smoldering on the inside but things just keep going in the marriage.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Libra woman make a compatible marriage. This is because both of your love peace and harmony in life. Both do not accept changes in life and just hang out together despite any occasional hindrances in the relationship. You cling on even under harsh realities in life. The Taurus man expects the Libra woman to be at his beck and call. But the Libra female is willing to make compromises in the relationship.</t>
+  </si>
+  <si>
+    <t>The Taurus man and the Scorpio woman make a compatible pair in marriage. You are faithful, take life seriously, loyal and dedicated to each other. Each needs the push from the other to keep going. There would be initial hiccups but the relationship gets refined with time and test. There would be occasional rifts but then it would not be the end. If both of your share a transparency in the relationship then home would be just heaven for this pair.</t>
+  </si>
+  <si>
+    <t>This duo makes up a compatible married life. However, the compromise had to be made in the free area which is the forte of the Sagittarius woman. Usually, the Taurus guy is possessive which might wreak havoc on the relationship. There would not be any hard and fast rule here and each one senses the priority of the other and just keep going. Humour is a common bond that gets your together despite life's occasional issues.</t>
+  </si>
+  <si>
+    <t>This is one of the stable relationships for marriage. Both believed in the institution of marriage and are very compatible with the thick and thin of life. The relationship matures with time. your conservative nature and religious-bent make your stick together. Together You build a beautiful home with a strong foundation that can stand the test of time.</t>
+  </si>
+  <si>
+    <t>These two make a compatible married life. your mutual positive nature and conservative values take your together on the road to a happy marriage. You are very reliable to the other. Both of your do not stray outside of the relationship. Each one likes to take forward the relationship in a positive sense and hence there would be no looking back.</t>
+  </si>
+  <si>
+    <t>There would be greater compatibility in this combination between a Taurus male and a Pisces female. Domestic welfare/happiness is assured in this pair. You are more focused on your partner and not on self. You stay away from straying. The Pisces girl who is so dreamy would be brought down to reality by the Taurus guy. The relationship progresses slowly but steadily on a positive note. You have something in common that binds your together.</t>
+  </si>
+  <si>
+    <t>A Gemini guy and a Virgo girl are very compatible in marriage. But then taking care of children and holding other responsibilities irks your, particularly the Gemini guy. If the wavelengths of these two intellectuals match then home would be heaven, else you would find a hell with this combo. Communication would be the key to the success of this duo in marriage. Both are not much bothered about ego and hence the relationship endures for long.</t>
+  </si>
+  <si>
+    <t>There would not be any level of compatibility between a Gemini man and a Scorpio woman. The reason being there would not be much in common to bind your together. The Gemini man who is known for playing dirty tricks would be ironed out by the Scorpio lady. He cannot mess around with her for long. It is usually the Scorpio woman who rules the roost in the relationship.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility in marriage between a Gemini man and a Sagittarius woman. But then both of your should not stay together for long. You are social animals and include friends and relatives in your lives. However, both should have a control over your financial spending else You might land up bankrupt. The pair is found to forgive and forget easily and hence there would be bliss in this relationship.</t>
+  </si>
+  <si>
+    <t>The Cancer man and the Cancer woman make a great compatible marriage. Both are more concerned about the welfare and security of the family as a whole, this mutual interest keeps your going despite tough times. Each of your would have a hold over the other during tough time. You like to have an unconditional attachment with your partner, which sometimes becomes more obsessive. A sense of insecurity looms around both. But then much love and warmth would be found with this duo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cancer man and his Virgo counterpart just make a great compatible marriage. Love, commitment and service to one another mean a lot to your. You love to have long evenings together. your home would be heaven on earth. You savor the moments You are together. You would also make all efforts to make life easier for those around your.
+</t>
+  </si>
+  <si>
+    <t>There is greater compatibility in marriage when a Cancer man and a Sagittarius woman are involved. You just bring out the best in your partner. Both of your love peace and harmony at home. The Cancer guy is very emotional and clings on to his Sag partner. She, in turn, would bring out the adventure and fun from the Cancer male. Compromise comes easily for this duo. Caring, loving and loyalty would be the keywords for the relationship and those at home would feel blessed.</t>
+  </si>
+  <si>
+    <t>The Leo man and a Gemini woman are compatible in marriage, but the problem is the Leo guy wants children but the Gemini cannot handle your easily. If You have a common purpose then marriage would be bliss. The Gemini by her communication skills keeps the relationship going despite odds at times. Both are creative enough in the marriage. Usually the Leo guy likes to dominate the scene and take control of the situation. If the Gemini girl can take this then this is one of the best pairs in the zodiac.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility between a Leo man and a Libra woman during the initial periods after marriage. But with time the relationship wears off as there would be nothing in common to hold your together. The Leo guy is conventional while the Libra girl wants to keep up with the present day technology. Hence there would be frequent rifts due to this. Though You might find the beginning of your relationship happy, You do not up to the hard work needed for maintaining a marriage. Both need to understand that life is more than what you see explicitly in others around you.</t>
+  </si>
+  <si>
+    <t>The Leo male and the Scorpio female share a very compatible marriage. As both are loyal to the core and do not stray this relationship would thrive until the end of the days. If both of your would balance your life then there would be best. You believe in the institution of marriage and remain committed for life. The Leo guy easily conquers the Scorpio girl. She, in turn, drives the Leo guy crazy by her intense passion.</t>
+  </si>
+  <si>
+    <t>The Leo male and the Capricorn female make a very compatible marriage. This is because both of your have great values and believe in marriage. Leo usually takes the lead in the marital life. Both of your are conservative and hence stick to age-old customs and traditions followed by the household. The Cap girl would be satisfied with the marriage if she is bestowed with all material resources needed for life.</t>
+  </si>
+  <si>
+    <t>This is a good combination for marriage. Both have good values and earthy possessions mean a lot to your both. You together work to achieve the same and hence better compatibility would play a major role in this combination. The Virgo male would be very intense and committed in marriage while the Taurus woman would be a patient personality and hence a conducive atmosphere prevails in this area.</t>
+  </si>
+  <si>
+    <t>A Virgo man and a Virgo woman usually share a very compatible married life. Though You do not have much commitment towards marriage, common interests just bond your together. The relationship progresses and matures with age. Everything would be done to perfection, the dating, marriage, honeymoon, child-bearing and the like. You follow the rules to the book and make a compatible life together in marriage.</t>
+  </si>
+  <si>
+    <t>The Gemini woman and the Libra guy make a compatible marriage. But home is next when it comes to socializing and partying out. You hate having children and rearing your. But You make a great compatible duo for the outside world with your flirting in public and the like. You are sure to bring many eyes towards your when out.</t>
+  </si>
+  <si>
+    <t>This is a good combination for marriage as the duo believe very much in matrimonial bonds. The longevity of this marital combination is fairly long enough. Though troubles might arise the duo make sure that You stick together, You just fake your feelings and hang on to each other. Mutual tasks like family-grooming, financial savings, etc bind your together. With time, the Libra guy slowly gets the harness of the Leo woman under his control. This brings in a sort of better compatibility in the marriage.</t>
+  </si>
+  <si>
+    <t>There would be a good amount of compatibility in the marriage between a Libra man and a Scorpio woman. Though the Libra man would have a detached relationship and her a great manipulator, common agenda like children and finances keep your together in a compatible relationship. your energy levels merge and You warm in harmony. The Scorpio woman would be loaded with problems and the Libra guy would be just ready to give his time for her every beck and call.</t>
+  </si>
+  <si>
+    <t>There would be a high level of compatibility when a Libra man and a Sagittarius woman are into a marriage. This is one of the best matches in the zodiac combinations. The Sag girl would take the lead and the Libra man would follow suit. There would be no misunderstandings and perfect harmony would prevail. Better communication would be the key to your long-lasting happiness. You share mutual interests and common friends who would bind your in turbulent times.</t>
+  </si>
+  <si>
+    <t>A Libra man and an Aquarius woman make a very compatible married life together. The relationship would be solid and strong and runs for years together. Both have an idealistic approach and hence mutual interests keep your engaged. This is a cool combination that works wonders in marriage. your intelligence or intellect just gels your together. You share a great chemistry and attract each other casually. Libra gives the structure and format of the marriage while the Aquarius girl will provide the excitement.</t>
+  </si>
+  <si>
+    <t>The pair shares a compatible married life together. You make your home special and work together to put up a good picture for those around to see. The Libra man would take the reigns of the house and make it a home-sweet-home. Children are usually not favored in this relationship as You feel that You might jeopardize the harmony that prevails between your. You love the good things in life like art. music and the like.</t>
+  </si>
+  <si>
+    <t>Sex is one thing that keeps this couple intact for ages. Everything else in life matters second to your. You find solace when You are in each other's arms and hence sex is a great way for improving your compatibility level to a greater extent.</t>
+  </si>
+  <si>
+    <t>The act of sex between this couple would involve a high degree of sensual moves and affection. Both of your are more bent on physical pleasures like touch. You take much time and do this act leisurely. Both of your keep aside a particular time period to be together without any distractions. Libra shows her special creative talents when she comes to the bed. The usual distracted and diverted Taurus gives his full attention to the Libra partner.</t>
+  </si>
+  <si>
+    <t>Sex is a natural physical act for both of your. You like to satisfy the other as much as possible here. Both your intentions would be to have a good time together and there would be no heed to guilt, remorse, hygiene, location and the like. You just take it what the other gives with your whole heart and soul.</t>
+  </si>
+  <si>
+    <t>There would be ample compatibility when it comes to the act of love-making with this duo. Here the physical and the mental make-up of both come to play. Though there would not be frequent acts, the quality is always assured. your sensual natures make your explore unknown territory together on a comfortable level. You take your own time to please and satisfy the other.</t>
+  </si>
+  <si>
+    <t>This Gemini duo are compatibility when it comes to the act of sex. It would be a mercurial phenomenon for both of your being ruled by the planet Mercury!!. Both of your are great in foreplay and sensual communication in this act. Sex would be never boring as You find different ways of satisfying the other half.</t>
+  </si>
+  <si>
+    <t>There would be a good amount of compatibility when it comes to having sex with this pair. You are born lovers and flirts, hence love-making would be an art for your. You talk about sex very openly and having sex would be a comfortable and satiating job for both. Gemini knows the intricacies of the act and the Virgo is a born-perfectionist, hence love-making would be the best with this duo.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility in sex for this pair. For the Sagittarius woman sex is a natural thing next to any other physical form of work out. Gemini would bring in innovation and variety to this act. You love having this as often as possible. You would experiment new moods, new moves, new places and new gadgets to aid your in the act.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it comes to sex there would be the least amount of compatibility with this pair. Both are not much interested in the act and rely on gadgets to improve your libido and performance. This is something that least bothers the duo as You are more bent on the other matters at hand. Physical and sensuous moves do not satisfy your much.
+</t>
+  </si>
+  <si>
+    <t>There would be no compatibility when it comes to sex between a Cancer man and a Libra woman. This natural act would be a complicated task for the duo. The chemistry between your also does not suggest something rosy in this area. You withhold sex as a means of revenge or retaliation for the acts done in the daylight.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility when having sex with this pair. Sex is a sacred communion for your. You enjoy it and make sure that the other one is totally satisfied. The erotic Scorpio brings out the emotional Cancer guy to the fore during sex.</t>
+  </si>
+  <si>
+    <t>There is greater compatibility in sex between this pair. The emotional natures bonds your together for life. The Cancer guy keeps the relationship under a strong footing by his emotions and feelings. Together You enjoy sex for life though You are not much erotic or adventurous enough. You make it a way of expressing your love for the other.</t>
+  </si>
+  <si>
+    <t>There would be a greater level of compatibility in sex with this pair. This is because the Cancer girl and the Leo guy are committed, loyal and trustworthy. You do not stray. Sex acts as a binding force for your. Though You stick to conventional ideas in having sex there would be no abstinence for long. Both take sex as a way of expressing your love, affection, and warmth.</t>
+  </si>
+  <si>
+    <t>There would be a greater level of compatibility when two Virgos are involved in sex. The Virgos are one of the sexiest of the zodiacs. But there would be no exhibition of your sexual preferences to the outside world. But then both would be more particular about having a bath before and after having sex, checking out if the bedspreads are clean, if the lighting is just perfect and the like... The atmosphere around means a lot to your.</t>
+  </si>
+  <si>
+    <t>With this duo, sex is not a must for the relationship to succeed. But then it is needed on a constant dose for a marriage to survive, isn't it??. Libra has more ways to show his love and care than indulging in sex but the earthy sign of Taurus might feel famished with this attitude of the Libra male. Both of your need to make some compromises in this area for better compatibility in your sensual life.</t>
+  </si>
+  <si>
+    <t>Sex would be more or less a compatible affair between the Libra male and the Capricorn female in a relationship. You treat it as a pass to get things done by the other partner. Each day You look forward to having sex and this steady dose keeps your going for years together despite occasional hitches incompatibility.</t>
+  </si>
+  <si>
+    <t>Though this combination seems to be very compatible, there would be frequent bickering and hitches in the relationship. Aries says that what she says is right while Taurus sticks to his stand. Amidst all these it would be the family surrounding your that suffers a lot till the end.</t>
+  </si>
+  <si>
+    <t>When things go wrong in this combination there would be a lot of tears and emotions being shed. Each would have the insecure feeling about the financials and the family split. Though You might go your own ways there would be a common ground that holds your together which might be children or finances.</t>
+  </si>
+  <si>
+    <t>When both of your decide to part ways then there would be much-wounded feelings to handle. The Taurus usually puts financial problems for the break-up. As both are very stubborn in nature, reconciliation is completely ruled out by this duo. Children, finances, and other property deals suffer a lot on account of this. your possessiveness further aggravates the situation.</t>
+  </si>
+  <si>
+    <t>This is one combination where the split would have gruesome after-effects. The after-shocks linger on for years together. The Taurus woman fights for control of material possessions. Later on, children would be the bone of contention. Mutual friends and relatives would become an eye-sore for your. Reconciliation is ruled out for this duo.</t>
+  </si>
+  <si>
+    <t>When the Taurus man and the Aquarius woman decide to part ways then it would be a bitter farewell for both. Since both of your would have heavily invested in this relationship it would be a huge blow for both financially and mentally. Mutual resources become a bottleneck in sharing, there would be no solace for both.</t>
+  </si>
+  <si>
+    <t>If the relationship has to break then the Aries female has to take the first step. The Gemini man would be too detached to sense that things have gone awry for quite some time among your. There would not be any emotions and feelings are involved. But both are resilient enough to stem any mismatch.</t>
+  </si>
+  <si>
+    <t>When a Gemini man and an Aquarius woman make up your mind to part ways, there would be a competition as to who goes out first. Both of your are not much interested in mutual material resources. Each goes on his own way and the end does not affect your physical and mental makeup a bit.</t>
+  </si>
+  <si>
+    <t>The Taurus female and a Cancer male stay together for life come what may. But if the relationship has to end then it would be a very sad part for both. Both yearn for stability and hence breaking up the relationship would be a hell for your. Even if You part ways You make sure that You stay connected and are loving and kind to each other till the end of life.</t>
+  </si>
+  <si>
+    <t>The end of the road is unlikely to be seen if both of your are committed and secured to the relationship. But then if one of your topples the balance then it is the end of the road. The Cancer guy complains about the Aquarius girl of not being a good woman for the house while she complains him of being too much clingy and poky into her personal matters.</t>
+  </si>
+  <si>
+    <t>The end of this relationship comes when the Leo guy cannot hang around for long with the dreamy Pisces girl. Else the Pisces female might have strayed. But then both of your do not hold grudges. You would be seen well beaten up and hurt and it would take long for both to nurse back your wounds and recoil.</t>
+  </si>
+  <si>
+    <t>When the game gets over with this relationship then it would terminate in a business-like manner. Both of your would have been fair in the relationship and hence there would not be any hard feelings on both the sides. Though You are unlikely to come for any rapprochement of sorts, You can count on your ex-partner in times of need.</t>
+  </si>
+  <si>
+    <t>When it is the end of the road for this pair, then the separation plan would be charted out by the duo. Everything would be done in an order according to the rules. Both would have a candid talk and would do what is good for both and for those around your, particularly children and elders at home.</t>
+  </si>
+  <si>
+    <t>If the relationship of this duo has to end then it would be on a sad note. Each would try to bring back his or her own regrets and wrongdoings in the relationship. You would respect the partner even if the split is imminent. After the separation, You would be carrying around fond memories of your being together in life.</t>
+  </si>
+  <si>
+    <t>This is one combination where the end was visible even when it started. But it would be a laborious task for the separation. Both would be making charges and accusations on the other. There would be many denials and false propaganda that the unwinding takes a lot more time and effort from both the sides. It would make your think that You better had dragged on the relationship for good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Taurus man and a Cancer woman make a compatible relationship. Both are very emotional, sentimental and security-conscious that the going would be easy here. 
+You make a cute, cozy couple; intimacy and devotion come naturally to you. Sensitive Cancer needs the kind of strength and loyalty Taurus can provide, and in return gives the Bull a deep emotional bond. Expect to hole up together for long periods, needing nothing more than the comfort of each other.
+The Cancer woman provides a warm and cozy atmosphere at home and he would be providing the much-needed security for the household. Both are family-centric and make sure that it is a haven of sorts. 
+However, if one of your becomes irresponsible and takes risks then there would be temper tantrums at home. Both are more bent on a happy and satisfied life and do not venture into unknown territory. You like to hoard things and cling on to age-old traditions and customs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since both the Taurus man and the Libra woman are ruled by the planet Venus, there would be better compatibility with this duo. 
+You're both associated with Venus, the planet of love, beauty and harmony, and you'll feel drawn to each other because of that connection. You both appreciate the finer things in life -- you love to indulge yourselves and each other and tend to be quite extravagant in your affections. Elegance and beauty mean a great deal to you and will define your bond. But be careful -- you could border on laziness and excess together.
+Beauty, sensuality, and luxury bind your both together. You enjoy aesthetic pleasures and are good at handling finances together. 
+The Taurus man garners money while the Libra woman finds ways to invest it. You own and enjoy the good things in life. Love and passion come naturally to this pair. </t>
+  </si>
+  <si>
+    <t>You're very different. Taurus want stability and security, while Sagittarius wants nothing more than freedom and independence. Taurus is concerned with making home a comfortable haven, while Sagittarius considers the wide, weird world to be home. 
+These two easily get along with each other because neither of your is too serious about life. You just get along with each other easily.You do make an interesting combo, however, and could learn a lot from each other -- but what's learning got to do with love? Maybe friendship is best for you.
+There would be no formal relationship here and you are just happy with the sloppy work that the other does. Each one will not need to pretend to the other and You just hang out together in life.
+Only the financial area would be your bone of contention. If compromise is made here then the relationship would be bliss.</t>
+  </si>
+  <si>
+    <t>You two have such a great, fun-loving connection! You both have sunny, optimistic natures; neither of you likes to waste time wallowing in boredom or depression. Gemini, your trickster nature appeals to Sagittarius's sense of fun and adventure. Your relationship is characterized by activity, adventure, getting out into the world and trying new experiences. With you two on the same team, anything and everything goes.
+The Gemini man and the Sagittarius woman initially seem compatible with your outgoing and freedom-loving personalities. But with time she feels insecure by his intellect.
+Both the Gemini man and the Sagittarius woman have bad temperaments that make your lock horns now and then. Being opposite signs there is a sense of attraction between this duo. your out-going nature makes sure that both of your are rarely together jus breaking all chances of head-ons.
+The Sagittarius girl is one of the moral values while a Gemini guy is a trickster waiting to lure others for a ride. This would bring in occasional incompatible issues in the relationship. But then You make a happy home for children, elders, and relatives in the family.</t>
+  </si>
+  <si>
+    <t>You make a great match. The sign of the Crab's reputation for being crabby is deserved, but so is that love of home and family. You two share the same values and you communicate on a deep level. You understand one another's moods and can give each other the space you sometimes need, but you also both want intimacy above all else. You're tough on the outside and soft on the inside, and only another Crab knows just how to get through that hard shell.
+The relationship between a Cancer man and a Cancer woman would be a very reliable and loving one. However, when things are not that good there would be a sullen atmosphere here with this duo. There would be a mountain of emotions involved. 
+One of your has to give way when the other one turns too moody with life. Too much of clinging and emotions would also ruin the relationship. The Cancer woman is more adept at handling household chores with ease. She would bring about a tenderness to the marriage.
+The Cancer man, on the other hand, is more protective of his partner, your children, your parents and other mutual resources. Children, elders, and family would be best ones to get the most out of this relationship.</t>
+  </si>
+  <si>
+    <t>You two make a great combination, particularly long-term. In your case, opposites attract but also work in harmony. On the surface, Cancer is oriented toward home and hearth while Capricorn is career-oriented, but you share some rather traditional values and you're both highly security conscious (Cancer, you want emotional security; Capricorn, you want financial and material). You both want to comfort you can count on, and you'll create that together.
+The Cancer man and a Capricorn woman exhibit great compatibility in life but usually, it is found to be short-lived. You would find it difficult to handle the hiccups You encounter in life occasionally.
+The initial attraction shown slowly loses its steam. But then better understanding, commitment, and tolerance would help a lot to the relationship remaining intact.
+There would be role-reversals found in this combination, with the Cancer guy nurturing the home while the Cap woman might go out for earning. But then mutual respect would take your far in life together.</t>
+  </si>
+  <si>
+    <t>Without a doubt, you two will fight for who's in charge. You both just have such a need to be in the spotlight, surrounded by your adoring fans! In order to work it out, you'll either have to take turns or agree to rule separate domains, because there can't be two leaders of the pack. Expect plenty of drama together, but plenty of the good things in life as well. You both love socializing and want to live the high life, and you both place family as a high priority.
+A Leo man and a Leo woman are not much compatible in life. The reason being both like to hog the limelight.
+Each one tries to dominate the other and hence there would be a clash of egos. 
+Each needs more attention than the other and You cannot stand being over-run by the other in life.
+If one of your tries to climb down, then there would be better else this relationship is in for serious trouble.</t>
+  </si>
+  <si>
+    <t>You have a great connection, one that is enhanced by lots of social activity and only the finest things in life. Libra, you love Leo's big-spending ways; you adore romance, and Leo really makes you feel like royalty. Just make sure you return the favor, if you want to keep your Lion feeling loved. Leo can be a bit brash at times for Libra's refined tastes, but the Lion's pride will be dented if this fact is mentioned. Good thing Libra is so tactful!
+This combination of a Leo man and a Libra woman makes a compatible relationship. Both are extroverts, love adventure and limelight that You get along well together.
+Both are known to relish artistic pursuits with ease. There would be much love and romance with this pair and the chemistry between your is difficult to fathom. 
+But then the Leo guy wants to dominate the scene which would not go well with the Libra girl. The Leo man would be impulsive while the Libra woman would be highly indecisive.
+Hence there would be some moments of incompatibility with this duo at times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You make a great team -- you're both optimistic and impulsive and will egg each other on to new heights! Together you're on the go, always on to the next big adventure. You're both curious, especially Sagittarius -- Leo, expect to learn a thing or two. Problems could arise from your twin fiery temperaments. Sagittarius tells the truth, which sometimes prideful Leo doesn't want to hear but overall you're a great match!
+The Leo man and the Sagittarius woman share a compatible life together. As both of your are adventurous and appreciate the good things in life, there would be compatibility with this pair.
+Socializing comes naturally and hence there would not be any boredom in this combo.
+There would be good understanding and mutual trust takes your for long. Being fire signs You are very enthusiastic and share a common futuristic vision.
+You have good thoughts about each other and an openness hardly seen in any other combination of the zodiac.
+</t>
+  </si>
+  <si>
+    <t>Pisces, you adore the Lion for its strength and courage, and you'll find the protection and direction you need with this sign. You both possess big dreams, but Leo is more inclined to go after your. And you're both incredibly sensitive! Leo, you won't want to hear this, but you don't like having your feelings hurt. At least Pisces is intuitive about such things and can take care of your wounded ego during tougher moments.
+A Leo man and a Pisces woman have better compatibility living together. The Leo male would be the boss while the Pisces girl knows how to handle and harness him.
+He is an extrovert and she an introvert and this might lead to occasional hindrances on the relationship. But the pair would be loaded with lots of love and romance.
+Though practical affairs in the relationship might get a beating your romance keeps your together for long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're both earth signs, which means you have practical, sensual natures in common. Virgo's sensuality is more reserved than Taurus's, but Taurus can help draw out that side of Virgo. Whether friends or in love, you're an compatible combination because you truly understand each other. You'll fall into an easy routine, which could get dull for some, but not for you -- you both thrive within the comfort of habit!
+The Taurus woman and the Virgo man like a secured life and this brings your together. The Taurus woman would bring out the passionate nature of the Virgo man.
+She would also appreciate the organizing nature of the Virgo man. The going would be easy as both are earthy signs. Focus would always be on routine and possessions in life.
+However, there would be some cross-fire between the casual Taurus woman and the clean-freak Virgo guy. 
+</t>
+  </si>
+  <si>
+    <t>At first, you two don't seem like the best match, but Leo, you love to be in the spotlight, and Virgo, you're most comfortable in a supportive role. This might work out well if you can settle your differences. In fact, together you make a good system of checks and balances: Leo tends toward extravagance, while Virgo, you make a great accountant and can help temper Leo's splashier urges. Once you've established your roles, it should work out well.
+The Leo woman and the Virgo man would not be much compatible in life. The Leo woman expresses much love and affection to her partner but he would not reciprocate the same.
+The Virgo guy wants his partner to be submissive which would not go well with the Leo lady. She wants to be the boss of the house. There would be rifts owing to finances as well.
+The Virgo man would be consistent while the Leo girl likes to take risks with life and is very impulsive. But both being duty-conscious, the relationship would endeavor. Work ethics bind your together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though you're quite similar, you may not always understand one another. You both strive to create the perfect relationship, which simply doesn't exist. But in your efforts, you'll spend a lot of time nitpicking one another and may overlook the great thing you've found. One benefit to your relationship is that you both know you can count on each other for the qualities that matter to you most: Your practical, analytical, thrifty natures.
+When two Virgos are involved in a relationship it would be a combination of two perfectionists that compatibility shall exist when the duo are in search for anything perfect in life.
+Both value the same things and hence shared interests take your together for long.
+You also would like to have your own solo times that when given would bring in bliss and harmony in the relationship. 
+Both of your like to run the show and so together You can accomplish myriad projects as two intellects are involved here. 
+</t>
+  </si>
+  <si>
+    <t>At first, Virgo, Libra might sweep you off your feet -- you admire that smooth, refined, romantic exterior. In fact you're both rather refined types who always know the right thing to say and do in any social situation, but in reality, you're driven by very different aims. Libra's extravagant, demonstrative nature could start to annoy or even offend you, Virgo; and you, Libra, may begin to wish that reserved Virgo could learn, as you have, to appreciate the finer things in life and stop penny pinching.
+A Virgo man and a Libra woman do not have much compatibility in your relationship. This is because You have different viewpoints about life.
+The Virgo guy is a pessimist and an introvert while she would be an optimist and loves the world by her heart. If the Libra girl can win him over then there would be best. Else there would be trouble around the corner.
+Though the duo is not much interested in raising a family You are good when left to fend for yourselves. Both have a liking for the good and beautiful things in life. 
+While the Libra girl caters to the socializing part he would work on the finer details of anything You venture into together in life.</t>
+  </si>
+  <si>
+    <t>As long as you two are getting along well, you make a great team. You balance one another, with Scorpio's intensity and Virgo's level-headedness. Virgo, you can help Scorpio tend to the details in life, and Scorpio, you can help Virgo grow bolder and less reserved. But these differences in nature can also be a source of conflict that may not be resolved easily. Virgo can be quite critical when things aren't going well, which in turn makes Scorpio resentful and prone to lashing out.
+A Virgo man and a Scorpio woman are much compatible in a relationship. It would be a beautiful relationship since the pair share many common traits.
+Both of your are attracted to intellectual ideas. The Scorpio woman would provide the romance and passion for the relationship and he would give the final perfection touches.
+There would be much commitment, understanding, and loyalty to this duo. But once the honeymoon is over, things start worsening unless either one of your yields. 
+The Scorpio woman is more into sex and secrets while he would be more bent on integrity in life. The pair is found to be dating comfortably but when it comes to a committed relationship or marriage then You fall off the range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it's good between you, it's great ... but when it's bad, it's awful. You're opposites, in the Zodiac as well as in life. You're both flexible, accommodating and nurturing, and you're willing to look after each other. You balance one another well -- Virgo, you can help Pisces take care of the mundane side of life, and Pisces, you can show Virgo the importance of romance and emotion -- but also tend to try each other's patience.
+A Virgo man and a Pisces woman do not seem to have better compatibility when You are involved in a relationship.
+This is because she would be too emotional and sensitive which cannot be fathomed easily by the Virgo guy. He is more practical and an introvert to sway to her whims and fantasies. 
+This would be a very challenging relationship. The orderly Virgo cannot get in line with the chaotic Pisces female. You are just poles apart.
+There would be constant friction here and it does not matter if one of your ultimately ends up mentally devoid. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're both associated with Venus, planet of love, beauty and harmony, and you'll feel drawn to each other because of that connection. You both appreciate the finer things in life -- you love to indulge yourselves and each other and tend to be quite extravagant in your affections. Elegance and beauty mean a great deal to you and will define your bond. But be careful -- you could border on laziness and excess together.
+There would be much passion in this relationship between that of a Taurus woman and a Libra man. But with time differences likely to creep in marring goodness in the relations.
+The Taurus woman might feel insecure as the Libra man is not too committed to the relationship. Only patience would help her to win him over. But then the love involved would be too overwhelming. With both the signs ruled by Venus, the relationship can survive if both compromise a little. 
+The Taurus woman yearns for physical contacts while the Libra man loves pleasure on a different level. Earthy possessions bind your together. 
+</t>
+  </si>
+  <si>
+    <t>At first, Virgo, Libra might sweep you off your feet -- you admire that smooth, refined, romantic exterior. In fact you're both rather refined types who always know the right thing to say and do in any social situation, but in reality, you're driven by very different aims. Libra's extravagant, demonstrative nature could start to annoy or even offend you, Virgo; and you, Libra, may begin to wish that reserved Virgo could learn, as you have, to appreciate the finer things in life and stop penny pinching.
+A Virgo woman and a Libra man share a compatible relationship but there is no guarantee that the relationship would last long enough.
+The Virgo girl is very practical and has a negative overlook of anything in life. He, on the other hand, is very emotional and indecisive that would just knock the Virgo girl off.
+If both decide to compromise and accept each other's negatives and positives in a lighter vein then there would be bliss with this combination. your collective humbleness and plainness take your together for life though disparity might arise now and then.</t>
+  </si>
+  <si>
+    <t>You two will make beautiful music together, which sounds like a good thing. And it can be -- your connection is all about beauty and luxury, good taste, elegance and your twin artistic sensibilities. You're also both highly romantic and tend to idealize one another and the relationship, and therein lies the problem. If you probe beneath the surface, you may find there's less connecting you than you thought. You may have trouble staying grounded together.
+There would be not much compatibility when a Libra woman and a Libra man are involved in a relationship. Each one needs his or her own space. If You understand this attitude of your then there would be goodness in the relationship. As both are cardinal signs there would be a clash of egos and a question of who leads whom. But then if You decide to pool in your mutual resources then this would be a winning combo. Together You can climb mountains if your brains and brawns are shared.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two are pretty different. You do both have expensive tastes, but Libra, you tend to be more artistically minded than Capricorn; Capricorn, you just like expensive things to show you can afford your! Libra will appreciate your ambition, however, because it pays the bills, but this sign's tendency toward extravagance (read: big spender) could make you very uncomfortable. But when finances aren't an issue between you, this could be a mutually beneficial bond. 
+This is a combination where the compatibility depends on how well the duo contributes to a common cause. The relationship calls for lots of compromises and adjustments for survival. The Libra man's stability and the Capricorn girl's enthusiasm takes the relationship for long. 
+Both have a liking for the finer things in life. You yearn for status in society and success in life. If You stay together the combined fire would work wonders in your life. It would be more or less a business-like contractual agreement that keeps this pair going. </t>
+  </si>
+  <si>
+    <t>You two do have a lot in common, especially your strong intellectual connection. But beyond that great exchange of ideas, you're rather different. Aquarius, you tend toward aloofness and detachment, while Libra, you want to latch on and hold. You're all about companionship, so when Aquarius runs off on a new project or pursuit, you'll want to follow along. Your combined social circles will be huge, and will provide lots of fun for you both.
+A Libra man and an Aquarius girl have a very compatible relationship in life. There would be much friendship and love involved here with this duo. The Libra guy would woo his partner by making her feel special by his intellectual prowess. She, on the other hand, would impress him by her good looks and clever disposition.
+A warm relationship would be seen between your. This would be an intellectual combination. Much understanding would be seen between your while outsiders would find it difficult to fathom your expressions and feelings. There would be no power struggle seen with a naive approach taken from both the sides.</t>
+  </si>
+  <si>
+    <t>Your relationship will probably endure, because you do have several overarching qualities in common -- you're both highly romantic and idealistic; you're both caring, agreeable, helpful people who will take good care of each other in a relationship ... The problem here is, you may stay together in the name of love, even if the relationship isn't really what either of you wants. Libra, you like an intellectual equal and you may find Pisces too ethereal or undirected.
+There would not be much compatibility when a Libra man and a Pisces woman are involved in a relationship. Initially, everything would be fine but with time there would be strains visible here and there in this combination. Both are very passionate and romantic and this might bind your together for good.
+However, your differences overtake this. However, if the duo is ready to make some amends then there would be bliss with this combination in a marriage or relationship. The Pisces female would be totally lost in a dreamy world that the Libra guy has to manage the household works. At least one among this duo should be grounded for the relationship to be strong. Both love a peaceful and happy atmosphere and make sure that the world around your is rosy too.</t>
+  </si>
+  <si>
+    <t>There would not be much display of romance and passion with this pair but then You take care much about the partner's emotional needs. Both of your make sure that You satisfy your partner both mentally and physically. The Cancer guy with his emotional nature keeps the Sag girl under his wraps all the time with her passion brought to the fore.</t>
+  </si>
+  <si>
+    <t>Leo denotes romance and hence there would be no dearth for this here with this relationship between two Leos. The world if not your bedroom would be a stage for your to showcase your romance. Passion is also found here with this duo but then the Leos love by your heads and not by your hearts. Spontaneous show of romance and love would not be found here.</t>
+  </si>
+  <si>
+    <t>There would be lots of romance and passion involved here with this duo as both are adept in displaying the same. This is a classy combination with no lack of passion and sensuous moves. You are more comfortable with virtual romance than physical ones as it makes both of your too nervous as You are not much used to external display of passion.</t>
+  </si>
+  <si>
+    <t>There would be not much romance involved in this relationship but it would be of the right amount to keep the relationship on the right track. Scorpio men are not known for romance or its exhibition. But there would be intimacy, bonding and excitement with this duo. Though too much passion and outward expression cannot be seen, this is one of the combination for the right sense of romance needed for courtship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the relationship is bound to end then it would be bloodshed all the way. Both take separation as a sort of betrayal of mutual trust and commitment in life. The Taurus female makes all efforts to garner all the material resources herself while the Scorpio guy is bent on ripping off of the self-esteem and prestige of his girl. There would be no place for rapprochement and it would be a permanent ultimatum for the duo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a great level of romance between a Gemini woman and a Scorpio man. The Gemini girls' flirts ad Scorpio's passionate desires increase the tempo. But then Gemini is not much passionate in a relationship. The Scorpio would find it a bit difficult to express his deepest desires and passion to the Gemini girl who cannot reciprocate the same at an apt time and place.</t>
+  </si>
+  <si>
+    <t>Though much compatibility is not to be expected with this combination, the duo sticks to each other under turbulent times as well. Though there would be frequent misunderstandings, lack of commitment and confrontations of sorts the relationship endures. The mental makeup of both would be at stake here. This is an erotic relationship, simply put..</t>
+  </si>
+  <si>
+    <t>There would be the better level of compatibility in sex with this duo. The Gemini female is restless and clever while Scorpio has the deepest desires and passion. Hence there would be myriad ways to explore for both while having sex. Both would have an interesting phase with sex and everything comes impromptu for both these guys.</t>
+  </si>
+  <si>
+    <t>When it is the end of the road between a Gemini girl and a Scorpio guy, the Gemini girl just shrugs her shoulder and moves off to another relationship in a jiffy. It would just be the Scorpio guy who has to weep over the spilt milk. But then if the Gemini woman mends her ways and comes back with a commitment then this relationship would stay positive for long.</t>
+  </si>
+  <si>
+    <t>The compatibility of romance with this pair would be one the best among the zodiacs. There would be great bonding as the Cancer female shows much feminine tendency and the Scorpio guy the masculine side. Passions rise and fall like the tides but then intimacy is kept for long.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and a Scorpio man do not make great friends in life. The reason being, the Scorpio guy would be too possessive of her and this inequality works against any sort of comradeship. Though both are known to share feelings and emotions, it would not be on a friendly level and instead on a different scale altogether, mostly on a sensuous note.</t>
+  </si>
+  <si>
+    <t>The relationship between a Cancer woman and a Scorpio man would last long enough. But then if things turn sour then the end would be highly painful for the duo. There would be much anguish, worries, and anxieties on both the sides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmm. I sense a lot of potential for friction here. What you do have in common is your stubbornness and your twin desires for control. Unless there are other planetary influences at work in your chart, a casual connection may work better than anything long-term, as problems could begin when your possessive, willful natures come to the fore. And Leo, I hate to tell you this, but Scorpio will always have the last word.
+There would not be much compatibility between a Leo woman and a Scorpio man. The Scorpio guy is short on patience which does not go well with the Leo girl.
+She in turn would be full of passion and desires which is beyond the Scorpio guys' area. Tempers run wild and each tries to boss around the other.
+If both take turns to be the boss and tempers are controlled then the relationship would work out well. This is an intense combination where each one tries to conquer the other but in vain. Sex is something that would be intense when compared to any other zodiac combination.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The compatibility for romance would be great between a Leo woman and a Scorpio man. There would be no dearth for romance and passion here. Leo is known for eroticism and romance while the Scorpio guy for emotions. Hence the chase would be great so also the thrills attached with this combo when in romance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Leo woman and the Scorpio man do not have any mutual traits for friendship to thrive. Usually, the relationship ends in betrayal of sorts. Hence it is best advised for this pair to stay away from any sort of comradeship. The Leo woman exhibits royal traits and expects the same from the Scorpio guy who is more than crude in nature. Both get offended easily and hence friendship is ruled out for this combo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generally, this combination does not end up in splitsville, but then if at all it had to end that way, then it would have a business-like ending. There would be a conducive stage where both make sure that there is no point in dragging on with a useless relationship. Mutual respect and warmth would be found even in the final farewell.</t>
+  </si>
+  <si>
+    <t>The Libra woman would be full of a romantic appeal. She expects her partner to follow suit but the Scorpio guy is not one to budge here in this area. But then the Scorpio man would be loaded with much passion which would be smothered down by the Libra girl for the worst. She keeps the Scorpio fellow's emotions under constant check.</t>
+  </si>
+  <si>
+    <t>The Libra woman and her Scorpio partner share a compatible married life though occasional rifts and troubles cannot be ruled out. But the marriage would stay strong against the tides of life. The relationship progresses slowly but steadily with time. Major and minor separations are usually found in the marriage.</t>
+  </si>
+  <si>
+    <t>Sex would be a compatible affair when a Libra female and a Scorpio male are involved. The Scorpio guy is sexually very active and the Libra girl just concedes to him. She would be most desired by him and she, in turn, would turn this in favor of her by trying to harness him under her total control.</t>
+  </si>
+  <si>
+    <t>This relationship lasts long till the end of times. Even if fate or time has a will to change or break the cord, this bond lasts strong enough to stem the tide of aggression against this combination.</t>
+  </si>
+  <si>
+    <t>The relationship between a Scorpio man and a Sagittarius woman is unlikely to end as there would be mutual forgiveness and loyalty and honesty involved in the relationship. But then if it had to end then the Scorpio guy should be taking the initiative. The Sagittarius woman, on the other hand, would be love-struck and would quit the scene in search of greener pastures.</t>
+  </si>
+  <si>
+    <t>This is one combination where if the end is in sight then it would be a very bad situation for both. There would be many attacks and counter -attacks and no rapprochement in sight. If the individual has to survive then he or she should be willing to forego any mutual resources on the cards. There would be no turning back for both.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility involved in romance with this duo. Pisces brings out the romance from the inside of the Scorpio guy. There would be a mutual exchange of emotions and feelings which no outsider can understand. Scorpio brings his passion to the fore here. The Pisces girl would give him the much needed confidence in life and he can confide in her everything that life gives to him. Romance and passion are just top of the chart here.</t>
+  </si>
+  <si>
+    <t>This is a very compatible relationship that should never end at any cost. But then if fate would have it that way then the Scorpio man would be much protective of the Pisces girl. He makes sure that she would be secure in life in future. This is one relationship that would have a number of splits and rapprochements.</t>
+  </si>
+  <si>
+    <t>Though an Aries woman and a Sagittarius man are compatible, not much romance would be seen here. That's because the Sagittarian is not for much emotions and feelings. He is more bent on the practical side of life. But he makes sure that his Aries female counterpart gets her dose of passion and sensual encumbrance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For this duo, sex is a sport which both enjoys having together. There would be much foreplay, fun, and passion involved here. This combination is said to have the long lasting sexual encounter when compared to the other groups in the zodiac.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You're very different. Taurus, you want stability and security, while Sagittarius wants nothing more than freedom and independence. Taurus is concerned with making home a comfortable haven, while Sagittarius considers the wide, weird world to be home. You do make an interesting combo, however, and could learn a lot from each other -- but what's learning got to do with love? Maybe friendship is best for you.
+The Sagittarius guy is an adventurous fellow always wanting to get freedom and independence. But the Taurus woman is just the opposite, reserved in nature.
+Somehow these two opposite signs get attracted initially. His flirts bring him near to the security-conscious Taurus female.
+But then the long term prospects of this combination is a big question mark. The initial attraction gives way to frustration in the middle and there would be no common interests to keep the relationship grounded. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This pair do not make great friends in life. Sagittarius is one who is very open and makes friends with almost everyone he comes across. His charm attracts people to him by the flock. This would affect the sentiments of the Taurus woman who is reserved and is one who is not much willing to be friends with anyone.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility when it comes to having sex with this duo. This is because the Sagittarius guy is not much interested in sex and sensual pleasures while the Taurus female craves for it. But then she would not be satisfied by him. She would get tired of luring or seducing him to bed.</t>
+  </si>
+  <si>
+    <t>When it is the end of the relationship, the Sagittarius guy would be least bothered about it. He would be insensitive to the issue. The Taurus woman on the other hand would be equally unaffected because she had not been in a committed relationship to feel the relationship slipping hands.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility on a romantic level with this duo. The Sagittarius man is not one to romance around. But then the Gemini girl just yearns for it. She has to try all tricks and means to bring out the passionate nature of the Sag guy to the fore.</t>
+  </si>
+  <si>
+    <t>The Gemini female and the Sagittarius male are not known to make great friends. Sagittarius wants freedom and independence and also Gemini hates intruding of sorts. Hence both like to have the going solo. Though Gemini likes to be friends with the Sag guy by her conversational skills, the Sagittarius guy is not one to yield to her whims and fancies.</t>
+  </si>
+  <si>
+    <t>There would be no romance with this pair and hence compatibility in this area is ruled out. The Leo lady known for romance might get a setback here in this area. Passion would not be for one another, rather it would be towards travel and the like.</t>
+  </si>
+  <si>
+    <t>In general, this relationship lasts long but then if it should end then it would have been the Sagittarius guy who has strayed out of the relationship. He would have found a still more honest and open partner than the Virgo girl. The separation would be very cordial and the atmosphere sober.</t>
+  </si>
+  <si>
+    <t>This duo has a compatible romantic affair. Though the Sagittarius guy is not so romantic, the Libra girl would make all attempts to bring his romantic side to the fore. She also makes sure that his passionate nature is also taken out. The Libra girl just yearns for romance and makes sure that she gets her days' effort.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility for romance with this pair initially. But with time, there would be signs of stress. Scorpio is adept in bringing out the passion of the Sagittarius guy. But the Sagittarius man is more bent on directing this passion on his ideas rather than on his partner. Hence the romance and passion do not last long here and loses steam as soon as it began.</t>
+  </si>
+  <si>
+    <t>the relationship between a Scorpio female and a Sagittarius male is a good one and is unlikely to end. but then if it had to then it would be a great disaster waiting to happen. The Scorpio woman would be in full control over the split and the Sagittarius man would not be kind enough during the split. it is better than the duo mend fences and come to the tables for rapprochement talks..</t>
+  </si>
+  <si>
+    <t>The compatibility for romance would be missing between a Sagittarius man and a Capricorn woman in a relationship. The reason being both have other important things to do in life. Though Capricorn might like to bring in some romance into the relationship, The Sagittarius guy just woos it away.</t>
+  </si>
+  <si>
+    <t>Much romance is found here with this duo that compatibility in this area is just out of question. Both do not count on romance and passion. Though the Aquarius girl would have a sprinkling of passion the Sagittarius guy would turn that towards humanitarian works.</t>
+  </si>
+  <si>
+    <t>The Pisces woman would be full of romance and tries to woo her Sagittarius partner. But he is not one to yield here, instead, he has a passion and love for humanity at large. This drives the Pisces girl crazy. Hence compatibility in romance and passion would be lacking with this combination.</t>
+  </si>
+  <si>
+    <t>The Sagittarius man and a Pisces woman in a relationship wind off the relationship easily. Only if there are mutual resources and children to be taken care off, then the separation turns bitter. All sorts of compromises from both the sides just aggravates the situation at hand. It would be a decelerating act for both then.</t>
+  </si>
+  <si>
+    <t>Though an Aries woman and a Sagittarius man are compatible, not much romance would be seen here. That's because the Sagittarian is not for much emotions and feelings. He is more bent on the practical side of life. But he makes sure that his Aries female counterpart gets her dose of passion and sensual encumbrance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For this duo, sex is a sport which both enjoys having together. There would be much foreplay, fun, and passion involved here. This combination is said to have the long lasting sexual encounter when compared to the other groups in the zodiac.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You make a really great combination -- in fact, you could be a power duo if you put your minds to it, which, knowing Capricorn, is already in the works. Being Earth signs, you share industrious, conservative natures. Your relationship gets better with age, but may focus on the material side of life (a gorgeous home, plenty of money, expensive cars ...). Make room for emotional growth as well as financial, and you've got it made.
+The Sagittarius guy is an adventurous fellow always wanting to get freedom and independence. But the Taurus woman is just the opposite, reserved in nature.
+Somehow these two opposite signs get attracted initially. His flirts bring him near to the security-conscious Taurus female.
+But then the long-term prospects of this combination is a big question mark. The initial attraction gives way to frustration in the middle and there would be no common interests to keep the relationship grounded. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This pair does not make great friends in life. Sagittarius is one who is very open and makes friends with almost everyone he comes across. His charm attracts people to him by the flock. This would affect the sentiments of the Taurus woman who is reserved and is one who is not much willing to be friends with anyone.</t>
+  </si>
+  <si>
+    <t>When it is the end of the relationship, the Sagittarius guy would be least bothered about it. He would be insensitive to the issue. The Taurus woman, on the other hand, would be equally unaffected because she had not been in a committed relationship to feel the relationship slipping hands.</t>
+  </si>
+  <si>
+    <t>In general, this relationship lasts long but then if it should end then it would have been the Sagittarius guy who has stayed out of the relationship. He would have found a still more honest and open partner than the Virgo girl. The separation would be very cordial and the atmosphere sober.</t>
+  </si>
+  <si>
+    <t>An Aries woman and an Aquarius man make good friends for life. Aquarians are loyal and committed. If the Aries female gives him the needed freedom and personal space then this would be a winning combo. The Aries gives the Aquarius the much-needed confidence in life and the Aquarius likes the strength that she gives to fortify her.</t>
+  </si>
+  <si>
+    <t>Sex would be just an average sport and fun for this duo. The Aries takes this act passionately. The Aquarius though has his mind elsewhere makes sure that he turns on the Aries girl.</t>
+  </si>
+  <si>
+    <t>The Aries woman would sense the end of the game only long after the relationship has turned sour. The Aquarius man just switches on and off his contacts as and when he thinks like. The impatient nature of the Aries woman makes conditions worse.</t>
+  </si>
+  <si>
+    <t>The Aquarius man and the Taurus woman make one of the best friendships among the zodiacs. The Aquarius man is more humane in nature, while the Taurus girl has to bend a little for him as she is not one to make friends that easily, being an introvert. Though not much friendly ultimately she would yield to his friendship, love, and loyalty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The duo is not compatible enough with the act of sex too. Taurus is too sensual and physically-aroused while the Aquarius is aroused by fantasies and virtual moves. Hence there would not be mutual interest here for both. Though the Aquarian would be satisfied by sex now and then, the physically-craving Taurus is usually depleted of all his energies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When it is the end of the road for these two then there would be many fireworks. Both being stubborn signs, the end would be a great climax. The Taurus woman is quick to show her temper and likes to dominate the Aquarian. He, on the other hand, is not one to yield and quickly quits the scene. The bystanders would be the worst affected by this end game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Gemini woman and the Aquarius man make good pals for life. Though the Aquarius guy does not have many friends, the Gemini girl would serve as an excellent companion and soul friend. She would be able to bring more meaning to his life.</t>
+  </si>
+  <si>
+    <t>When the end is imminent in the relationship, the Aquarius guy would be caught unawares while the Gemini girl would have already packed her bag. There would be no hard feelings when the separation comes. The extrovert Gemini takes the end easily while it would be the Aquarius man who might suffer a lot for want of company.</t>
+  </si>
+  <si>
+    <t>The relationship between a Cancer woman and an Aquarius man would be worthwhile that would not suffer an end. But then if luck would have it then the end would happen. It is the Cancer woman who suffers a lot waiting for the Aquarius guy to return back to her.</t>
+  </si>
+  <si>
+    <t>There would be much romance and passion involved in this relationship. The erotic Leo girl has much romance and passion under her sleeves that there would be no dearth of the same. But then occasional rifts would also be visible with this combination.</t>
+  </si>
+  <si>
+    <t>The Leo woman and the Aquarius man make better friends in life. The Aquarius guy is comfortable with the friendship because he is not much interested in too much of romance and too much commitment to a partner. The Leo girl, on the other hand, is not much into friendship deals. She wants romance and a dominant role to play. Hence it would be a tricky pair to get on the friendship bandwagon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The end of the relationship would be very terrible. Finances would be one of the bone of contention for this duo. When the Aquarius guy discovers that the end is near just bids goodbye and is out for fresh air of freedom. The Leo girl worries over the waste of time and resources on him. She would be a major loser in this game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Virgo female and the Aquarius male share a compatible romantic affair full of passion and zeal. The Virgo girl has the knacks to bring out the romantic side of the Aquarius guy to the fore. Also, she would be more than willing to get his passions out. With time the relationship gets loaded with romance and passion. Though the Aquarius guy is not one to behold in this area, the Virgo female makes sure that the relationship is not devoid of romance. Once the Aquarius man is kindled then there is no turning back of the fire.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a compatible romantic affair between the Libra female and her Aquarius partner. He would do just anything for her to win her romance and passion in life. But then the Libra girl has to woo and push him to get things done on this level because the Aquarius guy is not an emotional one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the relationship seems to be at the end of the road, it is usually the Aquarius male who would call it quits. Being a fixed sign he is likely to stay but if he is sure that the Libra girl is not for his asking then he just gets out of the door never to return back. Any kind of pacification by the Libra girl would not work here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be much compatibility for romance with this combination. The Scorpio woman would just attract the Aquarius guy with her erotic skills. She would bring out the romance and passion inside him. He would be taken to places where he had not dared to venture till date. Romance would be a new feeling for the Aquarius guy who is a novice in this area.</t>
+  </si>
+  <si>
+    <t>Romance is not found here with this duo that compatibility in this area is out of the question. Though the Aquarius man might have some passion, the Sagittarius girl smothers it down. She drives him towards adventure and social causes rather than romance and emotions. Romance just can't be found here with this duo.</t>
+  </si>
+  <si>
+    <t>Sex would be a more earthly affair here with this pair than with any other pair in the zodiac combinations. The Aquarius guy feels more at home while having sex with a Capricorn woman than anybody else. He is known to supply a regular dose of sex to soothe her sensual needs. There would not be any new-ness here.</t>
+  </si>
+  <si>
+    <t>When the Aquarius guy in this relationship has had enough of it he just distances himself off from the Capricorn woman without losing his temper. But once he had made up his mind to call it quits, then there would be no going back. The Capricorn girl would be totally caught unaware of this act as the Aquarius man would have yielded to her every beck and call earlier.</t>
+  </si>
+  <si>
+    <t>An Aquarius man and a Pisces woman would have a compatible married life together. The marriage really works out well for the pair though it seems to be an impossible mission for outsiders. One cannot predict the future course of the marriage but then things would remain better for the time being.</t>
+  </si>
+  <si>
+    <t>When things do not work well between an Aquarius man and a Pisces woman involved in a relationship then the end would be a never-ending affair. Though the Aquarius guy would be more than willing to let go of the relationship, the Pisces girl just keeps clinging to him like a sucker. The end never really happens and it would be a long-lasting relationship that would end only if God tries to intervene.!!</t>
+  </si>
+  <si>
+    <t>Fire and water, active and passive natures ...? Well, you're an okay match overall. You understand one another on a deeper level, which is what will bring you together and bind you. Pisces, especially, can tune in to Aries's deeper nature. But there will be times when you look at one another and think, What the ...? You're both idealistic but not always realistic.
+An Aries woman and a Pisces man are romantic enough for a compatible relationship. 
+However, there would be occasional practical difficulties due to adjustment issues. Aries female is highly aggressive which bothers the Pisces man.
+on the other hand, the Pisces man is too mystical for the Aries woman to fathom. However, the romantic side of this duo keeps it going...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Though the degree of compatibility would be high for this duo it would be on different planes or levels for the other one to experience and get entwined in it. Hence it would look as if there is no passion involved. The Pisces man throws water over the fiery Aries' woman's passion.</t>
+  </si>
+  <si>
+    <t>This combination is not compatible with marriage and its aftermath. For both, it would be a hypothetical state of affairs. The Pisces, of course, likes to settle down, but the Aries does not like any sort of binding. She loves to live an independent life and hence marriage would be out of the question with this pair.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both being passionate signs, Sex can be off the chart between these two. There would be no lacking here.</t>
+  </si>
+  <si>
+    <t>The end is never in sight as the party had never started. Aries would think that betterment is just around the corner. She thinks that she can turn it in the positive direction but in vain. Also, the Pisces never ends anything practical and hence the relationship continues if not on a sour note.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Pisces man is very sensuous and knows how to satisfy his partner who is very sensuous too. The act of sex would be an intermediate stage neither too physical or mental for the Pisces guy. But then both know how to handle this cautiously. The Pisces male is known to venture into new territory like trying out new poses, new places and the like for this act of sex. Even if the Taurus female is not able to reciprocate he is not much worried.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one combination where the relationship is not going to end that easily. The Pisces is one who clings on to his partner despite differences. His emotional backlashes might hurt the Taurus female. it takes a while for the Pisces guy to forget the past and carry on. The Taurus woman would be more than happy to be relieved of her partner when things turn tough in the relationship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Gemini woman and the Pisces man make great friends. Both do not make attempts to dominate over the other. Gemini likes to entertain and the Pisces would be a great audience to go with. The duo is adept at a good and meaningful conversation that there would be scope for a great friendship to evolve here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the relationship turns sour it is usually the Gemini woman who has to call it off. She needs to take the initiative and get things settled. The Pisces man generally gets depressed and loses faith in life, he would not even fight for his legal rights.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility in the romance between this Leo girl and her Pisces guy. This is one combination where romance would be at its best. Leo likes to be paid attention while Pisces is ready to give the same. This relationship would be loaded with much kindness, warmth, and tender affection.</t>
+  </si>
+  <si>
+    <t>This would be a compatible combination for marriage if the duo gets to the practical side of life, particularly the Pisces guy. The Leo girl usually takes care of the practical matters but the Pisces man would be more than willing to oblige to her. The Pisces guy would be brought down to his knees by the love and affection showered by the Leo girl. This would be a pair that would stick to the traditional marriage relationship and conventional home practices.</t>
+  </si>
+  <si>
+    <t>There would be greater compatibility in sex between a Leo female and a Pisces male. Though Leo loves to dominate the scene, the Pisces guy would make a good audience for her. Fantasy comes naturally for this duo and hence love-making would be a thrill for both.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility for romance between a Virgo woman and an Aquarius man. Both are into fantasy and dreams and hence are very romantic together. But is true passion found here? it's a question yet to get a correct answer.</t>
+  </si>
+  <si>
+    <t>Compatibility in sex would be better between a Virgo female and a Pisces male. He makes all efforts to please and satisfy his girl. But then he would not be available at the time when the Virgo girl wants him the most. His straying or dreaming is likely to fool the Virgo girl away at times.</t>
+  </si>
+  <si>
+    <t>There would be much romance and passion involved in this combination. This would be a romantic pair who watch the sunset together holding hands. The Libra woman would be cool-headed while the Pisces man would be more passionate and makes her a little impulsive. The Libra woman loves to be fondled and taken care off by her partner in the romantic arena.</t>
+  </si>
+  <si>
+    <t>This would be a very good combination for a compatible married life but then the duo is not much used to the rearing of children. The Pisces guy should make sure that he turns up for his partner when she most importantly wants her. The emotional side of the Pisces fellow might mar the relationship sometimes. The Libra girl is not one to be much messy with relationships and emotions. She wants a clarity in her relations with the partner.</t>
+  </si>
+  <si>
+    <t>A Scorpio woman and a Pisces man share a superb level of compatibility for marriage. Both would be emotionally connected to each other. As loyalty and true feelings are found here this relationship survives for life. There would be peace and harmony in the marriage. The Scorpio brings in the intimacy and the Pisces guy bring his dreams and fantasies into the marriage.</t>
+  </si>
+  <si>
+    <t>The compatibility for romance would be lacking between a Sagittarius female and a Pisces male in a relationship. Though the Pisces guy is so romantic and sensuous he would be knocked down easily by the adventuresome Sagittarius girl. For her romance and passion are boring topics on her menu. The Sag girl has much passion for adventure and freedom but not on a romantic or sensual level with her partner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All in all, you two complement one another very nicely. Capricorn's practical, materialistic nature paired with Pisces's emotional, sensitive one makes a well-rounded team. But Capricorn, you may find yourself growing impatient at times with Pisces's wishy-washy dreaminess, and Pisces, you could be baffled by Capricorn's need for logic, efficiency and security; in fact, there will be plenty of times when you just don't get each other.
+It would be a very compatible relationship when a Capricorn woman and a Pisces man are involved. The Pisces man would simply arouse the Capricorn girl's hidden emotions. He would love her and keep her at all times. The Capricorn female, on the other hand, would be loyal to her mate. Much warmth, love, and loyalty would be found here with this combo. The pair would make a great marriage pair. Usually, the Pisces man would be disorganized, insecure and needs one to ground him. The Capricorn female would be more like a mother to him, taking care of his personal and emotional needs. She makes him feel secure in life. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be better romance between this pair with a high level of compatibility. But it would be more of a motherly affection shown by the Capricorn girl on the Pisces guy. A sensual romance would be lacking here. But each can count on the other for care and comfort and solace in life. However, passion is something that would be lost with this combination.</t>
+  </si>
+  <si>
+    <t>This combination makes an excellent marriage, particularly a very compatible one. Raising children, comforting one another especially in old age would be the forte of this combination. There would be hope, security, and confidentiality with one another. This is one combination that can withstand any sort of turmoil that comes in life anytime. This comprises a soulful connection on the inner sides.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Capricorn woman and a Pisces man enjoy greater compatibility in the act of sex. Though the Capricorn girl would be a little concerned and reluctant towards sex, the Pisces man makes sure that she is comfortable and satisfied with the same. He would bring her sensuous nature out to the fore. The Pisces guy would care and nurture her sexuality in a very special way.</t>
+  </si>
+  <si>
+    <t>This is one combination that is most unlikely to end. However, if luck would have it then it would be the Capricorn girl to take the hasty decision. She would make sure that the Pisces man would be able to handle the split comfortably. She would then weep over spoilt milk. Also, the Pisces man is not one to pack his bag and bid her goodbye but then he is likely to stray one or two times from the relationship just for the fun of flirting.</t>
+  </si>
+  <si>
+    <t>The Aquarius woman is not so romantic to talk about compatibility in this area. The Pisces guy, on the other hand, would be more than willing to sacrifice anything for her, even his romance and passion. The Aquarius female places much importance on friendship rather than romance. She also looks down on passion in a relationship as an utter waste of time.</t>
+  </si>
+  <si>
+    <t>When it is the end of the relationship, the Aquarius girl usually has to take the last leap. She has to decide to end the relationship as the Pisces people are known to procrastinate things and hang on to whatever is left.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What a romantic, dreamy, emotional connection you two share. It's likely to be incredible, even overwhelming, but you could have a hard time staying focused or directed when you're together. Since neither of you is very practical, it may be difficult to build a long-term connection. But you're devoted to each other, and you share an intuitive bond that goes deeper than anything merely physical or intellectual. You might even find start finishing one another's sentences.
+This is one combination that has one of the best compatibility among the zodiac pairs. A Pisces male with a Pisces female does not bring too much of Piscean character into the relationship.
+This is a very positive note for this combination as an overdose of anything would just spoil the relationship.
+And only a Pisces can understand another Pisces and no other sign can. This duo enjoys greater compatibility in life. This would be the merging of two dreamy, sensitive and artistic characters into a single mold. No other communion can beat this pair in life. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Aquarius male and the Pisces female share great compatibility when the romance between your is considered. This is one of the most romantic combinations of the zodiac. There would be a fulfillment of physical and mental desires of both. Though much passion is not to be to see here, each is passionate in his or her own sense or world. The duo remains in a euphoric world where romance and passion are the keywords and reality just eludes its inhabitants.
+</t>
+  </si>
+  <si>
+    <t>The Virgo female and her Aquarius male do not have anything in common with a compatible friendly relationship. The relationship between your is not strong and trustworthy and is too chaotic that comradeship cannot survive here. Love, devotion, and loyalty are also devoid of this pair that friendship is completely out of question.</t>
+  </si>
+  <si>
+    <t>There would be a greater level of compatibility when it comes to marriage between a Cancer female and a Scorpio male. Both of your would be loyal and dependable and stand on a common family-bound pedestal. The Scorpio guy leads the relationship and the Cancer girl would be more than willing to follow him. There would be much comfort and warmth in this relationship.</t>
+  </si>
+  <si>
+    <t>The compatibility for marriage would be found lacking between a Sagittarius man and a Pisces woman. Marriage is a great challenge for this duo. Lack of focus and commitment and understanding just make your drift apart. Sagittarius is a happy-go-jolly-fellow who is not much associated with anyone while the Pisces girl just sticks to the Sagittarius partner like a parasite which annoys the Sagittarius guy. With time, the marriage shows signs of wear and tear.</t>
+  </si>
+  <si>
+    <t>This combination is very much compatible with marriage, provided the Taurus woman is not much practical and the Pisces man is not much dreamy. Compromises between the two keep the relationship going despite odds at times. This marriage takes time to grow as both are more bent on laying a strong foundation. Both of your are not into straying and know the problems involved with it.</t>
+  </si>
+  <si>
+    <t>Sex would be a much compatible affair between a Sagittarius man and a Capricorn woman. Though Capricorn would have some inhibitions and is a novice here in this area, the Sagittarius guy takes it as a challenge and teaches her the nuances and tricks of the trade. Sex would be taken as a means of mutual love and affection that helps your to remain committed for long.</t>
+  </si>
+  <si>
+    <t>Sex would be a highly compatible affair between a Leo woman and an Aquarius man. It would be a highly satisfying and entertaining activity for both of your. Though the Leo girl sticks to conventional methods, the Aquarius guy has lots of tricks up his sleeves. The duo is great in experimenting with new ideas in this area.</t>
+  </si>
+  <si>
+    <t>Sex would be a compatible mission when an Aquarius guy and a Pisces girl are under question. It would be an extra dimension for this duo. Both would take time and energy to make sure that it is a satisfactory act for both. Sex would be more of an evolutionary topic for your with time.</t>
+  </si>
+  <si>
+    <t>When sex is concerned, a Pisces girl and a Pisces guy share much compatibility. Sex would be a sort of communication for your both. It is a communion of two minds rather than bodies here. It would be a metaphysical experience and a form of ecstasy for your.</t>
+  </si>
+  <si>
+    <t>This is one relationship that the duo involved do not like to end. But then when things go awry, the Pisces guy just leaves one day and moves with the tide. The Cancer woman, on the other hand, takes much time to come to her senses that she has been denied. She waits for her partner to return with memories of your together lingering in her heart.</t>
+  </si>
+  <si>
+    <t>As long as you two are getting along well, you make a great team. You balance one another, with Scorpio's intensity and Virgo's level-headedness. Virgo, you can help Scorpio tend to the details in life, and Scorpio, you can help Virgo grow bolder and less reserved. But these differences in nature can also be a source of conflict that may not be resolved easily. Virgo can be quite critical when things aren't going well, which in turn makes Scorpio resentful and prone to lashing out.
+A Virgo woman and a Scorpio man together constitute a compatible relationship. The Scorpio guy is generally very passionate while she would be practical.
+There would be a perfect balance of emotions and practically here with this combo. There would be loyalty and a sense of security when both are together. Though there would be a clash of viewpoints at times if one of your backs off then the issue would be resolved. 
+The duo is great for domestic life like building a home, raising children, caring for the elderly and the like. Both of your complete any job undertaken to perfection that this is one of a powerful combination for life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great match, but intense! Friendship and loyalty are your foundation, and you share a deep understanding. You both tend toward jealousy and obsession in relationships, which could actually work here: Once made, your connection is deep, strong and passionate, and you won't want to break that bond. You both want emotional security and will give that to each other. You're both not afraid to plumb the depths of your emotions -- positive and negative but also expect to make up famously.
+The relationship between a Scorpio woman and a Scorpio man would be highly compatible. This is a very powerful combination that would result in love and success in relationships and marriage. The two are just made for each other. Scorpios being discrete and secretive cannot be easily understand by any other sign but by yourselves alone. Hence this barrier is broken here in this combination of a Scorpio guy with a Scorpio girl. There would be an electrifying relationship and the magnetism involved with this couple would be just great.
+</t>
+  </si>
+  <si>
+    <t>You two are very different, and may find it hard to make a comfortable connection. Pisces, you really need that emotional bond to feel secure in a relationship, but emotional ties can make aloof Aquarius bolt in the opposite direction. Aquarius, you can't stand feeling tied down or restricted in any way, and Pisces could come across as clingy to you. You do both have idealistic souls, however, and are driven by a need to help others; this will be the basis of your relationship.
+An Aquarius man and a Pisces woman in a relationship are not known to exhibit much compatibility when involved in a relationship. Initially, things would be favorable but with time there would be compatibility issues here with this duo. The Aquarius man's lack of interest in personal affairs just builds steam inside the Pisces girl.
+He would not be able to satisfy her dreams and passions in life. She would also find his independent nature many ways off. But when each gives the other his personal space and freedom then there would be bliss.
+Aquarius is more of a brain-led character while the Pisces girl would be a heart-led one and this would prove problematic in the long run. If both of your strive to just hang on together through thick and thin then it would be well and good.</t>
+  </si>
+  <si>
+    <t>You two will enjoy a sweet, gentle connection right from the start. You make a great match, as friends, lovers or long-term partners. You both have highly romantic souls and there's a wonderfully intuitive connection between you. You also complement one another well; Taurus, you can be Pisces's rock, providing the practicality and common sense Pisces lacks. And Pisces, you open up the Bull to a world of dreams and possibility.
+The Taurus woman and the Pisces though being complimentary signs are very compatible in life together. 
+The Pisces guy dreams big and the earthy Taurus girl brings him back to reality. Each one manages to sort out the differences with the other one and hence there would be bliss in this combination.
+The simple and down-to-earth Taurus easily gels with her complicated Pisces guy so easily. There is a special chemical bonding between your both in life.</t>
+  </si>
+  <si>
+    <t>You two are very different, and may find it hard to make a comfortable connection. Pisces, you really need that emotional bond to feel secure in a relationship, but emotional ties can make aloof Aquarius bolt in the opposite direction. Aquarius, you can't stand feeling tied down or restricted in any way, and Pisces could come across as clingy to you. You do both have idealistic souls, however, and are driven by a need to help others; this will be the basis of your relationship.
+Though an Aquarius woman and a Pisces man seem to lead a compatible life together, your mutual existence would not be an easy affair. This is because your viewpoints differ a lot.
+The Aquarius woman loves fun and adventure while the Pisces man needs a committed and intimate relationship. The Pisces guy would not be able to give her the much-needed freedom in life.
+For the Aquarius girl, friendship comes first then love and she is meant to treat her partner more as a friend than as a partner which may not go well with the Pisces man.</t>
+  </si>
+  <si>
+    <t>Though this relationship shows promising signs, not much romance would be involved here. Aquarius though loyal is not committed and does not show explicit signs of his romantic moods. However much passion and commitment could be seen by both not towards each other but to the outside world at large as your attachment is universal.</t>
+  </si>
+  <si>
+    <t>There would be greater compatibility between the Cancer woman and the Aquarius man. This is because both play your gender roles appropriately. The Cancer woman would be home-bound while the Aquarius guy solves her insecurity issues. The Cancer girl brings out the passionate nature of the Aquarius guy to the fore.</t>
+  </si>
+  <si>
+    <t>The compatibility of friendship between a Cancer woman and a Pisces man would be just the right thing needed. Both are kind, willing to listen to the other, lending a helping hand to the other in times of need. your caring nature comes out now and then, loyalty is the best in this combination that comradeship would be at its crest with this pair.</t>
+  </si>
+  <si>
+    <t>There would be a good level of compatibility when this combination comes together in marriage. your common interests make sure that the marriage stands the test of time.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility when an Aquarius female and a Pisces male are into a marriage. Much depends on how well the Aquarius girl has control over the Pisces guy. The Aquarius woman would be much strong-willed that she can bring him down to his knees. If the Pisces guy is committed then a positive marriage relationship would work out. Generally, the Aquarians have an agenda and know how to keep your Pisces partner under your harness. Hence compatibility would not be much of an affair here.</t>
+  </si>
+  <si>
+    <t>The Scorpio guy and the Capricorn girl share greater compatibility in your sexual lives. The Capricorn female usually dominates the sexual encounter. The Scorpio guy would be forced to yield to her whims and fantasies here and he would be more than willing to do the same. The Capricorn girl has the ability to control the emotions and eroticisms of the Scorpio guy. Hence there would be a secret strong bond that ties your together.</t>
+  </si>
+  <si>
+    <t>The Scorpio man and the Pisces woman share better compatibility when it comes to having sex. This would be the best way of communication with both. Both are not verbal and sex serves as an outlet to let your emotions and feelings flow through seamlessly. It simply brings your together. it would be a perfect communion of two bodies and two souls.</t>
+  </si>
+  <si>
+    <t>Sex would also not be a compatible affair between a Sagittarius man and a Pisces woman in a relationship. Initially, there would be much sex and sensuous acts. It would be taken as a sort of an outlet to let off your feelings. Sex is not a binding factor with this duo. With time, the act is completely taken off from your books..</t>
+  </si>
+  <si>
+    <t>Sex would also not be a compatible affair between a Sagittarius man and a Pisces woman in a relationship. Initially, there would be much sex and sensuous acts. It would be taken as a sort of an outlet to let off your feelings. Sex is not a binding factor with this duo. With time, the act is completely taken off from your books.</t>
+  </si>
+  <si>
+    <t>A Libra woman and a Pisces man share compatibility in your sexual behaviors. But the Pisces guy would find it difficult to read her sexual needs and desires. She just hides her sensuous desires under her coat. If the Pisces guy could arouse her then it would be heaven here.</t>
+  </si>
+  <si>
+    <t>The Scorpio woman and the Pisces man in your sexual encounter engage in a highly compatible affair. It would be a total merging of two souls and later the merging of two physical realms. It would be a soulful experience for both. Scorpio is known for eroticism and Pisces for his romantic moves that there would be bliss here.</t>
+  </si>
+  <si>
+    <t>When it is the end of the road between a Scorpio male and a Capricorn female then it would be a total bloodbath on the streets. There would be destruction on either sides. Both turn colder to the other one and the split would not be taken that easily in both the territories. Mutual resources would suffer a lot on account of your end game.</t>
+  </si>
+  <si>
+    <t>You make a great team -- you're both optimistic and impulsive and will egg each other on to new heights! Together you're on the go, always on to the next big adventure. You're both curious, especially Sagittarius -- Leo, expect to learn a thing or two. Problems could arise from your twin fiery temperaments. Sagittarius tells the truth, which sometimes prideful Leo doesn't want to hear but overall you're a great match!
+The Leo woman and the Sagittarius man share better compatibility in life. The adventurous and fun-loving Sag guy would be well-liked by the Leo girl.
+Both of your are very passionate and your chemistry bonds your together for life. Though there would be occasional hiccups the relationship can survive the test of time. 
+The Sag guy needs to be taken care of else he might stray. But for this, this is a happy-go-jolly combination. The pair makes good companions but there would be a dearth of romance and passion.</t>
+  </si>
+  <si>
+    <t>You two share a Karmic tie, and you'll feel it in the way you're deeply drawn to one another -- especially Capricorn to Leo. You don't have a whole lot in common, though you do share some similarities. You're both ambitious and will discuss your dreams and goals early on. You also both love living in the lap of luxury and make good leaders. But what do those elements have to do with connecting on an intimate level? Unfortunately, not much.
+The Leo woman and the Sagittarius man share better compatibility in life. The adventurous and fun-loving Sag guy would be well-liked by the Leo girl.
+Both of your are very passionate and your chemistry bonds your together for life. Though there would be occasional hiccups the relationship can survive the test of time. 
+The Sag guy needs to be taken care of else he might stray. But for this, this is a happy-go-jolly combination. The pair makes good companions but there would be a dearth of romance and passion.</t>
+  </si>
+  <si>
+    <t>The Bull and the Water-bearer ... hmm, this should be an interesting and unique combination. Really, the only things you have in common are your stubborn, determined attitudes. This could make for some interesting conversation, or more likely debates, but it could also lead to hurt or distrustful feelings. On second thought, maybe you're better off as acquaintances.
+The Taurus woman and the Aquarius man do not make a compatible partner for marriage or relationship. Both are stubborn signs and stick to your ideals and ideas in life.
+But then the Aquarius man can teach her to have some fun with life and the Taurus female can bring stability to his life. 
+The too conservative Taurus girl and the out-going Aquarius guy do not have anything in common to drag along. The Taurus woman's too much interest in monetary benefits would also ruin this relationship for the worst.</t>
+  </si>
+  <si>
+    <t>Pisces, you adore the Lion for its strength and courage, and you'll find the protection and direction you need with this sign. You both possess big dreams, but Leo is more inclined to go after your. And you're both incredibly sensitive! Leo, you won't want to hear this, but you don't like having your feelings hurt. At least Pisces is intuitive about such things and can take care of your wounded ego during tougher moments.
+There would be a medium level of compatibility between a Leo woman and a Pisces man. The Leo girl is an extrovert, likes to dominate the scene and loves to hog the limelight. The Pisces man, on the other hand, is an introvert and has a small circle around him and hence it would be difficult for him to get along with the Leo girl.
+But then your mutual romance and passion for one another keep the relationship kicking and very much alive. Though practical difficulties arise in the conduct of the marriage, your love and commitment for each other make your hang out together for life. This is an enduring combination where each likes to hold his or her partner on high grounds.</t>
+  </si>
+  <si>
+    <t>Your relationship will probably endure, because you do have several overarching qualities in common -- you're both highly romantic and idealistic; you're both caring, agreeable, helpful people who will take good care of each other in a relationship ... The problem here is, you may stay together in the name of love, even if the relationship isn't really what either of you wants. Libra, you like an intellectual equal and you may find Pisces too ethereal or undirected.
+There would be compatibility between a Libra woman and a Pisces man in a relationship. The Libra woman showers much love and affection on the Pisces guy and he likes it. But he is too dreamy to be practical about life.
+There would be much romance and passion in the relationship but the stability would be under question until the duo sticks to your commitments.
+Both love the good things in life and make sure that there are peace and harmony at home. These two tender hearts just stick together unless destiny plays pranks on your.</t>
+  </si>
+  <si>
+    <t>The Virgo girl and the Scorpio guy have better compatibility in your romantic life as well. But then it comes later on in your relationship. you share a sweet relationship that is very tender with much warmth involved. The Scorpio guy makes sure that he is romantically inclined to his Virgo girl. Passions wax and wane with the emotions of the Scorpio man but then the Virgo girl needs her private time as well to sort things down.</t>
+  </si>
+  <si>
+    <t>The compatibility for romance would be off the charts for this duo. Scorpios are said to be one the most romantic and passionate lovers in the zodiac signs with much eroticism on the sets. There would be much intensity and devotion found here. you would be ready to sacrifice or do anything for the sake of your partner. you just stick on to each other for life.</t>
+  </si>
+  <si>
+    <t>Between a Scorpio man and a Sagittarius woman not much romance is seen, but there would be great intensity and much passion. you just do not have any time for romanticizing around with each other. Passion for one another would be just out of bounds here. There would a long lasting bond due to the great compatibility for passion with this duo.</t>
+  </si>
+  <si>
+    <t>Not much romance would be seen between a Scorpio man and a Sagittarius woman in a relationship as it would be a serious professional-sort of relationship. Both think that it is an utter waste of time, just romancing around each other. Though you have passion it would not be directed to the partner, instead it would be towards achieving career and material goals in life together.</t>
+  </si>
+  <si>
+    <t>There would be no romance and passion seen here with this pair that compatibility is totally out of question. Power rules the roost in this combination and not romance. Also both think that passion and romance is a complete waste of time. you have other important tasks in life to cater to.</t>
+  </si>
+  <si>
+    <t>Both the Taurus woman and the Sagittarius man are not much interested in romance and passion. Sagittarius would be much satisfied with a friendly gesture by the Taurus woman. She would be more than happy if her financial commitments are met and her stomach is full. Passion is not a great priority in life for both. Instead you divert your energy towards constructive purposes regarding mankind as a whole.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and a Sagittarius man share greater compatibility in romance and passion. The Sag guy is known for his courting and she, in turn, would be a great audience for him. you share much passion about life and your future together. Also, the intentions would be true to the book. The duo is known to be loyal and committed to the core.</t>
+  </si>
+  <si>
+    <t>The Virgo female and the Sagittarius male do not have much romance and passion in life that is unworthy to talk about compatibility in this area. But then you stay together as good buddies for life. you have a liking and passion for your interests and hobbies which would be mutually shared. There would be no boredom in this combination but then one has to use a sieve to search for any remnants of romance here.</t>
+  </si>
+  <si>
+    <t>For Sagittarius, romance is just out of syllabus as you do not take it too seriously. you think it as a waste of time and a mystery best left to fend for itself. you have much to do on a humanitarian level rather than running around the bush with a love song.. But being fiery signs there is much passion seen here but it is not directed towards the partner but towards life as a whole and the universe at large. you just have mutual passion for adventure and physical activities. Both are highly curious and like to learn about new things in life.</t>
+  </si>
+  <si>
+    <t>Both the Taurus woman and the Sagittarius man are not much interested in romance and passion. Sagittarius would be much satisfied with a friendly gesture by the Taurus woman. She would be more than happy if her financial commitments are met and her stomach is full. Passion is not a great priority in life for both. Instead, you divert your energy towards constructive purposes regarding mankind as a whole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Virgo female and the Sagittarius male do not have much romance and passion in life that is unworthy to talk about compatibility in this area. But then you stay together as good buddies for life. you have a liking and passion for your interests and hobbies which would be mutually shared. There would be no boredom in this combination but then one has to use a sieve to search for any remnants of romance here.
+</t>
+  </si>
+  <si>
+    <t>There is not much romance involved with this duo as Aquarius is not much into this. He takes his partner as a friend and does not have special feelings towards her. He keeps her busy all day long that there would not be any time left for romantic moves. The Taurus woman is more focused on material possessions and Aquarius is more bent on the outside world that you lead separate lives in this area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquarius men are known to be the sexiest guys among the zodiacs. Hence you are sure to electrify the Gemini girl. Being a flirt, the Gemini girl brings in further chances for romance in life. Much passion is also on the cards for this duo. The Aquarius man has to really work hard to keep the Gemini girl under his harness else she might stray around.
+</t>
+  </si>
+  <si>
+    <t>Little compatibility for romance exists with this pair though both are not that much romantic in life. Though you are strict disciplinarians you like to flirt and romance around with your partner at times. The Aquarius man would be more or less a detached character devoid of much passion or romance in life. Capricorn is also found to be a feeling-less girl in a relationship. Hence the element of romance and passion would be missing here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be no trace of romance between this duo as romance and intimacy are to be missed here. Aquarians are known to have romance on a universal level !!.Passion is also not at stake with this combination. Being universal signs you are more bent on outside worldly affairs that personal intimacy and romance takes the backseat.
+</t>
+  </si>
+  <si>
+    <t>The Taurus woman and the Pisces man are very compatible when it comes to romance and passion. Both are very sensuous, so you don't mind hugging, kissing, holding hands and crossing even in public. Much passion is involved here and this is one combination where romance gets a new meaning. There would be a special knot that binds the duo together as if held in a land of fantasy.</t>
+  </si>
+  <si>
+    <t>There would be a romantic relationship with this duo as both are adventurous and seek romantic outings together. you love partying and socializing. But the level of passion involved would be very less. There would be much communication while physical and emotional sides are usually the neglected lot. The Pisces guy should bring down his expectation level on the romantic front. The Gemini woman is one who is willing to experiment new tactics in this area with her partner.</t>
+  </si>
+  <si>
+    <t>A Cancer woman shares better compatibility in romance and passion with her Pisces guy. you just enjoy every moment you are together. Both do not stray from your relationship hence intimacy is kept intact. But it is found that the Cancer woman would be more fond of the kitchen than the bedroom that romantic commitments might be put on the back burner for a while now and then.</t>
+  </si>
+  <si>
+    <t>There would be better compatibility for romance between a Scorpio girl and a Pisces guy. The Pisces guy woos her with flowers, gifts and what not which the Scorpio girl acknowledges instantaneously. Passion is something that is at its peak with this combination. you would be much passionate towards each other, you love one another wholeheartedly and this passion cannot be seen elsewhere.</t>
+  </si>
+  <si>
+    <t>The Pisces man and a Pisces woman in a relationship share greater compatibility for romance as both are highly romantic signs. But then an overdose of romance might hamper other important issues in your lives. you just hang-out together with nothing to do and gaze into each other eyes for long. Passion would be completely missing here with this duo as you think that it is a total waste of time and energy.</t>
+  </si>
+  <si>
+    <t>The Taurus woman and the Scorpio man are not made to be good friends in life. Scorpios generally are not meant for making friends. you are loners but then when you stick to a person you are loyal and faithful enough. If the Taurus woman needs a friend for life she better find someone apart from the Scorpio guy.</t>
+  </si>
+  <si>
+    <t>The Gemini woman and the Scorpio man make good friends as you like to entertain the other half by your acts. you make good travel companions. The Gemini woman's wits and the deep perception of the Scorpio guy complement each other. you love to converse just about anything under the Sun.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility between a Virgo lady and a Scorpio man when you are friends. you make great partners in work and play. This is because you have mutual interests and have greater concern for your other half in life. Together as friends this duo can scale new heights and explore hitherto unexplored territory.</t>
+  </si>
+  <si>
+    <t>A Libra woman and a Scorpio man do not make great friends in life but then you would be having a good comradeship when work is concerned. As friends you can get along only under a romantic note. Once this pair comes together you can achieve great things in life. But the true spirit of friendship would be missing here with this pair.</t>
+  </si>
+  <si>
+    <t>The compatibility of friendship with this duo is also great as only a Scorpio can read and understand anther Scorpio in this world and none other. There would be mutual sincerity, trust, and admiration of both. together you revel in each other's company regardless of the mad world around your.</t>
+  </si>
+  <si>
+    <t>The compatibility for friendship would be great between a Scorpio guy and a Sagittarius girl. you have mutual respect for each other. Add to this loyalty and trust takes your on a compatible road in comradeship. you make one of the best friends in life.</t>
+  </si>
+  <si>
+    <t>The Scorpio male and the Capricorn female make a compatible friendship as you are more committed and loyal to one another. It would be more than friendship as there would be confidence and intimacy involved with the duo. Together you strive to attain certain goals in life- happiness and material resources to name a few.</t>
+  </si>
+  <si>
+    <t>Though the Scorpio man and the Aquarius woman are not made to be great friends for life, the spirit of comradeship exists when one of your has a slight dominance over the other. There would be a constant struggle for power in both your lives and when you decide to culminate your powers together then this would be a formidable comradeship that cannot be broken by any other power on earth.</t>
+  </si>
+  <si>
+    <t>The Scorpio man and the Pisces woman do not make great friends in life as this would be a very gender specific combination. Though the duo share a great bonding you do it in a romantic and intimate level and does not have comradeship qualities to pursue. The Scorpio guy would be more manly and the Pisces girl very feminine that this would be a combination for a marriage or intimate relationship and not friendship.</t>
+  </si>
+  <si>
+    <t>The Aries woman and the Sagittarius man make one of the best friends in life. you have many common interests and make good companions for lives. Together you can be spotted always outdoors.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and a Sagittarius guy make best friends for everyone outside your relationship. Hence you need not be great friends with each other. you live life to the fullest and look at the brighter side of life together.</t>
+  </si>
+  <si>
+    <t>There would not be much compatibility when a Leo woman and a Sagittarius guy are friends in life. The Sagittarius guy makes friends with almost anyone on the block and this would be annoying for the possessive and dominating Leo girl. The arrogance of the Sagittarius guy stands in the way of your comradeship. Leo loves to dominate the scene while the Sag guy takes it over easily. Hence you cannot be friends for life.</t>
+  </si>
+  <si>
+    <t>There would be great compatibility when Virgo girl and a Sagittarius guy come together as friends in life. There would be many mutual interests that just binds your together. you share hours together doing nothing. you live to have a good talk or laugh when in a company of each other.</t>
+  </si>
+  <si>
+    <t>The Libra woman and the Sagittarius man make one of the best compatible friends' pairs in the zodiac. you share mutual interests and good times together. There would be no secrets between your and together you make life more enjoyable.</t>
+  </si>
+  <si>
+    <t>The Scorpio female and the Sagittarius male make one of the best friendships among the zodiac signs. you are honest to each other and are loyal and serious to the core. you have mutual respect for each other and grow together gracefully. This combination makes best friends for life and hence the compatibility would be one of the best among the zodiacs.</t>
+  </si>
+  <si>
+    <t>The Sagittarius man and a Sagittarius woman make good compatible friends in life. you make great travel buddies and are excited by adventure. you share mutual interests in life and this keeps your going as best friends for life. you have much in common that great friends need.</t>
+  </si>
+  <si>
+    <t>The Sagittarius male and the Capricorn female are most compatible when you are engaged as friends in life. Both have many interests in common that you stick together. you like to do projects and ventures together and come out successful that your comradeship is one of a marvelous relationship.</t>
+  </si>
+  <si>
+    <t>The Sagittarius man and the Aquarius woman are not much compatible as friends. Both are free and fun-loving citizens. but you hate taking responsibilities. you stay as good friends unless adversity strikes. Then both would quit the scene and put the blame on a social cause. The Sagittarius man and the Aquarius girl just do not make good and trustworthy friends for life.</t>
+  </si>
+  <si>
+    <t>The Sagittarius male and a Pisces female do not just make good friends. There would be no compatibility or co-operation in any area between your that you cannot survive as friends for long. Nothing that has a semblance of comradeship would be found here. These two just cannot stick together for long.</t>
+  </si>
+  <si>
+    <t>The Sagittarius man and the Aquarius woman are not much compatible as friends. Both are freedom and fun-loving citizens. but you hate taking responsibilities. you stay as good friends unless adversity strikes. Then both would quit the scene and put the blame on a social cause. The Sagittarius man and the Aquarius girl just do not make good and trustworthy friends for life.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and the Aquarius man are not compatible enough for a friendly relationship. This is because the Cancer lady is more interested in homely ties like a mother, sister, etc. The Aquarius guy though friendly does not fit in here. Both of your do not have the tactics and diplomacy needed for maintaining friendly relations with each other. Moreover, you have a serious relationship far more superior to being just friends.</t>
+  </si>
+  <si>
+    <t>A Virgo girl and an Aquarius guy make great true and loyal friends. you have great compatibility with friends for life. Both have high standards set up in life that it is unlikely for any other signs to get into this private area of the duo. Quality would be the forte of this comradeship.</t>
+  </si>
+  <si>
+    <t>There would be greater compatibility when a Libra woman and an Aquarius man are involved in a friendly relationship. you just make best friends for life. There would be no turning back here. The Aquarius guy showers his affection on the Libra girl. The comradeship survives the test of time as both of your understand each other's freedom and space in life.</t>
+  </si>
+  <si>
+    <t>A Scorpio woman and an Aquarius man make great friends for life. you just gel together as both are loyal and trustworthy. you would not let down your partner at any cost and betrayal is also unheard of here.</t>
+  </si>
+  <si>
+    <t>An Aquarius male and a Sagittarius female do not make great friends in life. When the going gets tough you just do not stand together. Both are not interested to care about the personal problems of the other. you cannot be friends in need and are not good bedfellows either.</t>
+  </si>
+  <si>
+    <t>The Aquarius man and the Capricorn woman make good friends for life. you make an ideal team when it comes to friendship, you share the commitment and an intelligent exposure. The duo has a bigger perspective of everything about life. Mutual production and leadership qualities are found to be in both - a pre-requisite for being good friends in life. This combination makes good companions in work rather than in play or leisure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to better compatibility when an Aquarius guy and an Aquarius girl are involved as friends in life. you need to be compatible with each other's best friends, 'cause there is none other in the world who can stay as friends with these Aquarians.
+</t>
+  </si>
+  <si>
+    <t>Though the Aquarius guy and the Pisces girl are not much friendly you do not make bad friends. Things would be average between the two and there would not be any spark as mutual interests and pursuits are out of question here.</t>
+  </si>
+  <si>
+    <t>The Aries woman and the Pisces man make good friends for life. you enjoy together doing social things. Aries would give all the mental and physical support for the Pisces man who would take care of the sensitivity of the issue at hand.</t>
+  </si>
+  <si>
+    <t>The Taurus girl and the Pisces guy make good friends in life. This is because both are interested in a simple, and plain relationship without much strings attached. you strive to make the other one happy at all costs. your expression of love, care and loyalty exceed all boundaries and this would be a great relief for the Pisces male and a pleasant one for the Taurus female.</t>
+  </si>
+  <si>
+    <t>The Leo female and the Pisces male make good friends in life. The Leo girl gives confidence and security to her pal. you are just happy to be with each other. Leo lady makes life easier for the Pisces guy. you get closer together with time as good friends for life.</t>
+  </si>
+  <si>
+    <t>A Libra woman and a Pisces man make compatible friends. Both of your have good mannerisms and stay polite together. you love to listen to each other and then talk. Compromise works out easily here that comradeship would be an easy game for this duo in life.</t>
+  </si>
+  <si>
+    <t>The Scorpio female and the Pisces male make great friends for life and hence share a higher level of compatibility in your comradeship. you would just give up your life for each other. Committed and trustworthy you make one of the best combinations for friends in the zodiac.</t>
+  </si>
+  <si>
+    <t>The Sagittarius girl and a Pisces guy make a compatible friendship. you can just stick together as friends for life rather than get into a committed relationship on a romantic note or marriage. Both are humanitarian- natured, philosophical and love peace and harmony and hence the going would not be that tough in your road of comradeship. But intimacy and commitment have to be ruled out here.</t>
+  </si>
+  <si>
+    <t>There can be an enormous level of compatibility for friendship between these two. you just care for each other without any strings attached, one of the main pre-requisites for a long-term friendship.</t>
+  </si>
+  <si>
+    <t>An Aquarian female is not much of a friendly character to get along with. Though you talk much about universal friendship, true warmth would not be found in her. If the Pisces guy has bet on her love and friendship he better finds solace elsewhere as friendship and compatibility are not to be found in an Aquarian female. you are known to show your love and affection and friendly approach to total strangers on the block while the immediate partner yearns for his real quota.</t>
+  </si>
+  <si>
+    <t>A Pisces man and a Pisces woman have much compatibility for friendship that you stay together as great friends for life. your friendship is something that cannot be fathomed and measured. you stand for each other through thick and thin. your road to comradeship is a never-ending one.</t>
+  </si>
+  <si>
+    <t>This combination of a Taurus woman and a Scorpio guy is very compatible for marriage. you take the relationship too seriously. Even minor flirts outside the marriage would be a bone of contention in the relationship. The Taurus would be too possessive while the Scorpio might be very much sensitive and sensual. He likes to keep her under his constant watch. The outside world means nothing to your when you are together. But then loyalty, commitment and sincerity would be the main gist of this pair.</t>
+  </si>
+  <si>
+    <t>The Leo woman and the Scorpio man make a compatible marriage. Both being fixed signs, much loyalty and devotion would be seen in this pair. Once you settle down with your marital life, troubles slowly brew up. But then both of your stick to it and do not find ways to stray. Though there would be some incompatible issues now and then the marriage keeps going in a positive direction.</t>
+  </si>
+  <si>
+    <t>This is one of the best combinations for a compatible happy married life. Both the Virgo girl and the Scorpio guy are loyal, devoted and focused that troubles if not any would vanish from the scene. Both try your level best to have a conducive atmosphere between your. you have a predetermined set of rules to follow. you are straightforward and determined in your efforts towards having a happy home together. Children and other members of the family would be blessed to be in such a home.</t>
+  </si>
+  <si>
+    <t>There would be an excellent compatibility between a Scorpio man and a Scorpio woman in a marriage. Together you move ahead in the married life with mutual love and trust. With time, the relationship ripens and the level of intimacy deepens. Each one contributes his or her all to the betterment of the marriage in the long run.</t>
+  </si>
+  <si>
+    <t>There would be a compatible relationship when a Scorpio male and a Sagittarius female are involved in a marriage. Honesty, commitment and respect for each other just bonds your together in the marriage. you settle down time and space disputes amicably and in a sensible way. As both are adept in handling material resources and communication issues there would be no compatibility issues when you are married. Each finds the other one the most satisfying spouse in life.</t>
+  </si>
+  <si>
+    <t>There would be a compatible marriage between the Scorpio man and the Capricorn woman. This is because you are committed to each other. Even if one falters, the other one runs the show devoid of troubles. When the duo enter into wedlock you know what is expected of your and what you are deliver. Hence it would be a seamless relationship. Both know that high stakes are involved in the marriage hence you strive together to make it work despite occasional hindrances.</t>
+  </si>
+  <si>
+    <t>The Scorpio man and the Aquarius woman do not share a compatible marriage. Commitment is ruled out here but you can stick together with a mutual bond of trust between your. Each one knows that he or she cannot survive without the other in this wicked world. you also very well know that you cannot be in a compatible marriage with any other zodiac sign.</t>
+  </si>
+  <si>
+    <t>Marriage would just be a compatible affair between a Scorpio man and a Pisces woman. you make a happy home, comfortable for the kids, and there would be no financial and emotional droughts. With time, you stand bonded together strongly. There would be much trust, honesty and loyalty seen in this marriage. Commitment and better understanding gives the stability for the marriage. This is a great combination for a long lasting marriage.</t>
+  </si>
+  <si>
+    <t>There would not be better compatibility in the married life between a Sagittarius man and a Taurus woman. Unless you are the rarest among your zodiacs this relationship is not going to work. However you stick to the commitment you would have made. Each does not make efforts to satisfy the other. The patience of the Taurus female keep the relationship going. But she does not know that the Sagittarius guy is never going to change in life for the better.</t>
+  </si>
+  <si>
+    <t>Though initially things would be all rosy between a Gemini woman and a Sagittarius man in marriage, with time things turn sour. you would be constantly at loggerheads. Sagittarius wants her to be grounded at all times, but the Gemini girl is not one for this. She is not home-bound or committed to a relationship. Though the Sag guy would be more responsible in the marriage, he cannot handle things for too long all alone.</t>
+  </si>
+  <si>
+    <t>The compatibility for marriage between the Cancer woman and a Sag guy would be just great. Both are creative, friendly, share mutual friends and hence the relationship is sure to grow with time. you love to spend time together understanding the culture and traditions of various people and countries, particularly love to travel a lot.</t>
+  </si>
+  <si>
+    <t>The Leo woman and the Sagittarius man are not compatible for marital relations. you do not have anything in common to get along with life. The easy-going Sagittarius guy does not take marriage seriously while the Leo girl is just the opposite and needs a committed relationship. If she can take forward the relations in the positive direction then it is well and good else the relation is poised for disaster.</t>
+  </si>
+  <si>
+    <t>A Virgo woman and a Sagittarius man have a compatible marriage and transmit positive vibes to those around your. Together you make a happy family. Friends and relatives of mutual interests are usually benefitted with this combination. Though the duo has a busy schedule in keeping with his or her own interest you do find some common time to spend together in the marriage.</t>
+  </si>
+  <si>
+    <t>This pair also does make a compatible marriage. This is because there would be no emotions involved and you share a broader and positive outlook on life. The Libra girls' strategic planning, logic, and charm just get along well with the Sagittarius guys' relaxed manner, luck, and intuition. Libra just organizes and executes the relationship very well. With time you would learn to spend quality time together. But at regular intervals, you carve out your own solo time as well.</t>
+  </si>
+  <si>
+    <t>A Scorpio woman and a Sagittarius man make up a good compatible marriage. It would be a trust-worthy relationship as both are interested to get along with the other one in life. Though Scorpio might be secretly testing the Sagittarius guy he would come out with flying colors. There would be a good level of communication between your that gets your along in life. you would not let down your partners in times of distress and make sure that you hold your in high esteem in your society. Morality would be the key for the success of this marriage.</t>
+  </si>
+  <si>
+    <t>The Compatibility for marriage with this pair would be just great. Bu marriage is not a formal connection to hang onto in life. The duo take life as it comes its way and are not bothered by the intricacies and details. you just keep rolling with time in a positive mood. you live your own personal lives and just take time to get along with your partner when the situation warrants it. There would be no hard feelings or grouses held for long.</t>
+  </si>
+  <si>
+    <t>The compatibility for marriage between a Sagittarius guy and a Capricorn girl would be just great. But then the Sagittarius man should be given ample freedom for his adventure by his Capricorn partner. The marriage grows or matures with life and this is one of the marriage that is likely to survive the test of time. The duo knows what you are up to and where a compromise is needed and hence the going would be easier. you know where you are headed together.</t>
+  </si>
+  <si>
+    <t>The compatibility needed for a happy marriage would be found lacking between a Sagittarius man and an Aquarius woman in a marriage. Both are not committed when it comes to marriage. Instead, you would like to stay as bachelors and live together without any strings attached. With time the marriage does not show any signs of maturity. Both are more bent on social and societal causes that personal lives would be at stake, the children and elders at home are likely to suffer.</t>
+  </si>
+  <si>
+    <t>There would not be better compatibility in the married life between a Sagittarius man and a Taurus woman. Unless you are the rarest among your zodiacs this relationship is not going to work. However, you stick to the commitment you would have made. Each does not make efforts to satisfy the other. The patience of the Taurus female keeps the relationship going. But she does not know that the Sagittarius guy is never going to change in life for the better.</t>
+  </si>
+  <si>
+    <t>A Scorpio woman and a Sagittarius man make up a good compatible marriage. It would be a trust-worthy relationship as both are interested to get along with the other one in life. Though Scorpio might be secretly testing the Sagittarius guy he would come out with flying colors. There would be a good level of communication between your that gets your along in life. you would not let down your partners in times of distress and make sure that you hold your in high esteem in your society. Morality would be the key to the success of this marriage.</t>
+  </si>
+  <si>
+    <t>The compatibility needed for a happy marriage would be found lacking between a Sagittarius man and an Aquarius woman in a marriage. Both are not committed when it comes to marriage. Instead you would like to stay as bachelors and live together without any strings attached. With time the marriage does not show any signs of maturity. Both are more bent on social and societal causes that personal lives would be at stake, the children and elders at home are likely to suffer.</t>
+  </si>
+  <si>
+    <t>An Aries woman and an Aquarius man do not get well in a marriage. you do not like to be bound by the institution of marriage, instead, choose to live together. Aquarius man would not have his mind in the married life. He has universal thoughts and would not have much responsibility towards marriage and its aftermath. you are not bound by the ties of marriage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Taurus female and the Aquarius male are not compatible with marriage. But you stick together just for the sake of the outside world. you are too stubborn to admit each other's positives. The Aquarius finds solace in the outside world, while the Taurus girl would be much involved in caring for her house that each would not find any time for incompatibility or misunderstandings in the marriage. The Taurus' possessiveness also wreaks havoc on the marriage.
+</t>
+  </si>
+  <si>
+    <t>The Gemini female and the Aquarius male make up a compatible marriage, though you have different interests, stay separately and have your own private worlds. Gemini's non-stop adventure and Aquarius' intelligence brings your together despite odds at times. you have common friends who bind your. Better communication would be the key to survival here and the Gemini does loads of it. The Aquarius guy makes sure that you are on the right road.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and the Aquarius man have greater compatibility in your married life. you make an ideal married couple taking care of your children and nurturing your. The Aquarius man would be much career-oriented. There would be much security found in this relationship. The open nature of the Aquarius guy keeps the relationship going and the duo enjoys greater rapport with each other in the marriage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leo female and the Aquarius male make up a good pair when it comes to marriage compatibility. The initial attraction would be great but then with time, it shows some signs of falling off. But your humor clears up the mess you have created. If the Leo girl would not demand too much attention from him and he, in turn, does not ask for too much freedom then the marriage would last long.
+</t>
+  </si>
+  <si>
+    <t>This is one of the best combinations for a compatible marriage and is said to be a marriage made in heaven. Together the Virgo female and the Aquarius male make a great team for family life. you share similar values and choices in life that it would be a very smooth affair. With time you become close friends for life confiding in the other. you make home a haven for children and relatives to head onto in times of need. The duo is keen to work towards a long-standing relationship.</t>
+  </si>
+  <si>
+    <t>A Libra girl and an Aquarius guy constitute a very compatible marital relationship. Both of your are logical people, you would compromise for just about anything under the Sun and mutual freedom is accepted in the relationship. Also, the duo knows how to rebound after a split or rift in life. The relationship picks up pace or momentum with time and there would be no hurrying here which is the cause for most of the break-ups. Mutual trust and acceptance is the key to survival with this pair.</t>
+  </si>
+  <si>
+    <t>There would be much compatibility when a Scorpio female and an Aquarius male are involved in a marriage. as both are loyal and stick to your stands you make a stable married life. you do not cheat each other and are unlikely to stray and hence you stay together for life. The Scorpio girl makes all efforts to bring a congenial atmosphere for the Aquarius guy and he makes sure that the sting is taken out from her as soon as he enters wedlock. There would be no inner games involved and it would be a transparent relationship. This combination will have a successful stint in marriage.</t>
+  </si>
+  <si>
+    <t>The Sagittarius woman and an Aquarian man in a marriage do not make a compatible combination. This is because here the gender roles are bent and you both focus out of your personal lives. Hence family would get a nice beating. Though you share mutual interests in philosophy and the like the growth of the relationship would not be smooth. Both do not mature with age well enough to lead a contented married life. Hence better compatibility would be found missing here.</t>
+  </si>
+  <si>
+    <t>The Capricorn woman and the Aquarius man make a great compatible combination for marriage. Together you are known for a committed and integrity-oriented relationship. This combination usually gives a long-term marriage where commitment to partner would be the keyword. The Aquarius man brings newness to the relationship while the Capricorn woman is good in re-tuning the relationship according to circumstances and the environment around. This marriage usually proceeds at a slow but steady pace. Quality time would be spent together and both take equal responsibility in bringing up the family. Teamwork would be appreciated here.</t>
+  </si>
+  <si>
+    <t>A compatible marriage does work out between an Aquarius male and an Aquarius female. Though you seem to live in your own worlds devoid of any connection with the human society on a sensuous level, there exists a special bond that ties your together. you share common ideals and values regarding life. Somehow or other homely chores get done and you find time together to be spent for a common universal cause. This duo conducts the partner as a friend and hence you happily exist together in a marriage despite odds at times.</t>
+  </si>
+  <si>
+    <t>The Gemini woman and a Pisces man do make a compatible marriage. Both are interested in socializing and this takes your along easily. you are not hesitant to talk about money, sex and other sensitive subjects on the planet. Together you handle tasks and tackle problems on a common ground. Hence there would be a strong footing here with this duo. But then the Gemini woman needs to bring in some entertainment into the relationship as the Pisces guy would be a lazy couch potato otherwise.</t>
+  </si>
+  <si>
+    <t>A Cancer woman shares a compatible married life with a Pisces man. But then you should not have an addiction of any sort in life. Else financial resource management becomes a major eye-sore for the duo. Cancer woman would be more interested in a committed marriage while the Pisces man just dodges this issue. He would be interested in more than one partner in life and is not very serious about getting married. Hence mutual trust and loyalty would be needed here. If the initial hiccups are overcome then the relationship becomes solid as a rock.</t>
+  </si>
+  <si>
+    <t>Compatibility for marriage is something that is not going to happen between a Virgo girl and a Pisces guy. Coz, you are opposite signs and the Virgo girl cannot keep up with the chaotic Pisces man in life. Though he would be full of romance he would not be able to channel it properly to his partner that the Virgo female finds left alone in a passionless world. Also, Virgo's constant criticism for perfection cannot be tolerated by the easy-going Pisces fellow.</t>
+  </si>
+  <si>
+    <t>The Sagittarius girl and the Pisces guy share an average compatible marriage. It would be more on a friendly level. Both would be committed as you are not intent on ruining the marriage. your philosophical ideals make your stick together for life. There would be problems galore as the Sagittarius female likes to dominate the marriage. It would be a roller-coaster ride as there would be intimate moments as well as troubled times. But then to any bystander, you seem to ride a smooth sail. The relationship would not be able to grow in a linear path and instead follows many ups and downs.</t>
+  </si>
+  <si>
+    <t>This duo makes a compatible marriage if you settle down to the reality of life and its consequences. Some pairs just hit the right button on the first meet while some other pairs are still conquering your partner. Either one of the duos needs to be practical for the marriage to continue on a positive note. Both are not much bend on rules and logic. you just fall for each other and hang out together for eternity in the marriage.</t>
+  </si>
+  <si>
+    <t>For this duo sex is the bread of life. Sexual attraction is the core youre of this relationship. it is used as a sort of emotional bond that binds your together for life. Both see sex as an entertainment too and you make sure that the other half is equally satisfied. you like to spend a long time together in this act and foreplay. The sensual Scorpio finds all ways to attract the Taurus woman sexually.</t>
+  </si>
+  <si>
+    <t>Sex would be highly compatible with this pair. Both are loyal and are not found to stray from your relationship. you trust and are honest with each other and these feelings would be passed on to your sexual encounters. A sort of un-conditionality would be seen here.</t>
+  </si>
+  <si>
+    <t>There would be a great level of compatibility when a Leo woman and a Scorpio man are involved in sex. It would be the hottest among all the zodiacs. The Leo woman is a drama queen and hence sex comes as an expression of her love and romance for her partner. The Scorpio guy with his great passion and emotions just sweeps the Leo girl off the floor. Together you experience hitherto un-ventured territory in this erotic area.</t>
+  </si>
+  <si>
+    <t>The Virgo female and the Scorpio male enjoy a very compatible sexual life as well together. Sex would be more or less a ritualistic affair for your. Though the frequency would be less, you make sure that both are satisfied. you like to follow a particular routine and stick to your schedule in having a sexual affair.</t>
+  </si>
+  <si>
+    <t>The compatibility for having sex between a Scorpio male and a Scorpio female would be just great. you cannot mate with the other signs so perfectly and satisfying. your intimacy would be best expressed here rather than by words. you consider sex as a religious act with communion of the highest order. Each tries to satisfy and bring out the erotic part in the other as much as possible.</t>
+  </si>
+  <si>
+    <t>Sex has the highest level of compatibility between the Scorpio man and the Sagittarius woman. The Scorpio guy is highly erotic and brings out the Sagittarius girl who is secretive when it comes to sex. you have mutual satisfaction here that compromises would be made in your other areas of life just for this sensual gratification.</t>
+  </si>
+  <si>
+    <t>Sex would be the bond that ties this duo together despite the differences in your opinions. you share this thrill as an adventure together. The Aquarius girl dominates the sexual scene and the Scorpio guy would just love to be pampered with. A greater level of compatibility exists here between the Scorpio guy and the Aquarius girl.</t>
+  </si>
+  <si>
+    <t>There would be a great level of compatibility between this duo when it comes to sex Much fun and joy would be involved here. It would be a pleasurable act and every encounter would be overwhelming. you love to have sex at the quirkiest time and the least- to do place. It would be a thrilling adventure for both.</t>
+  </si>
+  <si>
+    <t>Sex would be compatible with this pair. Both of your have great feelings and sensuous nature that sex comes naturally to your. you would be open to discussing anything to related with sex or physical intimacy. These are two consenting adults on the prowl. There would be no strings attached!!</t>
+  </si>
+  <si>
+    <t>The Leo woman and the Sag man share greater compatibility when it comes to having sex. Both have it as a sportive event in life. It would be a kind of liberation act for both. you express your feelings and emotions through sex to the other partner. you do not have any inhibitions as to where you enjoy it. The Leo girl and the Sagittarius guy are so free to each other when sex is involved.</t>
+  </si>
+  <si>
+    <t>Sex would be a very compatible affair when a Virgo girl and a Sagittarius lad are involved. It would be a very open, simple and easy act for both. you do not believe in romantic places and environment to kindle your emotions and senses. you just do it to explore your partner and to enjoy life. It would be a sort of relaxation and rejuvenation for the duo.</t>
+  </si>
+  <si>
+    <t>The Libra woman and the Sagittarius man have greater compatibility when you are involved in sex. It would be a very tasteful act together with no strings attached. Sex would be able to enhance and improve your relationship further. The duo has much fun and enjoyment in sex and it would be a way through which you converse your feelings and hidden emotions.</t>
+  </si>
+  <si>
+    <t>Sex would be a highly compatible affair between a Scorpio girl and a Sagittarius guy. There would be a total communion of body and soul that both relish the act every-time you have it. you are likely to be taken to the higher realms of ecstasy and eroticism. With time, you become well-versed in the nuances and the tricks of the trade that you know how to satisfy your partner on a sexual level.</t>
+  </si>
+  <si>
+    <t>Sex would be a time of adventure and enjoyment for this couple that greater compatibility can be found here. you do not have any inhibitions or guilt over the act. It is just a physical adventure that binds both your minds and souls together. Together you enjoy this ultimate pleasure with mutual consent.</t>
+  </si>
+  <si>
+    <t>The Sagittarius male and an Aquarius female are least interested in sex that compatibility here is out of the question. you have other things to indulge in and worry about. The duo is great in expressing your sensuality by other means rather than resorting to sex.</t>
+  </si>
+  <si>
+    <t>The Sagittarius male and an Aquarius female are least interested in sex that compatibility here is out of question. you have other things to indulge in and worry about. The duo are great in expressing your sensuality by other means rather than resorting to sex.</t>
+  </si>
+  <si>
+    <t>The sex life between a Gemini woman and an Aquarius man would be compatible. you use all enhancement gadgets to improve your sex life. Both get along well in sex and are willing to do anything to satisfy the other. Though the frequency would be less, the act would be much excitement for both.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and her Aquarius partner share greater compatibility in having sex. you get your emotional strength boosted up here. The Aquarius guy would be satisfied well by her. Many intimate moments, cuddling and foreplay could be found here.</t>
+  </si>
+  <si>
+    <t>The Virgo female and the Aquarius male have better compatibility when you enjoy sex. It would be a way by which the duo relate to each other. No physical and mental demands are involved here. Mutual satisfaction and pleasure would be the key.</t>
+  </si>
+  <si>
+    <t>Sex would also be a very compatible affair with this duo. It would be an important part of your life together. There would be a good balance and you make sure that mutual interests are met. Libra with her romantic nature would bring out romance and passion in the love-making process. He would be polite to take it for granted. But he asks for something new every other time you sleep together as he is not one to have a monotonous lifestyle.</t>
+  </si>
+  <si>
+    <t>As the Scorpio female and the Aquarius male are greatly compatible with marriage and friendship, the compatibility would also be extended for sex. Together you have a great feast here in this arena. The Scorpio girl arouses the Aquarius guy and you explore unknown territories here. With loyalty and mutual trust, there would be much fantasy in your sexual domain.</t>
+  </si>
+  <si>
+    <t>The duo does not share better compatibility in sex either. Both have a common disinterest in sex as your interests are more mental rather than sensual or physical. you have other ways of expressing your love rather than by sex alone. Eroticism is totally absent in this combination.</t>
+  </si>
+  <si>
+    <t>Compatibility for sex would be just lacking here with this pair. Both take sex as a procreational affair and are not much bent on the intimacy or the physical connection involved. In fact, you consider the human body as an error done during creation. Also, you are known to experiment alternate modes of having sex. Everything is well and sound unless no dirty affair is involved.</t>
+  </si>
+  <si>
+    <t>There would be a better level of compatibility in sex for this pair. Both are more involved in making sensuous talks and other conversations that the physical act comes last. you spend most of your time in the bed talking. But then it binds your together and dispels all negative energy from the scene.and every encounter would be overwhelming. you love to have sex at the quirkiest time and the least- to do place. It would be a thrilling adventure for both.</t>
+  </si>
+  <si>
+    <t>The Cancer woman and her Pisces counterpart share much compatibility when it comes to the act of sex. It would be much more than a physical act for both. you engage in much foreplay and sensuous moments together. you like to please and satisfy the other as much as possible.</t>
+  </si>
+  <si>
+    <t>Sex would be a very compatible affair between the Sagittarius woman and the Pisces male. you have much fun in this act. There would be no ego clashes, domination and the like. As faithful friends, you have a smooth ride in this area. Together you conquer this area with ease.</t>
+  </si>
+  <si>
+    <t>Not much compatibility would be found when an Aquarius woman and a Pisces man are involved in sex. you are not interested in conventional modes of love-making. Instead, the duo is more into the involvement of external gadgets to improve your libido and sexual performance. Both are not much into satisfying the other partner while personal gratification might take the center-stage.</t>
+  </si>
+  <si>
+    <t>The end of the road for this pair would be really pathetic. Both of your are known to exaggerate the wrongs of the other. you are not for rapprochements of any sort in life. Hence the end comes naturally for this duo. Betrayals would be common and though you would not hurt each other, you eventually fall short of love in the relationship.</t>
+  </si>
+  <si>
+    <t>When a Libra woman and a Scorpio man have decided to end your relationship then it would be a bitter ending for both. All kinds of negotiations or pacifications do not work here. Separations are a common happening here with this duo that you take the endgame on a similar note much to the surprise of the families involved.</t>
+  </si>
+  <si>
+    <t>This is one relationship that is likely to last forever without many troubles. Even if the relationship or the marriage breaks you remain friends for life.</t>
+  </si>
+  <si>
+    <t>When the going gets tough for the duo and when you want to call off the marriage, then things just come to a standstill. Both do not take the responsibility to have a balanced end that a counselor or a third person has to step in to sort things out. Usually the Gemini goes her way out easily and it is the Sag guy who would be hanging on to the final strand.</t>
+  </si>
+  <si>
+    <t>The relationship between a Cancer woman and a Sagittarius guy is never going to end but then if it has to then it would be a low-key affair. Both of your fully understand the need of the other one in life. After the split, the Sagittarius guy usually goes off for social or charity works while the Cancer girl would just stay at home and linger on with the great moments you shared together.</t>
+  </si>
+  <si>
+    <t>It would be usually the Sagittarius guy who would end the show. He cannot simply bear with the dominating Leo lady in life. He would mean that you can be friends but that is not going to happen with the irritated Leo girl. She would have her own regrets for having entered into a relationship with the Sag guy.</t>
+  </si>
+  <si>
+    <t>In case this duo is in for a split, which is unlikely to happen you would stay as good friends for life. It would be usually the Libra woman who might have strayed. The Sagittarius guy makes himself comfortable by his sense of wit. There would be no hard feelings from both the parties and you do not look back either.</t>
+  </si>
+  <si>
+    <t>The end of this relationship can be noticed when each one tries to spend more time in the outside world than in the house. But both do not hold any bad feelings. Even if you decide to formally terminate the relationship , the process takes a long time as both are not much for it. However, children and mutual resources are not affected by the split.</t>
+  </si>
+  <si>
+    <t>Usually, this relationship lasts long but then if you mutually decide to part ways then you would have mutual respect for each other. Even after the spit, there would be better co-operation on sharing common resources. It would be a win or a loss for both owing to the separation.</t>
+  </si>
+  <si>
+    <t>Generally, the Sagittarius guy and an Aquarius girl find it difficult to hold long together in a relationship that the end comes quicker than expected. But when it comes both would deny that and acknowledge that you haven't been in one till date.</t>
+  </si>
+  <si>
+    <t>When the going gets tough for the duo and when you want to call off the marriage, then things just come to a standstill. Both do not take the responsibility to have a balanced end that a counselor or a third person has to step in to sort things out. Usually, the Gemini goes her way out easily and it is the Sag guy who would be hanging on to the final strand.</t>
+  </si>
+  <si>
+    <t>In case this duo is in for a split, which is unlikely to happen you would stay as good friends for life. It would be usually the Libra woman who might have strayed. The Sagittarius guy makes himself comfortable by his sense of it. There would be no hard feelings from both the parties and you do not look back either.</t>
+  </si>
+  <si>
+    <t>The end of this relationship can be noticed when each one tries to spend more time in the outside world than in the house. But both do not hold any bad feelings. Even if you decide to formally terminate the relationship , the process takes a long time as both are not much for it. However children and mutual resources are not affected by the split.</t>
+  </si>
+  <si>
+    <t>Usually, this relationship lasts long but then if you mutually decide to part ways then you would have mutual respect for each other. Even after the spit there would be better co-operation on sharing common resources. It would be a win or a loss for both owing to the separation.</t>
+  </si>
+  <si>
+    <t>Generally the Sagittarius guy and an Aquarius girl find it difficult to hold long together in a relationship that the end comes quicker than expected. But when it comes both would deny that and acknowledge that you haven't be in one till date.</t>
+  </si>
+  <si>
+    <t>A Virgo woman and an Aquarius man stay together for life but if circumstances demand a separation then there would be a mutual agreement for the split. There would be not many hard feelings and you just put back your past and sprint forward. Both like to take life as it comes its way without any regrets.</t>
+  </si>
+  <si>
+    <t>The combination of a Scorpio woman and an Aquarius man would last a lifetime and even more. But then if fate would have it to end then there would be much civility involved in the split. Both would hide your pains and have respect for the other. Even after a long period of separation, you would have hopes for each other and yearn for a happy relationship yet again.</t>
+  </si>
+  <si>
+    <t>Between the Sagittarius female and the Aquarius male in a relationship, true love is difficult to find that the chances of a rift are very likely. But both deny that you are in a relationship either. Hence the split would be more than comfortable for both.</t>
+  </si>
+  <si>
+    <t>When an Aquarius man and an Aquarius woman in a relationship decide to end your journey together, you just turn your back on each other and face off in your own individual roads ahead. But the results would be doing more harm than good for both. Also, you cannot travel too far from each other as you have none other than your respective partners for future troubles to be handled.</t>
+  </si>
+  <si>
+    <t>When the end comes it would be most likely to be initiated by the Leo woman. Because Pisces usually carry on an indefinite motive in life. When the bubble bursts there would be many wounds on both the sides. Though you would not admit that the end of the road is near, it would be imminent. The Leo girl would finally come to live in the real world.</t>
+  </si>
+  <si>
+    <t>Incompatibility in the relationship would have created an un-cleanable mess that the end would be full of resentments and anger for the duo. Both feel that you have wasted your life with the wrong guy/girl. The Pisces guy would have already settled in a new-found relationship. But the Virgo female finds it a little difficult to lead a life with worries and anxieties bothering here spirits.</t>
+  </si>
+  <si>
+    <t>When a Libra woman and a Pisces man in a relationship have decided to quit your partnership or relationship it would be a beautiful end. There would be no grudges or false promises. Though the relationship could not survive you make sure that you just love the other one for life.</t>
+  </si>
+  <si>
+    <t>This is a very compatible combination that is unlikely to end in any case. But if at all rifts appear and the duo decides to part ways then it would be a difficult split for both. Neither can live without the other. There would be mutual appreciation and dependence that simply coping in life without the other would be a Herculean task for both that it is better if you stay put together.</t>
+  </si>
+  <si>
+    <t>When the relationship turns sour it would be more of a cordial send off for both. There would be no hard feelings and grudges held for long. you bid goodbye to each other with a smile and relish the nice moments you had together in life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There would not be much compatibility with this duo in life. Even if you stick together it won't last long enough. His possessive nature and her flirting would play spoilsport here. Though things would be good initially with time the relationship turns sour. Only compromise and commitment can take the relationship far. Compatible relationship is something that eludes this duo and it would be an enigma for both. </t>
+  </si>
+  <si>
+    <t>You two make a really great combination. You're both Water signs, which means you're capable of incredible depths of emotion; in fact, Scorpio is one of the few signs that can provide Cancer the emotional security and connectedness that the Crab really thrives on. This is really important to both of you. You both have hard shells that are difficult to penetrate, but you understand one another well enough to give each other the sanctuary you both crave.
+There would be a greater level of compatibility between a Cancer woman and a Scorpio man.
+Both are very passionate and romantic signs and hence there would be no lack of the same. Both are loyal and faithful to each other. 
+you protect the other and make your feel as part of one being. Both being watery signs, emotions just flow. Tolerance would keep the going easier for the duo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, this is an interesting combination. At first glance, this doesn't seem like the best fit, but on looking closer, you two might share an understanding that could be a good foundation for a relationship. You're both very emotional people, Scorpio even more so than Libra. In fact, that may be the only source of trouble between you, though a big one: Scorpio's fits of jealousy and other emotional extremes could scare harmony-loving, flirtatious Libra away.
+A Libra woman and a Scorpio man would not have much compatibility when you are in a relationship. Initially there would be a strong attraction with this duo but with time there would be strains involved. The Scorpio guy's strong-headedness might not be taken well by the Libra girl.
+Also her love of freedom would not be liked by the Scorpio guy. The duo would be packed with much energy and power. Scorpio provides the power and the Libra woman would give in for the social commitments. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two are very different. You may forge a friendship, as you both possess adventurous, courageous souls and you love intensity of experience; but Scorpio, you're a lover at heart, seeking connection and security, while Sagittarius is an explorer who seeks nothing so much as freedom and knowledge. Sag, you may unintentionally provoke Scorpio's passionate -- and jealous -- nature. You'll connect best when there is no expectation of dependency between you.
+There would be some compatibility issues between a Scorpio man and a Sagittarius woman in a relationship as your natures differ widely. There would be constant rifts and lack of romance here with this combination. The Scorpio guy is an introvert sticking to his cozy couch while the Sagittarius girl is an extrovert and a lover of freedom and independence. Hence there would be constant nagging and fights here. There would be endless differences. However you have the mutual tendency to appreciate each other. There would be a fair play with this duo. Scorpio's instinct and Sagittarius' intuition takes your long together and truth and loyalty would be the keywords of this pair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two make such a good team. There's a lot of admiration and respect between you, and you're quite similar in your ambitious, security-seeking natures. You share some fundamental values that strengthen your connection. You do share some negative traits, too -- controlling natures, rigid thinking -- and Scorpio, you're more emotionally intense, while Capricorn tends toward aloofness; but when working together toward a common goal, you're unbeatable.
+There would be much compatibility between a Scorpio man and a Capricorn woman in a relationship. you would last long together if you compromise on your negative traits. you share a greater chemistry with each other. The Scorpio man would bring out the passion in the Capricorn woman. She in turn would give him the much needed security in life. There would be a perfect balance between the two. Together you strive to achieve higher status in the society around your and in your professional lives. Material resources mean a lot to your. </t>
+  </si>
+  <si>
+    <t>Your connection could be similar to air and water battling during a thunderstorm. The problem is, you're both stubborn and you both want it your own way. Scorpio, when you run up against a wall of opposing will, you tend to get emotionally manipulative -- not to mention sensitive. But Aquarius, your approach is intellectual; you're turned off by all that emotional intensity. Yours will definitely be a battle of wills, as Scorpio tries to bond and Aquarius tries to resist.
+The Scorpio man and an Aquarius man have a better compatibility in your relationship as the chemistry between your is just great. Though there would be differences between your you make all efforts to erase these. The Scorpio man would be much possessive that would annoy the Aquarius girl. She in turn would be outgoing which might make him feel insecure with life. But then you have strong willpower and mutual purpose in life that gels your together. Though there would be lack of compromise and warmth, certain reasons compel your to be together for life. The Scorpio guy is one who cannot be taken for granted and the Aquarius girl would be out of bounds that it would be impossible for any other signs to carry on life with this duo than you yourselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You truly understand one another's emotional depths. Your connection is fluid and intuitive; lots of times you'll feel as if you can sense the other's thoughts. You communicate on lots of levels, not just verbally. Pisces, you won't mind Scorpio's possessive nature or intensity; you understand that it comes from a deep desire to connect, which is a drive that you share. You're both romantic, sensitive and responsive, and will be overwhelmed by the connection you share.
+The Scorpio man and a Pisces woman share deep levels of compatibility in a relationship. you share a great chemistry as you match on an emotional level. Feelings drift about seamlessly here with this pair. The relationship would be packed with love, loyalty and honesty. The Pisces girl brings out the best in the Scorpio man. He in turn would be so protective of her and gives the security she desires for in life. Possessiveness would be the only negative trend in this combination. This is simply a relationship made in heaven. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two make a great team. You have twin fiery natures and are always on the go, whether together or on your own. In fact, this is your strong point as a couple: You're both very independent and understand each other's need for freedom. This is a great combination -- as long as your expectations aren't too high for making long-term plans.
+The Aries woman and the Sagittarius man are compatible with each other both on the mental as well as the spiritual plane. 
+Her impulsive nature and his spontaneous nature just complement each other. The Aries woman would find the Sagittarius man interesting to live with but sometimes his direct talks might hurt her feelings.
+This is one the most adventurous duo in the zodiacs. Each one forgives the other easily and you do not hold grudges for long. Much honesty would also be involved here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two have such a great, fun-loving connection! You both have sunny, optimistic natures; neither of you likes to waste time wallowing in boredom or depression. Gemini, your trickster nature appeals to Sagittarius's sense of fun and adventure. Your relationship is characterized by activity, adventure, getting out into the world and trying new experiences. With you two on the same team, anything and everything goes.
+A Gemini woman and a Sagittarius man though not much compatible for life can drag along by your sheer conversational skills. Though your emotional levels differ, on a mental scale you balance each other. The flirting Gemini usually knocks off the Sag guy. Being opposite signs you are likely to attract each other but then your undemonstrative behavior would create rifts in the relationship. Socializing is a common topic for both to hang on together. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, boy. How are you two going to find common ground? You're just so different, and each needs something the other has a very hard time providing. The Crab draws into its shell at the first sign of anything new or unfamiliar, while the Centaur thrives on the new and unfamiliar. Sag, the only way this can work is if you let Cancer be Cancer -- don't try to drag the sensitive Crab off to the middle of nowhere. And Cancer, you need to afford Sag plenty of freedom.
+Between a Cancer woman and a Sagittarius man, better compatibility would exist. But then the Cancer woman might find it difficult to understand the Sagittarius man's adventurous personality.
+She needs constant reassurance which would not be met by her partner. However, if both of your feel secure in the relationship then it would be great. 
+The Cancer woman would provide the feminine approach and he the masculinity to the combination. Life would be creative and resourceful for this pair. Particularly you complement your artistic pursuits. </t>
+  </si>
+  <si>
+    <t>When you two work together, utilizing both your strengths, you can really make things happen. The hard part is learning how to cooperate without stepping all over each other's toes (and feelings)! You're just so different; Virgo, you pay close attention to the trees, while Sagittarius, you're flying high above the forest. Virgo is frugal, reserved and grounded in practicality, whereas Sagittarius is an idealistic dreamer who sees no reason to curtail any urge.
+The Virgo woman and the Sagittarius man have a compatible relationship though you have different personalities. The Sagittarius man is after adventure and fun while the Virgo girl would be very serious about life.
+She lives life to perfection while he takes life as it comes its way. She would be more careful and is fond of a loyal partner while he may flirt or stray at times.
+But then you share mutual interests on an intellectual level and have common friends who keep your grounded. you have your own private life separately as well. But your love for the good things in life keeps your bonded for life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two can really keep up with each other! You both have lots of friends -- in fact, between the two of you, you know pretty much everyone in town -- and you both love living in the midst of a beehive of social activity. Sagittarius, you're freedom-loving to the core and you might find Libra to be just a bit clingy, but that's okay -- you're both such good-humored, carefree types, you shouldn't encounter many real problems in your relationship.
+A Libra woman and a Sagittarius man are found to be very much compatible in a relationship. This is one of the strongest combinations in the zodiacs. But the duo would not be comfortable if the commitment to the relationship is warranted. Together you enjoy the good things in life.
+Each takes his or her freedom in the right sense and there would be much excitement and enjoyment here with this pair. you share great insights into human behavior. But emotions and feeling have no say here. you do not yearn for perfection but try to oversee the other one's mistakes in life. you create a positive vibe around your despite tough times too.
+</t>
+  </si>
+  <si>
+    <t>You two are very different. You may forge a friendship, as you both possess adventurous, courageous souls and you love intensity of experience; but Scorpio, you're a lover at heart, seeking connection and security, while Sagittarius is an explorer who seeks nothing so much as freedom and knowledge. Sag, you may unintentionally provoke Scorpio's passionate -- and jealous -- nature. You'll connect best when there is no expectation of dependency between you.
+The compatibility between a Scorpio woman and a Sagittarius man would not be that great. Usually this combination doest not meet with success as both the signs have many dissimilarities among yourselves. The Scorpio girl needs commitment and security in life while the Sagittarius guy is a jolly-go-lucky fellow who is not there for any sort of commitment. wants his freedom and ample time for adventure. He is not one to co-operate in domestic endeavors too. But then both are lovers of truth and righteous living and this takes your together. If you could consolidate your fortes like the intelligence of the Sagittarius and the instincts of the Scorpio, then this relationship can work out well for the long run ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow, two Sagittarians together -- this could be a wild ride! You two are great buddies, first and foremost. You have the same idea of what's fun: friends, action, adventure, always trying new things and being on the go. Your relationship is flexible and informal, and you both love it that way. You both need freedom, and you understand that quality in one another. If you do create a deep and lasting bond, it's likely to be pretty exciting!
+When a Sagittarius man and a Sagittarius woman are in a relationship much compatibility can be seen. Both would be highly adventurous and extroverts that there would not be any personal or private interests. you are very enthusiastic and have a positive approach to anything in life. Together you have fun and laughter and good times for long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you two are able to form a relationship, it will have to be based on appreciating the many differences between you. The problem is, you're nearly opposite in nature: Sagittarius is unconventional, undisciplined and thrives on freedom and risk-taking; Capricorn is conservative, highly disciplined, and values security. This Sign won't take risks unless You're well-calculated. You two could do well in business together, but perhaps not in a more intimate relationship.
+Though initially, the relationship between a Sagittarius man and a Capricorn woman seems to be a smooth sailing, with time there would be commotion. you are opposite in nature and hence only compromises and commitment shall help the duo to survive in the relationship. The Sagittarius Man is not one for commitment ad this might make the Capricorn girl feel insecure and he would not like her strong and extrovert nature. But then both are skill-oriented in your own worlds. The Sagittarius man's optimism and the Capricorn girls' intellect just compliment each other. Together you would strive to enjoy the good things in life. Usually, this combination consists of personalities belonging to different class/ age/cultures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two make great friends and travel companions. The foundation of your relationship is your twin philosophical natures; you both love to explore an idea -- or a city, or a relationship -- to its outer limits. You both thirst for knowledge, experience and freedom, and together you can find all of these things. Yours won't be the most touchy-feely, romantic relationship around, but that works for you. You're too busy delving into the world to bother with hearts and flowers.
+A Sagittarius man and an Aquarius woman in a relationship are usually very compatible. This is one combination where the chemistry would be just perfect and there would be wholesome happiness all day long. Both yearn for variety and fun in life and make sure that your partner gets an equal dose of the same. The Sagittarius man would be intellectually aroused by his partner. She in turn would be turned creative by his efforts and encouragement. you have a broader perspective of life. Conventional ideas do not attract your, instead you look for out-of-the-box experiences. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two have a lot of similarities, but your ideas (and ideals) will either match up or You'll be poles apart. Part of the problem here is that you both change your minds so often! Especially Pisces -- you're indecisive and changeable, and tend to just go with the flow. That quality works well with Sagittarius, who's always charging off to one adventure or another. However, Pisces is very sensitive; Sag, you may find yourself hurting this Sign's feelings without meaning to.
+Not much compatibility would be found when a Sagittarius man and a Pisces woman are in a relationship. Though the chemistry between your would be just ideal for a long-term relationship, you need to prune your relationship now and then if it has to survive the tests of time. The Sagittarius guy's lack of commitment and flirting drives the Pisces girl to nuts. Her dreamy nature and living in a fantasy world would throw the Sagittarius man out of gear. Lack of common focus drives your away from each other. It is however great when the duo is young and without any familial commitments. 
+</t>
+  </si>
+  <si>
+    <t>At first glance, you two seem to have nothing in common. Aries loves taking risks, while Capricorn loves to plan -- far, far into the future. But on second thought, you do have a lot in common: you're both driven and ambitious, and approach life with single-minded intensity. Your values are quite different, and Aries tends to switch tracks much more often than Capricorn.
+The Aries woman and the Sagittarius man are compatible with each other both on the mental as well as the spiritual plane. 
+Her impulsive nature and his spontaneous nature just complement each other. The Aries woman would find the Sagittarius man interesting to live with but sometimes his direct talks might hurt her feelings.
+This is one the most adventurous duo in the zodiacs. Each one forgives the other easily and you do not hold grudges for long. Much honesty would also be involved here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What you two have in common is your dry sense of humor and your resourcefulness. Other than that, I can't really see much more common ground. Capricorn, you're all about planning ahead, taking only calculated risks and being responsible, dutiful and self-disciplined in your approach to life. Gemini, do you recognize yourself in any of those traits? I doubt it. Furthermore, you can both be rather undemonstrative, so your bond might be cool at best.
+A Gemini woman and a Sagittarius man though not much compatible for life can drag along by your sheer conversational skills. Though your emotional levels differ, on a mental scale you balance each other. The flirting Gemini usually knocks off the Sag guy. Being opposite signs you are likely to attract each other but then your undemonstrative behavior would create rifts in the relationship. Socializing is a common topic for both to hang on together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two make a great combination, particularly long-term. In your case, opposites attract but also work in harmony. On the surface, Cancer is oriented toward home and hearth while Capricorn is career-oriented, but you share some rather traditional values and you're both highly security conscious (Cancer, you want emotional security; Capricorn, you want financial and material). You both want comfort you can count on, and you'll create that together.
+Between a Cancer woman and a Sagittarius man, better compatibility would exist. But then the Cancer woman might find it difficult to understand the Sagittarius man's adventurous personality.
+She needs constant reassurance which would not be met by her partner. However, if both of your feel secure in the relationship then it would be great. 
+The Cancer woman would provide the feminine approach and he the masculinity to the combination. Life would be creative and resourceful for this pair. Particularly you complement your artistic pursuits. </t>
+  </si>
+  <si>
+    <t>When you first meet, you may realize right off that you've met your match. You just share so many similar values and goals, it'll be hard not to feel as if your relationship were destined to be! And my guess is, it will naturally move toward a long-term commitment, as neither one of you tends to be superficial in matters of the heart -- or anything else. Capricorn, you tend to be a bit materialistic, but Virgo will appreciate your thrifty approach to finances.
+The Virgo woman and the Sagittarius man have a compatible relationship though you have different personalities. The Sagittarius man is after adventure and fun while the Virgo girl would be very serious about life.
+She lives life to perfection while he takes life as it comes its way. She would be more careful and is fond of a loyal partner while he may flirt or stray at times.
+But then you share mutual interests on an intellectual level and have common friends who keep your grounded. you have your own private life separately as well. But your love for the good things in life keeps your bonded for life.</t>
+  </si>
+  <si>
+    <t>You two are pretty different. You do both have expensive tastes, but Libra, you tend to be more artistically minded than Capricorn; Capricorn, you just like expensive things to show you can afford your! Libra will appreciate your ambition, however, because it pays the bills, but this sign's tendency toward extravagance (read: big spender) could make you very uncomfortable. But when finances aren't an issue between you, this could be a mutually beneficial bond. 
+A Libra woman and a Sagittarius man are found to be very much compatible in a relationship. This is one of the strongest combinations in the zodiacs. But the duo would not be comfortable if the commitment to the relationship is warranted. Together you enjoy the good things in life.
+Each takes his or her freedom in the right sense and there would be much excitement and enjoyment here with this pair. you share great insights into human behavior. But emotions and feeling have no say here. you do not yearn for perfection but try to oversee the other one's mistakes in life. you create a positive vibe around your despite tough times too.</t>
+  </si>
+  <si>
+    <t>You two make such a good team. There's a lot of admiration and respect between you, and you're quite similar in your ambitious, security-seeking natures. You share some fundamental values that strengthen your connection. You do share some negative traits, too -- controlling natures, rigid thinking -- and Scorpio, you're more emotionally intense, while Capricorn tends toward aloofness; but when working together toward a common goal, you're unbeatable.
+The compatibility between a Scorpio woman and a Sagittarius man would not be that great. Usually this combination doest not meet with success as both the signs have many dissimilarities among yourselves. The Scorpio girl needs commitment and security in life while the Sagittarius guy is a jolly-go-lucky fellow who is not there for any sort of commitment. wants his freedom and ample time for adventure. He is not one to co-operate in domestic endeavors too. But then both are lovers of truth and righteous living and this takes your together. If you could consolidate your fortes like the intelligence of the Sagittarius and the instincts of the Scorpio, then this relationship can work out well for the long run ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you two are able to form a relationship, it will have to be based on appreciating the many differences between you. The problem is, you're nearly opposite in nature: Sagittarius is unconventional, undisciplined and thrives on freedom and risk-taking; Capricorn is conservative, highly disciplined, and values security. This Sign won't take risks unless You're well-calculated. You two could do well in business together, but perhaps not in a more intimate relationship.
+When a Sagittarius man and a Sagittarius woman are in a relationship much compatibility can be seen. Both would be highly adventurous and extroverts that there would not be any personal or private interests. you are very enthusiastic and have a positive approach to anything in life. Together you have fun and laughter and good times for long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two work hard at everything, including your relationship. Your Sign is connected with Saturn, which means you're serious-minded, responsible and practical. The good news is, you know you can depend on each other. Neither of you will drain the other's wallet or emotions, and you'll work together toward common goals and shared ambitions. This could become a rather dry, tedious relationship -- but you're so similarly driven, you may not even notice.
+Though initially the relationship between a Sagittarius man and a Capricorn woman seems to be a smooth sailing, with time there would be commotion. you are opposite in nature and hence only compromises and commitment shall help the duo to survive in the relationship. The Sagittarius Man is not one for commitment ad this might make the Capricorn girl feel insecure and he would not like her strong and extrovert nature. But then both are skill-oriented in your own worlds. The Sagittarius man's optimism and the Capricorn girls' intellect just compliment each other. Together you would strive to enjoy the good things in life. Usually this combination consists of personalities belonging to different class/ age/cultures. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to your connection to Saturn, your personalities could mean your connection will never be very warm or close. That doesn't mean you can't form a long-term bond; it just means you'll be somewhat separate and detached, no matter what path your relationship takes. That could work, though, especially if you share a common goal to pursue. You're both quite independent and undemonstrative, but once you make a commitment, you'll both see it through to the end.
+A Sagittarius man and an Aquarius woman in a relationship are usually very compatible. This is one combination where the chemistry would be just perfect and there would be wholesome happiness all day long. Both yearn for variety and fun in life and make sure that your partner gets an equal dose of the same. The Sagittarius man would be intellectually aroused by his partner. She in turn would be turned creative by his efforts and encouragement. you have a broader perspective of life. Conventional ideas do not attract your, instead you look for out-of-the-box experiences. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All in all, you two complement one another very nicely. Capricorn's practical, materialistic nature paired with Pisces's emotional, sensitive one makes a well-rounded team. But Capricorn, you may find yourself growing impatient at times with Pisces's wishy-washy dreaminess, and Pisces, you could be baffled by Capricorn's need for logic, efficiency and security; in fact, there will be plenty of times when you just don't get each other.
+Not much compatibility would be found when a Sagittarius man and a Pisces woman are in a relationship. Though the chemistry between your would be just ideal for a long term relationship, you need to prune your relationship now and then if it has to survive the tests of time. The Sagittarius guy's lack of commitment and flirting drives the Pisces girl to nuts. Her dreamy nature and living in a fantasy world would throw the Sagittarius man out of gear. Lack of common focus drives your away from each other. It is however great when the duo are young and without any familial commitments. </t>
+  </si>
+  <si>
+    <t>You make a good match. You both crave independence and freedom and are willing to try anything once. Aquarius can be pretty out there, which is fine -- Aries isn't afraid of anything! Your relationship will center on social activities; expect to be surrounded by friends, but don't forget to take some time alone as well!
+The Aries woman and the Aquarius man would take some time to adjust to each other. But you appreciate each other and have mutual respect and trust.
+The Aquarius man's sense of adventure and the intelligence and passion of the Aries just get together easily. There would be occasional rifts which could be untied easily.
+Lots of commitment and courage would be found in this pair. Both would be goal oriented and have social inclinations and hence the going would not be that tough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could be a great connection for both of you. You share a sharp, original intellect and a deeply-rooted love of freedom; neither of you is interested in tying the other down to a life of routine. You can both be somewhat unemotional and detached, which suits you both just fine. Your relationship will be unconventional, and communication and experience are the foundation of your bond.
+A Gemini woman and an Aquarius man make compatible partners in life. Both are intellectuals, seek adventure, like change and do not stick to plans. you understand the needs and feelings of the other half without much effort. Together you make a happy-go-lucky combination. Both are found to be extroverts and have so many tasks to fend in life that you hardly stay in each other's company for long. </t>
+  </si>
+  <si>
+    <t>You two really have very little in common. Where Cancer is emotional and nurturing, Aquarius tends toward aloofness and detachment. Cancer, you're interested in creating a comfortable, satisfying home life; Aquarius, you want to get out there and save the world. I'm scratching my head trying to think of what the common ground here is, and I'm at a loss. If you're willing to learn from one another -- and I know you're not -- you could forge a good connection.
+The compatibility shared between a Cancer woman and an Aquarius man would not be that great. This is because you are completely opposite signs. The Aquarius guy's too many friendships and his sense of freedom just cannot be digested by the Cancer girl easily. She would be much sensitive and emotional that the Aquarius guy cannot decipher. Reconciliation would be a tough task with this duo. For the Cancer woman the world is just her small home but for the Aquarius guy it would be universal. If the Cancer woman would just tend to the homely needs and he caters to the money-making side involving the outer world then there would be goodness in this combination. Else there would be conflicts in this relationship more often than expected.</t>
+  </si>
+  <si>
+    <t>This is definitely a case of opposites attract, because you two couldn't be more different! While the fun-loving, attention-seeking Lion adores its place in the sun, the cool, aloof Water Bearer absolutely doesn't care about being the center of attention. Your connection is either great or awful; it's like a seesaw -- constantly in motion, and it's up to you to find the balance. But you do have fun together, and between the two of you, you know everyone in town.
+The Leo woman and the Aquarius man share a compatible relationship in life. If the Leo woman would give the Aquarius man his due share of freedom and teach him the intricacies of a bond then there would be no issues.
+The Leo girl wants attention, love and warmth which the Aquarius guy should be more than willing to offer, but it is not his usual cup of tea.
+If both stay away from criticism then there would be bliss with this combo. you share better chemistry and there would be alternating moments and of hot and cold endeavors. The daring Aquarius guy just sweeps off his lioness by his thrills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're a good match in intellectual pursuits, as Virgo's propensity for analysis and detail combined with Aquarius's vision can produce some really creative ideas. But what's that got to do with love? You both tend to be rather aloof emotionally, so your emotional connection might never grow very strong. There is a Karmic connection between you and you could make good friends but that may be as far as it goes.
+A Virgo woman and an Aquarius man share a compatible life. This is a combination that lives by "love at first sight". This would be one of the magical pairs in the zodiac.
+The duo is great in dating, marrying and raising a family. you just seem loaded with much positive energy that takes your together. But then the initial attraction might wither out with time if the duo does not keep up with your commitment. His intelligence and logic regarding life simply sweep her off her feet.
+His universal appeal would also convince her but then she should be able to take it in the right spirit. Else the relationship would be heading for trouble. If each lives his or her own way and gives space for the other then there would be bliss here.
+</t>
+  </si>
+  <si>
+    <t>You two do have a lot in common, especially your strong intellectual connection. But beyond that great exchange of ideas, you're rather different. Aquarius, you tend toward aloofness and detachment, while Libra, you want to latch on and hold. You're all about companionship, so when Aquarius runs off on a new project or pursuit, you'll want to follow along. Your combined social circles will be huge, and will provide lots of fun for you both.
+A Libra woman and an Aquarius man share a compatible life together. The Libra girl makes the Aquarius guy committed in life. The Aquarius man's adventurous spirit would be liked by her and he, in turn, would like her balanced approach towards life.
+There would be no domineering and you bring out the best in your partners. However being airy signs there would be some detachment in the relationship. The Aquarius male needs the Libra female to complete his socializing tasks. Libra brings balance to the relationship despite odds at times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your connection could be similar to air and water battling during a thunderstorm. The problem is, you're both stubborn and you both want it your own way. Scorpio, when you run up against a wall of opposing will, you tend to get emotionally manipulative -- not to mention sensitive. But Aquarius, your approach is intellectual; you're turned off by all that emotional intensity. Yours will definitely be a battle of wills, as Scorpio tries to bond and Aquarius tries to resist.
+As there is marked differences in the nature of a Scorpio woman and an Aquarius man, there would be issues with this pair. For the relationship to work much commitment and understanding is asked for. But both being intelligent will never run out of ideas for work and conversation. The Scorpio girl asks for security in life which the Aquarius guy would be unwilling to give and his sarcasm would drive her nuts. As both are energetic this would be a powerful combination that can accomplish things if you agree not to disagree. The Scorpio woman would not be able to pocket him with her seduction tricks as she can with the other signs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two make great friends and travel companions. The foundation of your relationship is your twin philosophical natures; you both love to explore an idea -- or a city, or a relationship -- to its outer limits. You both thirst for knowledge, experience and freedom, and together you can find all of these things. Yours won't be the most touchy-feely, romantic relationship around, but that works for you. You're too busy delving into the world to bother with hearts and flowers.
+Better compatibility exists between a Sagittarius woman and an Aquarius man in a relationship. There would be true love found here and each enjoys his or her freedom. Passion rules the roost here , but then you are not much dependent on each other in life. Life would be full of ups and downs and you enjoy it together. Both are out of conventional lifestyles and like to have fun and adventure in life. you are interested in out-of-the-box topics and are seen to venture together in these areas.
+</t>
+  </si>
+  <si>
+    <t>Due to your connection to Saturn, your personalities could mean your connection will never be very warm or close. That doesn't mean you can't form a long-term bond; it just means you'll be somewhat separate and detached, no matter what path your relationship takes. That could work, though, especially if you share a common goal to pursue. You're both quite independent and undemonstrative, but once you make a commitment, you'll both see it through to the end.
+There would not be much compatibility between a Capricorn woman and an Aquarius man in a relationship. Much love and commitment cannot be seen though you would get along well as friends in life. The Aquarius man would be an extrovert and a flirt which would not be taken well by the conservative Capricorn girl. If you agree to disagree then there would be goodness in the relationship. Here with this duo, the Aquarius man gives the vision and the Capricorn girl brings it down to reality. A hidden bond just binds your together despite your differences in opinions. you just complement each other in life.</t>
+  </si>
+  <si>
+    <t>Two Aquarians together? Wow -- this ought to be interesting. You're probably apart more often than you're together, and that's probably okay with you. You both have interesting and varied lives that command your attention, and the intimate connection between you is likely to be detached at best. Because you're Fixed Signs, you are capable of a commitment, but if you do form a long-term union, it definitely won't be traditional. You're too bohemian for that.
+When an Aquarius man and an Aquarius woman are in a relationship, it would be a very compatible affair as too much of an Aquarian character would not be seen in the combination. you stay as best friends for life and do not like to get into the fold of a committed marriage or relationship. Being airy signs you do all the talking and just know about everything under the sky. There would be better understanding with this duo.
+Aquarius Man-Aquarius Woman Compatibility
+Famous Aquarius-Aquarius Couples
+• John Brolin and Diane Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though Gemini is far less emotional than Pisces, you actually have plenty in common. You're both indecisive and impressionable, adaptable and flexible, as changeable as the currents or the winds. Because of these similarities, you enjoy an innate understanding of each other's natures. Pisces can follow Gemini's whims with less trouble than other signs, and Gemini understands Pisces's unrealistic side, but you both tend toward grand schemes with little practical foundation.
+The level of compatibility with this pair would be on an average scale only. Initially, there would be much attraction between the Gemini woman and the Pisces man, but then things start to change for the worst. 
+The only compromise can take the relationship far off. The Gemini's sharp tongue usually hurts her Pisces partner and he would not be able to comprehend the moves of his flirting partner. 
+But then you are friendly and love talking around about others but forget to talk out your differences in life. </t>
+  </si>
+  <si>
+    <t>You two are so similar in nature; you're both romantic, sensitive dreamers, so much so that at times it'll seem as though you can read each other's minds. You share big dreams, and Cancer, you can help Pisces make those dreams become reality. You're connected on a deeply emotional level. Sensitive Cancer tends to get its feelings hurt, but Pisces, you're so tuned in and nurturing, you'll help nurse Cancer out of any hurt and vice versa. I think I can hear harps playing ...
+The Cancer woman and the Pisces man make a great combination which is compatible with both are emotional characters.
+The Pisces guy makes the Cancer woman secured in life. She, in turn, gives him much importance in her life. you make a romantic and beautiful relationship.
+Both are watery signs, hence emotions run deep down. There would be a great bond that binds your.
+The only negative is that both should come out of your dreamy world and live in reality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it's good between you, it's great ... but when it's bad, it's awful. You're opposites, in the Zodiac as well as in life. You're both flexible, accommodating and nurturing, and you're willing to look after each other. You balance one another well -- Virgo, you can help Pisces take care of the mundane side of life, and Pisces, you can show Virgo the importance of romance and emotion -- but also tend to try each other's patience.
+A Virgo woman and a Pisces man do not have many things in common that compatibility is a matter of question here. Being opposite signs you do attract but will not be able to keep up with the tides of life.
+The Virgo girl would like his intellect and dreams and he would be captivated by her practicality towards life. Emotions would rule the roost here with this pair.
+But if the Pisces guy lives in fantasy then this relationship is doomed to destruction. Virgo's perfection and Pisces' chaos simply cannot get along easily in life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You truly understand one another's emotional depths. Your connection is fluid and intuitive; lots of times you'll feel as if you can sense the other's thoughts. You communicate on lots of levels, not just verbally. Pisces, you won't mind Scorpio's possessive nature or intensity; you understand that it comes from a deep desire to connect, which is a drive that you share. You're both romantic, sensitive and responsive, and will be overwhelmed by the connection you share.
+This is one combination that has the best compatibility for a relationship among the zodiac signs. The Scorpio woman and the Pisces man have a sort of attraction that binds your together. you would be loyal and are fully committed to your partners. The Scorpio girl would help the Pisces man attain his dream and he would give her the security she yearns for in life. you would be perfect partners for each other. you strive to bring out the best in each other. As both Scorpio and Pisces understand deep feelings and bond with others easily, this would be an easy combination. </t>
+  </si>
+  <si>
+    <t>You two have a lot of similarities, but your ideas (and ideals) will either match up or You'll be poles apart. Part of the problem here is that you both change your minds so often! Especially Pisces -- you're indecisive and changeable, and tend to just go with the flow. That quality works well with Sagittarius, who's always charging off to one adventure or another. However, Pisces is very sensitive; Sag, you may find yourself hurting this Sign's feelings without meaning to.
+The Sagittarius female and a Pisces man do not have much compatibility when you are together in a relationship. Only effort and constant commitment shall see this relationship through troubles and turmoil in life. The Sagittarius girl is an adventurer who wants her fair share of freedom while the Pisces guy is a sensitive one not much bent on adventure. This would result in frequent rifts. Though both are humanitarian in nature there would not be anything else in common that binds your together. Though the Pisces man is sensuous and willing to woo the Sagittarius girl off her feet, she is not one to look up to his whims and fancies.</t>
+  </si>
+  <si>
+    <t>"What happens when fire meets fire?" A blaze of bonfire proportions! Things happen fast -- you fall in love like a ton of bricks, but you could fall out just as abruptly. You're quick to fight and quicker to make up (be careful not to burn the sheets!). This combo might flash to life, flame white-hot and then burn itself out.
+The compatibility between an Aries man and an Aries woman depends on how each one would view the other's freedom. Better compatibility would exist if you shed your individual signage. In a relationship both the Aries individuals should make all efforts to come closer and respect each other's private space or territory as well.
+Both should make sure that you put your competitive nature and egos on the back burner. You can either like each other so much or hate each other so much, there is no in-between. Anyone of the Aries needs to bend a little for the going to get smoother. 
+Aries and Aries together in a relationship make a lively show. There would be much excitement and joy in the relationship, the only thing is that "things should be kept under total control avoiding any sort of over-indulgence."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the going gets tough then this combination ends with a clean slate. There would be much honesty involved and there would be no room for feelings and emotions here. You do not carry any bad luggage from the relationship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Much physical sensuous nature would be involved in this duo. The Aries man has an athletic build-up a pre-requisite for good sex. Taurus woman likes to be handled well. Though much fire would not be involved here, sex would be highly satisfying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a good combination for marriage. Both the Aries man and the Taurus woman are committed, hardworking and have high values regarding the institution of marriage. Both Your aims would be to have children, a good house, better finances, a long-term relationship, etc and hence the going would be easier here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Aries man and a Taurus woman make a good friendship duo too. Each would be focused on his/her task at hand. He would give the inspiration to get things done and the Taurus lady, in turn, would lend a helping hand. Together You can go miles. The only drawback comes when Your ideas and goals are on different wavelengths.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This combination of an Aries man with an Aries woman probably has the highest compatibility for romance among all the zodiac combinations. This relationship is all about passion in all its exciting and sensuous forms. The spark in the romance would never die. The Aries man would not fear the Aries woman's competence and independent spirit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a marriage, the Aries with Aries combination calls for mutual growth, adventure, fighting and taking challenges head-on. When it comes to routine married people's tasks like rearing children, maintaining better financials and the like, there would be troubles. This combination is not much suited to a domestic life. There would be also some troubles when one of the people gets more dependent on the other either physically, financially or mentally.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be much openness and spontaneity here in this combination. Impulses are welcome and the moment is always right for having sex.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This relationship can end as quickly as it had started. Once the relationship ends there will be no looking back. It would be a do or die situation for both the partners involved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You two make great friends and lovers. Aries is quick-blooded and Gemini quick-minded; you both love constant action and you're willing to try anything once. This is a combination where life would never be boring and dull. Life would be packed with adventure, fun, frolic, and challenges. There would be occasional arguments but things soon settle down as and when it started. 
+Your enduring friendship will pull you through any hard times and could outlast a romantic connection, as sooner or later you're both likely to find interest in something -- or someone -- else.
+The Gemini woman keeps the Aries man busy with her constant takes and he would keep her on her toes always. Together there would be a lot of fun involved here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This Aries man and Gemini woman together do not make compatible friends for life. You are two different entities and do not get along easily on the social of each other. Lasting friendly relationship is not possible here with this combination.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aries is noted for its great romance and hence there would be much romance and thrills involved with this duo. The Aries man loves to chase and a Gemini woman likes to run like a female deer. This would be more than a romantic movie in the making.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a good combination for a compatible married life. Both honor and respect each others' freedom and wit and hence the going gets easy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex would be fast, furious with lots of fun with this duo. Both being extroverts like to have it just about anytime and anywhere and are equally sensuous. You also like to flirt around and share obscene texts while out of reach just to keep the inner fire burning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This relationship can come down easily and fast as it started. Both would not be bent on cleaning up the mess You created together once it has been understood that the party is over on both the sides.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Aries man is a highly romantic character and he would bring much romance and passion in the relationship. The Cancer female would be equally receptive to the romantic moves of the Gemini man.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This Aries man with Cancer woman is more compatible with marriage and its aftermath. Provided You have the true zodiac traits of an Aries and Cancer. Also, things would work out well if the Cancer woman is much younger than her partner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even when things go wrong, the Aries man makes sure that the Cancer woman has a secured future. One of the best known male partner among the counterparts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This combination does not make good friends in life. The Aries male would be more of an androgen version and the Cancer female would be more of a feminine character that friendship does not work well here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex out of marriage is ruled out in this combination. It would be more of a formal affair. The Cancer female would be very demure while the Aries man waits for her to turn him on. You do not venture into unknown territory in this area, as both take it as a ritual rather than an entertainment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex comes naturally for these two. You are very comfortable in this act and take it just like any other sport where you need a partner to team with. Much fore-play, and emotions would be involved in your love-making. Sex would be a source of rejuvenation to the mind and soul for both of this combination.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This duo experience the best of romance in life. It would be a life of fantasy for this duo. There would be frequent sensuous moves, kissing, hugging and like, and you would not be bothered by the outside world when the passion of fire has been lit, as both are falling under the fire sign.</t>
+  </si>
+  <si>
+    <t>The Aries man and the Leo woman make good friends for life. You have many activities and interests in common. The mutual trust and loyalty drive this combination towards a better comradeship in life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a good combination for a compatible marriage. Both are on common grounds, hence marriage and its aftermath would be a bed of roses for this duo. You take marriage as a greater source of strength and mutual comfort.</t>
+  </si>
+  <si>
+    <t>When things go wrong in this combination, each one does not hesitate to say that "I had the worst partner in life", although you have had a good time.</t>
+  </si>
+  <si>
+    <t>You may feel a sense of destiny when you come together — that with all the difficulties between you (and there are plenty), your connection is somehow fated. That's because you have so much to learn from one another. You'll earn Karmic brownie points when times get rough, which You probably will. Impulsive, heedless Aries is almost the polar opposite of reserved, considerate Virgo. You two will have to work hard to make it work.
+This combination would be occasional rifts due to the frequent unhealthy criticisms and nitpicking nature of the Virgo woman. Aries not like to take advice from others, unless commands.
+There would be arguments and misunderstandings and arguments. However the Aries man needs a trusted partner which he finds in the Virgo woman. On the other hand a Virgo woman is more than willing to be a service to her partner.
+As times passes by, life would be impossible for the Aries male without his partner. The Virgo woman however commands respect and appreciation from her partner in return.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This relationship is so romantic. The Virgo woman would bring out the best in her partner, the Aries Male. He on the other hand would be a protector of her and she uses him as a source of a shield from outside romantic attacks.</t>
+  </si>
+  <si>
+    <t>If Virgo is willing to serve the Aries, this makes a fantastic compatible duo for marriage. If assured of security in life, the Virgo woman would be more than willing to take care and organize Your life together in an excellent way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sexual chemistry between this duo is very great that sex would be a source of interest in this combination for long. There would be a sweet desire for this act as and when the moods change. Here the Virgo woman is likely to dominate the Aries male which is not a common thing in the outside world.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be better compatibility when compared to the other duos as both are extroverts, however, the temperaments are at the extremes. This is definitely a case of opposites attract. Libra has good taste, refinement and impeccable manners, all of which impulsive, headstrong Aries tends to lack. But Libra is utterly attracted to the excitement Aries brings to the table. You're both spontaneous and will try anything once, and you know what that means ...
+For an Aries man and a Libra woman in a relationship, initially things would be rosy. But will it stand the test of time would be a tough question to answer?
+The aggressive nature of the Aries man and the indecisive nature of the Libra woman might mar the growth of the relationship in the long run.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Much compatibility exists in the field of romance for this duo. Aries is one the best romantic signs being of fiery nature and Libra is receptive of the two. Hence there would be no dearth of romance and passion here. Aries loves being romanticized in the public as well by her partner.</t>
+  </si>
+  <si>
+    <t>There would be a compatible marriage between an Aries man and a Libra woman. Each would understand that You can find none better than Your present partner. In course of time, the marriage would weather the storms of life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For this combination, sex would be the food and water for life. Both have a good expectation of the other regarding this act and you make sure that you please the senses of your partner at all levels.</t>
+  </si>
+  <si>
+    <t>This relationship would last long enough until a third person steps in and mars the party. Usually, a love triangle would be set which might hamper the relationship. But both make sure that you do not step on each others' toes.</t>
+  </si>
+  <si>
+    <t>This is no sweet, restful match. You're both connected to Mars, the planet of Passion, which rules your relationship. Your intensity is white-hot and united by a common goal, you work together amazingly well -- but when your connection is challenged, watch out! Scorpio's waters run very, very deep; jealousy could become an issue between you, which could start some major battles.
+The mysterious ways and deep of the Scorpio female would be liked by the Aries man. If both agree to go path without trampling on each other's works then life would be bliss here.
+Scorpio woman would act as a good mirror of the Aries man in life. Each acts as a restraint for the other and hence the relationship would be kept under tethers without straying a bit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is tremendous potential in this couple for marriage compatibility. Both strive together to keep the marriage lines alive and hence this relationship would stand the test of time though occasional hitches cannot be ruled out here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex is something that improves the relationship between an Aries man and a Scorpio woman. You both take it more than a sportive event. Each competes with the other to satisfy the others' sensual needs. You get aroused easily at the sight of the other.</t>
+  </si>
+  <si>
+    <t>There would be occasional rifts and then the make-ups. Aries starts new things while the Scorpio would be ready to end your, resulting in misunderstandings. Though each might find the going tough, still get going. Make sure that the duo does not pass on your stormy emotions to your near and dear ones around.</t>
+  </si>
+  <si>
+    <t>This is one combination that is made in heaven. The intelligence of the Aries man and the creativity of the Sagittarius woman just complement each other.
+You two make a great team. You have twin fiery natures and are always on the go, whether together or on your own. In fact, this is your strong point as a couple: You're both very independent and understand each other's need for freedom. This is a great combination -- as long as your expectations aren't too high for making long-term plans.
+Together enjoy adventure and intellectual thoughts. Though occasional rifts cannot be ruled out here, this relationship would have a smooth sailing. 
+Good health and a happy family would be your top priority in life. Both are bent on relishing the hour at hand and do not care much about the future.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one of the combinations where much romance and passion are involved. You give wholly to each other and live a lively togetherness. Romance would be pursued with much commitment here in this duo.</t>
+  </si>
+  <si>
+    <t>This is a good combination for a compatible married life as well. But the Aries man would not be too much interested in domestic life while the Sagittarius partner shall take care of the mundane affairs of the household.</t>
+  </si>
+  <si>
+    <t>The Aries man and the Capricorn woman do not make friends easily as the way of setting goals and getting to the top would be completely different. The Aries impulsiveness and the Capricorn's procrastination usually collide on a negative note.</t>
+  </si>
+  <si>
+    <t>The Aries Ram and the Capricorn Goat get well compatible in the act of sex. There would not be any setbacks or reservations here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There would be a periodic clash of egos with this combination. Both take life in a business-like manner. However, both do not spend sleepless nights over spilled milk once have decided to part ways.</t>
+  </si>
+  <si>
+    <t>You make a good match. You both crave independence and freedom and are willing to try anything once. Aquarius can be pretty out there, which is fine -- Aries isn't afraid of anything! Your relationship will center on social activities; expect to be surrounded by friends, but don't forget to take some time alone as well!
+This is a relationship where the Aquarius woman does most of the managing. She takes in the impulsive and arrogant ways of the Aries man and converts this into kinder acts.
+This is one pair that would not get bored at any time in life. The passionate Aries and the freedom-loving Aquarius just complement each other in life.
+For the relationship to survive compromises would be the key.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Aries man and the Aquarius woman find it hard to find any other reliable friend for life and hence settle down with this partner. Both being loners, gel easily. A huge amount of trust and honesty would also be involved here.</t>
+  </si>
+  <si>
+    <t>Fire and water, active and passive natures ...? Well, you're an okay match overall. You understand one another on a deeper level, which is what will bring you together and bind you. Pisces, especially, can tune in to Aries's deeper nature. But there will be times when you look at one another and think, What the ...? You're both idealistic but not always realistic.
+The compatibility between an Aries man and a Pisces woman depends on how both of your agree to disagree. A lot of adjustments would be needed here. 
+The Pisces female finds a good shoulder to cry with the Aries man. He in turn finds her dreamy ideas simply irresistible. But sometimes tempers run wild when the Pisces woman begins her acidic talks.
+Being complementary signs the relationship would work out well when the Pisces woman takes the Aries man as her hero and he in turn fights hard to secure his partner for life .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is one of the most romantic pairs of the zodiac signs. Both the Aries and the Pisces are highly passionate and sensuous to the core. Hence cuddling in the public, a romantic kiss here and there and constant hugs would be a common sight with this duo. The need for the passion of the Aries man would be humbly met by the Pisces woman with out fail.</t>
+  </si>
+  <si>
+    <t>The Aries man and the Pisces woman have mutual interests where your energies coincide but yet do not have much compatibility when it comes to the domain of friendship. Mutual admiration would be there and you both just gel together easily but still, there would not be much commitment needed for a friendship deal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For this couple, sex would be a coming together of mind, body, and soul. it provides a strong point for the relationship to continue for life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Pisces woman and an Aries man are never known to break the relationship. If circumstances beyond nature make your separate then would be a distress for both the souls. You make all efforts to stay intact. Each one brings out the gentler side of the other and hence the parting would be a big burden or loss for both.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2319,7 +5417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2338,6 +5436,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2618,8 +5725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2636,7 +5743,7 @@
     <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="81.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="64" style="1" customWidth="1"/>
+    <col min="13" max="13" width="71.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="119" style="1" customWidth="1"/>
     <col min="15" max="16" width="58.33203125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="1"/>
@@ -6618,4 +9725,4767 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="32" style="11" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="409" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="285" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" ht="300" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="270" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="330" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="405" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="300" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="285" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="345" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="360" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="315" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="375" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="330" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="315" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="375" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="375" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="330" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="210" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="255" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" spans="1:24" ht="195" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" spans="1:24" ht="255" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" spans="1:24" ht="285" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+    </row>
+    <row r="25" spans="1:24" ht="210" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" spans="1:24" ht="285" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" spans="1:24" ht="255" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" spans="1:24" ht="300" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" spans="1:24" ht="240" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" spans="1:24" ht="285" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+    </row>
+    <row r="31" spans="1:24" ht="315" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+    </row>
+    <row r="32" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="345" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="330" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="180" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="180" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="180" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="150" x14ac:dyDescent="0.15">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="285" x14ac:dyDescent="0.15">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="360" x14ac:dyDescent="0.15">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="300" x14ac:dyDescent="0.15">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="375" x14ac:dyDescent="0.15">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:24" ht="360" x14ac:dyDescent="0.15">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="1:24" ht="345" x14ac:dyDescent="0.15">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:24" ht="330" x14ac:dyDescent="0.15">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+    </row>
+    <row r="49" spans="1:18" ht="375" x14ac:dyDescent="0.15">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="1:18" ht="330" x14ac:dyDescent="0.15">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+    </row>
+    <row r="51" spans="1:18" ht="270" x14ac:dyDescent="0.15">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+    </row>
+    <row r="52" spans="1:18" ht="285" x14ac:dyDescent="0.15">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+    </row>
+    <row r="53" spans="1:18" ht="270" x14ac:dyDescent="0.15">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+    </row>
+    <row r="54" spans="1:18" ht="345" x14ac:dyDescent="0.15">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" ht="300" x14ac:dyDescent="0.15">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+    </row>
+    <row r="56" spans="1:18" ht="315" x14ac:dyDescent="0.15">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+    </row>
+    <row r="57" spans="1:18" ht="345" x14ac:dyDescent="0.15">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:18" ht="300" x14ac:dyDescent="0.15">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="1:18" ht="330" x14ac:dyDescent="0.15">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" spans="1:18" ht="390" x14ac:dyDescent="0.15">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" spans="1:18" ht="300" x14ac:dyDescent="0.15">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" spans="1:18" ht="270" x14ac:dyDescent="0.15">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="390" x14ac:dyDescent="0.15">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="375" x14ac:dyDescent="0.15">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="360" x14ac:dyDescent="0.15">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="405" x14ac:dyDescent="0.15">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="405" x14ac:dyDescent="0.15">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="375" x14ac:dyDescent="0.15">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11" ht="300" x14ac:dyDescent="0.15">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11" ht="375" x14ac:dyDescent="0.15">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="375" x14ac:dyDescent="0.15">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="330" x14ac:dyDescent="0.15">
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A82" s="11">
+        <v>80</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="390" x14ac:dyDescent="0.15">
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="405" x14ac:dyDescent="0.15">
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="390" x14ac:dyDescent="0.15">
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="315" x14ac:dyDescent="0.15">
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="375" x14ac:dyDescent="0.15">
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="330" x14ac:dyDescent="0.15">
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A92" s="11">
+        <v>90</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J92" s="13"/>
+    </row>
+    <row r="93" spans="1:10" ht="390" x14ac:dyDescent="0.15">
+      <c r="A93" s="11">
+        <v>91</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J93" s="13"/>
+    </row>
+    <row r="94" spans="1:10" ht="375" x14ac:dyDescent="0.15">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J94" s="13"/>
+    </row>
+    <row r="95" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J96" s="13"/>
+    </row>
+    <row r="97" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A97" s="11">
+        <v>95</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="1:10" ht="360" x14ac:dyDescent="0.15">
+      <c r="A98" s="11">
+        <v>96</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="1:10" ht="360" x14ac:dyDescent="0.15">
+      <c r="A99" s="11">
+        <v>97</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="375" x14ac:dyDescent="0.15">
+      <c r="A100" s="11">
+        <v>98</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="330" x14ac:dyDescent="0.15">
+      <c r="A101" s="11">
+        <v>99</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A102" s="11">
+        <v>100</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="375" x14ac:dyDescent="0.15">
+      <c r="A103" s="11">
+        <v>101</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A104" s="11">
+        <v>102</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A105" s="11">
+        <v>103</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A106" s="11">
+        <v>104</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="300" x14ac:dyDescent="0.15">
+      <c r="A107" s="11">
+        <v>105</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="409" x14ac:dyDescent="0.15">
+      <c r="A108" s="11">
+        <v>106</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="390" x14ac:dyDescent="0.15">
+      <c r="A109" s="11">
+        <v>107</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="405" x14ac:dyDescent="0.15">
+      <c r="A110" s="11">
+        <v>108</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="360" x14ac:dyDescent="0.15">
+      <c r="A111" s="11">
+        <v>109</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="390" x14ac:dyDescent="0.15">
+      <c r="A112" s="11">
+        <v>110</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="330" x14ac:dyDescent="0.15">
+      <c r="A113" s="11">
+        <v>111</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A114" s="11">
+        <v>112</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="390" x14ac:dyDescent="0.15">
+      <c r="A115" s="11">
+        <v>113</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A116" s="11">
+        <v>114</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A117" s="11">
+        <v>115</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A118" s="11">
+        <v>116</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="315" x14ac:dyDescent="0.15">
+      <c r="A119" s="11">
+        <v>117</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A120" s="11">
+        <v>118</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="390" x14ac:dyDescent="0.15">
+      <c r="A121" s="11">
+        <v>119</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="375" x14ac:dyDescent="0.15">
+      <c r="A122" s="11">
+        <v>120</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="345" x14ac:dyDescent="0.15">
+      <c r="A123" s="11">
+        <v>121</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="360" x14ac:dyDescent="0.15">
+      <c r="A124" s="11">
+        <v>122</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="300" x14ac:dyDescent="0.15">
+      <c r="A125" s="11">
+        <v>123</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A126" s="11">
+        <v>124</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A127" s="11">
+        <v>125</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A128" s="11">
+        <v>126</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="375" x14ac:dyDescent="0.15">
+      <c r="A129" s="11">
+        <v>127</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A130" s="11">
+        <v>128</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="375" x14ac:dyDescent="0.15">
+      <c r="A131" s="11">
+        <v>129</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="390" x14ac:dyDescent="0.15">
+      <c r="A132" s="11">
+        <v>130</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="375" x14ac:dyDescent="0.15">
+      <c r="A133" s="11">
+        <v>131</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A134" s="11">
+        <v>132</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="330" x14ac:dyDescent="0.15">
+      <c r="A135" s="11">
+        <v>133</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="375" x14ac:dyDescent="0.15">
+      <c r="A136" s="11">
+        <v>134</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A137" s="11">
+        <v>135</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A138" s="11">
+        <v>136</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A139" s="11">
+        <v>137</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I139" s="13" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A140" s="11">
+        <v>138</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A141" s="11">
+        <v>139</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="375" x14ac:dyDescent="0.15">
+      <c r="A142" s="11">
+        <v>140</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A143" s="11">
+        <v>141</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="375" x14ac:dyDescent="0.15">
+      <c r="A144" s="11">
+        <v>142</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="405" x14ac:dyDescent="0.15">
+      <c r="A145" s="11">
+        <v>143</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I145" s="13" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="409" x14ac:dyDescent="0.15">
+      <c r="A146" s="11">
+        <v>144</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I146" s="13"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D147" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>